--- a/temp/normalized-positive-baseline.xlsx
+++ b/temp/normalized-positive-baseline.xlsx
@@ -461,222 +461,222 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>历史住院次数</t>
+          <t>吸烟</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>吸烟</t>
+          <t>饮酒</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>饮酒</t>
+          <t>过敏史</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>过敏史</t>
+          <t>冠心病</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>冠心病</t>
+          <t>高血压</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>高血压</t>
+          <t>2型糖尿病</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2型糖尿病</t>
+          <t>慢阻肺</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>慢阻肺</t>
+          <t>肺部感染</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>肺部感染</t>
+          <t>肺炎</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>肺炎</t>
+          <t>肝/肾功能异常</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>肝/肾功能异常</t>
+          <t>肿瘤</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>肿瘤</t>
+          <t>心房颤动</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>心房颤动</t>
+          <t>心力衰竭</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>心力衰竭</t>
+          <t>气管插管</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>气管插管</t>
+          <t>输血</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>输血</t>
+          <t>用药总数</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>用药总数</t>
+          <t>抗菌药物数目</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>抗菌药物数目</t>
+          <t>利尿剂</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>利尿剂</t>
+          <t>抗心律失常药</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>抗心律失常药</t>
+          <t>胃肠用药</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>胃肠用药</t>
+          <t>支气管扩张药</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>支气管扩张药</t>
+          <t>体温</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>体温</t>
+          <t>呼吸R</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>呼吸R</t>
+          <t>心率HR</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>心率HR</t>
+          <t>舒张压</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>舒张压</t>
+          <t>收缩压</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>收缩压</t>
+          <t>尿酸(UA)</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>尿酸(UA)</t>
+          <t>(AST/ALT)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>(AST/ALT)</t>
+          <t>尿素(Urea)</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>尿素(Urea)</t>
+          <t>白蛋白(ALB)</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>白蛋白(ALB)</t>
+          <t>总胆红素(TBIL)</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>总胆红素(TBIL)</t>
+          <t>肌酐(Crea)</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>肌酐(Crea)</t>
+          <t>碱性磷酸酶(ALP)</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>碱性磷酸酶(ALP)</t>
+          <t>总蛋白(TP)</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>总蛋白(TP)</t>
+          <t>钾离子(K+)</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>钾离子(K+)</t>
+          <t>氯离子(Cl-)</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>氯离子(Cl-)</t>
+          <t>钙离子(Ca2+)</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>钙离子(Ca2+)</t>
+          <t>钠离子(Na+)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>钠离子(Na+)</t>
+          <t>白细胞计数(WBC#)</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>白细胞计数(WBC#)</t>
+          <t>血小板计数(PLT#)</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>血小板计数(PLT#)</t>
+          <t>红细胞比容(Hct)</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>红细胞比容(Hct)</t>
+          <t>红细胞计数(RBC#)</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>红细胞计数(RBC#)</t>
+          <t>血红蛋白(Hb)</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>血红蛋白(Hb)</t>
+          <t>不良反应</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -708,19 +708,19 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -738,22 +738,22 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -762,73 +762,73 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>2.857142857142787</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.857142857142787</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.333333333333333</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5671641791044776</v>
+        <v>-1.352941176470588</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.352941176470588</v>
+        <v>-0.8732394366197183</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.8732394366197183</v>
+        <v>2.761349842194707</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.761349842194707</v>
+        <v>-0.8624999999999998</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.8624999999999998</v>
+        <v>1.005395683453237</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.005395683453237</v>
+        <v>-0.7443682664054843</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.7443682664054843</v>
+        <v>-0.6538461538461536</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.6538461538461536</v>
+        <v>0.4109289617486338</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.4109289617486338</v>
+        <v>0.4</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.4</v>
+        <v>-0.5752167261601221</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.5752167261601221</v>
+        <v>-0.4938271604938267</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.4938271604938267</v>
+        <v>0.1705634370340167</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.1655861653459112</v>
+        <v>0.6743840281193919</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6737424128590002</v>
+        <v>-0.202429149797571</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.202429149797571</v>
+        <v>1.380447725025347</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.380860494437634</v>
+        <v>1.305084745762712</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.305084745762712</v>
+        <v>-0.02910841591884728</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.02874600790466641</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02685499338330538</v>
+        <v>-0.08781839796752874</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.08676840064951576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -862,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -889,19 +889,19 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="V3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>1</v>
@@ -913,73 +913,73 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>-0.8571428571428281</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.8571428571428281</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.666666666666667</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2388059701492537</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1764705882352941</v>
+        <v>1.042253521126761</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.042253521126761</v>
+        <v>-1.15659140568099</v>
       </c>
       <c r="AG3" t="n">
-        <v>-1.15659140568099</v>
+        <v>-0.2624999999999998</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.2624999999999998</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>0.2154750244857984</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.2154750244857984</v>
+        <v>0.246153846153846</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.246153846153846</v>
+        <v>-0.4371584699453552</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.4371584699453552</v>
+        <v>-0.1176470588235294</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.1176470588235294</v>
+        <v>-0.2039775624681284</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.2039775624681284</v>
+        <v>-0.9876543209876535</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.9876543209876535</v>
+        <v>-0.7116920842411056</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.7116920842411056</v>
+        <v>-0.2102313564959926</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.2108729717563843</v>
+        <v>-0.6072874493927128</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.6072874493927128</v>
+        <v>1.357677326543373</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.35809009595566</v>
+        <v>-0.7288135593220338</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.7288135593220338</v>
+        <v>-0.01455420795942364</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.0143730039523332</v>
+        <v>-0.4210526315789472</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.3941976381956419</v>
+        <v>0.1317275969512931</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1301526009742736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1004,25 +1004,25 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -1046,91 +1046,91 @@
         <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.4776119402985075</v>
+      </c>
+      <c r="AD4" t="n">
         <v>-1</v>
       </c>
-      <c r="W4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>-0.4776119402985075</v>
-      </c>
       <c r="AE4" t="n">
-        <v>-1</v>
+        <v>-0.704225352112676</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.704225352112676</v>
+        <v>-0.4530225782957028</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.4530225782957028</v>
+        <v>3.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.3125</v>
+        <v>-0.2697841726618705</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.2697841726618705</v>
+        <v>-0.4309500489715962</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.4309500489715962</v>
+        <v>-0.2076923076923076</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.2076923076923076</v>
+        <v>-0.4371584699453552</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.4371584699453552</v>
+        <v>-0.2823529411764706</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.2823529411764706</v>
+        <v>-0.3161652218255991</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.3161652218255991</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.1234567901234568</v>
+        <v>1.597676107480031</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.597676107480031</v>
+        <v>-0.78715443341907</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.7877960486794617</v>
+        <v>-0.4048582995951419</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.4048582995951419</v>
+        <v>-0.6195522749746537</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.6191395055623664</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.3559322033898305</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0.1403508771929826</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.1134958838096772</v>
+        <v>0.08781839796752874</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.08676840064951576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1152,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -1170,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1206,82 +1206,82 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
         <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.428571428571394</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.428571428571394</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.333333333333333</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.3582089552238806</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.6470588235294118</v>
+        <v>-0.3661971830985916</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.3661971830985916</v>
+        <v>0.7171643602816216</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.7171643602816216</v>
+        <v>0.5624999999999998</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.5624999999999998</v>
+        <v>0.6852517985611511</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6852517985611511</v>
+        <v>-0.401567091087169</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.401567091087169</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>-0.5005464480874317</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0.5005464480874317</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.7058823529411765</v>
+        <v>-0.5721570627231</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.5721570627231</v>
+        <v>0.9506172839506167</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.9506172839506167</v>
+        <v>-0.653594771241831</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0.653594771241831</v>
+        <v>0.443614797350161</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.4429731820897692</v>
+        <v>-0.4433198380566799</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.4433198380566799</v>
+        <v>-0.8738217246900237</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.8734089552777364</v>
+        <v>-0.864406779661017</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0.864406779661017</v>
+        <v>3.231034166992003</v>
       </c>
       <c r="AU5" t="n">
-        <v>3.190806877417927</v>
+        <v>2.116959064327486</v>
       </c>
       <c r="AV5" t="n">
-        <v>2.143814057710792</v>
+        <v>2.41500594410704</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.386131017861683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1303,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -1312,13 +1312,13 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1327,28 +1327,28 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1357,82 +1357,82 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>4.857142857142747</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.857142857142747</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.333333333333333</v>
+        <v>0.3880597014925373</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.3880597014925373</v>
+        <v>-0.4117647058823529</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.4117647058823529</v>
+        <v>0.3943661971830986</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.3943661971830986</v>
+        <v>0.6788055353241077</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.6788055353241077</v>
+        <v>-0.7499999999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.7499999999999999</v>
+        <v>0.3525179856115109</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.3525179856115109</v>
+        <v>-0.06856023506366263</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.06856023506366263</v>
+        <v>-0.1846153846153846</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.1846153846153846</v>
+        <v>1.12568306010929</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.12568306010929</v>
+        <v>-0.9882352941176471</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.9882352941176471</v>
+        <v>-0.3263640999490057</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.3263640999490057</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.1234567901234568</v>
+        <v>-0.006723883189543213</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0.008030831510064484</v>
+        <v>0.05655394665196045</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.05499704281396541</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>-1.268508631710897</v>
       </c>
       <c r="AS6" t="n">
-        <v>-1.268095862298609</v>
+        <v>-0.6016949152542372</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0.6016949152542372</v>
+        <v>-0.2765299512290451</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.2730870750943268</v>
+        <v>-0.2339181286549704</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.2070631352716651</v>
+        <v>-0.3951827908538793</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0.3904578029228209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1463,16 +1463,16 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1481,16 +1481,16 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1505,85 +1505,85 @@
         <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0.2857142857142828</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2857142857142828</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>1.194029850746269</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.194029850746269</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>-0.02816901408450704</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.02816901408450704</v>
+        <v>0.8856518572469045</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.8856518572469045</v>
+        <v>-0.8749999999999998</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.8749999999999998</v>
+        <v>0.6115107913669064</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6115107913669064</v>
+        <v>0.675808031341822</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.675808031341822</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.1114754098360655</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1114754098360655</v>
+        <v>1.651764705882353</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.651764705882353</v>
+        <v>0.4589495155532881</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.4589495155532881</v>
+        <v>-0.2469135802469131</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.2469135802469131</v>
+        <v>-0.6100217864923759</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0.6100217864923759</v>
+        <v>0.05899941273477602</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0583577974743843</v>
+        <v>0.8704453441295573</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.8704453441295573</v>
+        <v>-0.1869147038171582</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.1865019344048709</v>
+        <v>1.228813559322034</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.228813559322034</v>
+        <v>0.4220720308232794</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.4168171146176568</v>
+        <v>0.3859649122807018</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.4128199056640072</v>
+        <v>0.2634551939025862</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.2603052019485472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1623,10 +1623,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -1650,16 +1650,16 @@
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
         <v>1</v>
@@ -1668,73 +1668,73 @@
         <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>0.8571428571428281</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.8571428571428281</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.970149253731343</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.970149253731343</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.1764705882352941</v>
+        <v>-0.647887323943662</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.647887323943662</v>
+        <v>-1.428987618353969</v>
       </c>
       <c r="AG8" t="n">
-        <v>-1.428987618353969</v>
+        <v>-1.5125</v>
       </c>
       <c r="AH8" t="n">
-        <v>-1.5125</v>
+        <v>-0.1978417266187049</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.1978417266187049</v>
+        <v>-0.6464250734573942</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.6464250734573942</v>
+        <v>0.5615384615384614</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.5615384615384614</v>
+        <v>-1.049180327868853</v>
       </c>
       <c r="AL8" t="n">
-        <v>-1.049180327868853</v>
+        <v>0.103529411764706</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.103529411764706</v>
+        <v>-1.519632840387556</v>
       </c>
       <c r="AN8" t="n">
-        <v>-1.519632840387556</v>
+        <v>-0.4938271604938267</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.4938271604938267</v>
+        <v>-2.033405954974585</v>
       </c>
       <c r="AP8" t="n">
-        <v>-2.033405954974585</v>
+        <v>-0.9410005872652232</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0.9416422025256148</v>
+        <v>-0.4048582995951419</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.4048582995951419</v>
+        <v>-0.2286604343674429</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.2282476649551556</v>
+        <v>-0.7288135593220338</v>
       </c>
       <c r="AT8" t="n">
-        <v>-0.7288135593220338</v>
+        <v>1.01879455715964</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.00611027666331</v>
+        <v>0.5964912280701763</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.6233462214534816</v>
+        <v>0.9660023776428162</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.9544524071446733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1768,10 +1768,10 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1789,28 +1789,28 @@
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
         <v>1</v>
@@ -1819,73 +1819,73 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.3333333333333333</v>
+        <v>0.4776119402985075</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.4776119402985075</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.02816901408450704</v>
+        <v>-0.4675892206846322</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.4675892206846322</v>
+        <v>-0.6999999999999998</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.6999999999999998</v>
+        <v>2.464028776978417</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.464028776978417</v>
+        <v>0.1567091087169442</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.1567091087169442</v>
+        <v>1.776923076923077</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.776923076923077</v>
+        <v>0.8087431693989071</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.8087431693989071</v>
+        <v>0.1929411764705883</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.1929411764705883</v>
+        <v>-0.4385517593064764</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.4385517593064764</v>
+        <v>1.604938271604938</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.604938271604938</v>
+        <v>1.118373275236022</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.118373275236022</v>
+        <v>0.5205378742732379</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5198962590128462</v>
+        <v>0.4251012145748979</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.4251012145748979</v>
+        <v>-0.4032334893959059</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.4028207199836186</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.694915254237288</v>
+        <v>-0.3638551989855859</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0.359325098808325</v>
+        <v>-0.374269005847953</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.3474140124646476</v>
+        <v>-0.5708195867889369</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.5639946042218523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1907,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1925,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1961,82 +1961,82 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>3.428571428571353</v>
       </c>
       <c r="AB10" t="n">
-        <v>3.428571428571353</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>2.176470588235294</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.176470588235294</v>
+        <v>1.605633802816901</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.605633802816901</v>
+        <v>-0.1034231609613984</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.1034231609613984</v>
+        <v>-0.9374999999999997</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.9374999999999997</v>
+        <v>0.2338129496402879</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.2338129496402879</v>
+        <v>1.253672869735553</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.253672869735553</v>
+        <v>0.5615384615384614</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.5615384615384614</v>
+        <v>-0.1617486338797816</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.1617486338797816</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.9882352941176471</v>
+        <v>1.703212646608872</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.703212646608872</v>
+        <v>0.3703703703703705</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.3703703703703705</v>
+        <v>-0.5519244734931013</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0.5519244734931013</v>
+        <v>1.366691720427085</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.366050105166693</v>
+        <v>0.4655870445344155</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.4655870445344155</v>
+        <v>-0.05029231292531777</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.04987954351303048</v>
+        <v>-0.4576271186440678</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0.4576271186440678</v>
+        <v>1.993926490441011</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.969101541469621</v>
+        <v>1.321637426900585</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.34849242028389</v>
+        <v>1.624640362399282</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.605215412016041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -2076,10 +2076,10 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -2103,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
         <v>1</v>
@@ -2115,79 +2115,79 @@
         <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC11" t="n">
-        <v>3</v>
+        <v>4.895522388059701</v>
       </c>
       <c r="AD11" t="n">
-        <v>4.895522388059701</v>
+        <v>-0.7647058823529411</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.7647058823529411</v>
+        <v>-0.7605633802816901</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.7605633802816901</v>
+        <v>0.3607671764991502</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.3607671764991502</v>
+        <v>-0.3249999999999999</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.3249999999999999</v>
+        <v>0.3057553956834531</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.3057553956834531</v>
+        <v>1.175318315377081</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.175318315377081</v>
+        <v>0.8846153846153844</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.8846153846153844</v>
+        <v>1.704918032786885</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.704918032786885</v>
+        <v>-0.8941176470588236</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.8941176470588236</v>
+        <v>1.468638449770524</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.468638449770524</v>
+        <v>0.7407407407407404</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.7407407407407404</v>
+        <v>-1.612200435729849</v>
       </c>
       <c r="AP11" t="n">
-        <v>-1.612200435729849</v>
+        <v>1.020537874273238</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.019896259012846</v>
+        <v>-0.7692307692307719</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0.7692307692307719</v>
+        <v>-0.4279014210847105</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.4274886516724232</v>
+        <v>-0.6440677966101694</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0.6440677966101694</v>
+        <v>0.596722526336361</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.5892931620456532</v>
+        <v>0.0467836257309942</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.07363861911429957</v>
+        <v>0.6147287857727012</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.6073788045466102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2209,31 +2209,31 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -2248,16 +2248,16 @@
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
         <v>1</v>
@@ -2266,79 +2266,79 @@
         <v>1</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.5373134328358209</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.5373134328358209</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.235294117647059</v>
+        <v>1.014084507042254</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.014084507042254</v>
+        <v>-0.6957999514445252</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.6957999514445252</v>
+        <v>-0.7749999999999997</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.7749999999999997</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.2500000000000001</v>
+        <v>-0.009794319294808449</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.009794319294808449</v>
+        <v>-0.2923076923076923</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.2923076923076923</v>
+        <v>-0.9617486338797814</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.9617486338797814</v>
+        <v>0.4</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-1.11111111111111</v>
       </c>
       <c r="AO12" t="n">
-        <v>-1.11111111111111</v>
+        <v>1.161946259985477</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.161946259985477</v>
+        <v>1.328230181965546</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.327588566705154</v>
+        <v>3.036437246963564</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.036437246963564</v>
+        <v>-0.3159469618816744</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.3155341924693871</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.3728813559322034</v>
+        <v>1.164336636753875</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.14984031618664</v>
+        <v>1.157894736842106</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.184749730225411</v>
+        <v>0.8781839796752874</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.8676840064951575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2393,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2405,10 +2405,10 @@
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
         <v>1</v>
@@ -2423,73 +2423,73 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>-0.5714285714285656</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.5714285714285656</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.3333333333333333</v>
+        <v>0.1791044776119403</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.1791044776119403</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.2535211267605634</v>
+        <v>-0.5064336003884438</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.5064336003884438</v>
+        <v>2.024999999999999</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.024999999999999</v>
+        <v>-0.7410071942446043</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.7410071942446043</v>
+        <v>-0.4799216454456412</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.4799216454456412</v>
+        <v>-0.5538461538461537</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.5538461538461537</v>
+        <v>-0.7650273224043715</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.7650273224043715</v>
+        <v>-0.4235294117647059</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.4235294117647059</v>
+        <v>-0.6629270780214171</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.6629270780214171</v>
+        <v>-1.728395061728394</v>
       </c>
       <c r="AO13" t="n">
-        <v>-1.728395061728394</v>
+        <v>0.7262164124909233</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.7262164124909233</v>
+        <v>0.09746095119631537</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.09681933593592365</v>
+        <v>1.619433198380568</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.619433198380568</v>
+        <v>-1.074960244614122</v>
       </c>
       <c r="AS13" t="n">
-        <v>-1.074547475201835</v>
+        <v>-0.8813559322033898</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.8813559322033898</v>
+        <v>-0.2910841591884687</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.28746007904666</v>
+        <v>-0.4678362573099409</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.4409812639266355</v>
+        <v>-0.4390919898376437</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.4338420032475788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2511,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2520,22 +2520,22 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -2544,10 +2544,10 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -2571,76 +2571,76 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>-0.8571428571428281</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.8571428571428281</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.3333333333333333</v>
+        <v>1.014925373134328</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.014925373134328</v>
+        <v>-0.5294117647058824</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.5294117647058824</v>
+        <v>-0.8169014084507042</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.8169014084507042</v>
+        <v>-0.5210002427773731</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.5210002427773731</v>
+        <v>-0.8249999999999997</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.8249999999999997</v>
+        <v>-0.1780575539568346</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.1780575539568346</v>
+        <v>-0.6072477962781579</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.6072477962781579</v>
+        <v>-0.3846153846153845</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.3846153846153845</v>
+        <v>-0.1136612021857924</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.1136612021857924</v>
+        <v>0.2305147244303294</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.2304468038224754</v>
+        <v>-0.9029644278723477</v>
       </c>
       <c r="AN14" t="n">
-        <v>-0.7296749278437555</v>
+        <v>1.617283950617283</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.617283950617283</v>
+        <v>0.2469135802469143</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.2469135802469143</v>
+        <v>-0.1333082795729156</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0.1339498948333073</v>
+        <v>-0.6275303643724688</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.6275303643724688</v>
+        <v>-0.3425124267773102</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0.3420996573650229</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.3559322033898305</v>
+        <v>-0.4511804467421267</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0.4455631225223232</v>
+        <v>-0.4210526315789472</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0.3941976381956419</v>
+        <v>-0.6586379847564655</v>
       </c>
       <c r="AW14" t="n">
-        <v>-0.6507630048713681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2674,19 +2674,19 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2716,82 +2716,82 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>-1.428571428571394</v>
       </c>
       <c r="AB15" t="n">
-        <v>-1.428571428571394</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.194029850746269</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.194029850746269</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.3529411764705883</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>0.004369992716678694</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.004369992716678694</v>
+        <v>0.2624999999999998</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2624999999999998</v>
+        <v>0.3093525179856116</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.3093525179856116</v>
+        <v>0.6072477962781587</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.6072477962781587</v>
+        <v>-0.6230769230769229</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.6230769230769229</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0.4047058823529412</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.4047058823529412</v>
+        <v>0.3365629780724123</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.3365629780724123</v>
+        <v>-1.48148148148148</v>
       </c>
       <c r="AO15" t="n">
-        <v>-1.48148148148148</v>
+        <v>0.174291938997822</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.174291938997822</v>
+        <v>-0.7486928949575316</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0.7493345102179232</v>
+        <v>-0.202429149797571</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0.202429149797571</v>
+        <v>0.06399162175048231</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.06457481461309467</v>
+        <v>0.07091718984040085</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.07091572191587463</v>
+        <v>0.5300249960982329</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.5483266008143668</v>
+        <v>0.3537918114891228</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.3997768646408907</v>
+        <v>0.4192688365844827</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.4381687883087153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2822,28 +2822,28 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -2858,16 +2858,16 @@
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
         <v>1</v>
@@ -2876,73 +2876,73 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="n">
-        <v>1</v>
+        <v>-0.417910447761194</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.417910447761194</v>
+        <v>-0.8823529411764706</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.8823529411764706</v>
+        <v>-0.704225352112676</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.704225352112676</v>
+        <v>-0.7312454479242534</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.7312454479242534</v>
+        <v>-0.1500000000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0.1500000000000001</v>
+        <v>1.172661870503597</v>
       </c>
       <c r="AI16" t="n">
-        <v>1.172661870503597</v>
+        <v>0.7541625857002938</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.7541625857002938</v>
+        <v>1.641538461538461</v>
       </c>
       <c r="AK16" t="n">
-        <v>1.641538461538461</v>
+        <v>1.822950819672131</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.822950819672131</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.7294117647058823</v>
+        <v>0.4895461499235085</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.4895461499235085</v>
+        <v>0.5679012345679014</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.5679012345679014</v>
+        <v>-1.23456790123457</v>
       </c>
       <c r="AP16" t="n">
-        <v>-1.23456790123457</v>
+        <v>-1.210231356495993</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-1.210872971756384</v>
+        <v>-0.9716599190283428</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0.9716599190283428</v>
+        <v>1.291263664304284</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.291676433716572</v>
+        <v>1.279661016949152</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.279661016949152</v>
+        <v>0.8150356457277126</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.8048882213306482</v>
+        <v>0.5146198830409361</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.5414748764242415</v>
+        <v>0.6147287857727012</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.6073788045466102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2964,16 +2964,16 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -2985,10 +2985,10 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
@@ -3009,13 +3009,13 @@
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="V17" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
         <v>1</v>
@@ -3027,73 +3027,73 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-1.014925373134328</v>
       </c>
       <c r="AD17" t="n">
-        <v>-1.014925373134328</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.4225352112676056</v>
+        <v>-0.06457878125758683</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.06457878125758683</v>
+        <v>-0.3499999999999999</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.3499999999999999</v>
+        <v>-0.03597122302158276</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.03597122302158276</v>
+        <v>0.4113614103819785</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.4113614103819785</v>
+        <v>-0.6230769230769229</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.6230769230769229</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1.152941176470588</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.152941176470588</v>
+        <v>-0.1121876593574707</v>
       </c>
       <c r="AN17" t="n">
-        <v>-0.1121876593574707</v>
+        <v>-0.4938271604938267</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.4938271604938267</v>
+        <v>-0.5809731299927386</v>
       </c>
       <c r="AP17" t="n">
-        <v>-0.5809731299927386</v>
+        <v>0.289768643504007</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.2891270282436152</v>
+        <v>-0.6072874493927128</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0.6072874493927128</v>
+        <v>0.3671649925775288</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.3675777619898161</v>
+        <v>-0.6186440677966102</v>
       </c>
       <c r="AT17" t="n">
-        <v>-0.6186440677966102</v>
+        <v>0.436626238782703</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.43119011856999</v>
+        <v>0.1403508771929826</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.167205870576288</v>
+        <v>0.3073643928863506</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.3036894022733051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -3124,10 +3124,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -3142,10 +3142,10 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -3166,85 +3166,85 @@
         <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>-0.8571428571428281</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.8571428571428281</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-1.104477611940299</v>
       </c>
       <c r="AD18" t="n">
-        <v>-1.104477611940299</v>
+        <v>-0.2941176470588235</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.2941176470588235</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.05633802816901409</v>
+        <v>2.212672978878368</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.212672978878368</v>
+        <v>0.03750000000000002</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.03750000000000002</v>
+        <v>7.865107913669063</v>
       </c>
       <c r="AI18" t="n">
-        <v>7.865107913669063</v>
+        <v>-0.3917727717923599</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.3917727717923599</v>
+        <v>-0.03076923076923079</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.03076923076923079</v>
+        <v>1.519125683060109</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.519125683060109</v>
+        <v>6.117647058823529</v>
       </c>
       <c r="AM18" t="n">
-        <v>6.117647058823529</v>
+        <v>-0.9739928607853133</v>
       </c>
       <c r="AN18" t="n">
-        <v>-0.9739928607853133</v>
+        <v>1.518518518518517</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.518518518518517</v>
+        <v>0.8278867102396529</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.8278867102396529</v>
+        <v>0.7128455665809296</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.7122039513205378</v>
+        <v>0.202429149797571</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.202429149797571</v>
+        <v>-0.4032334893959059</v>
       </c>
       <c r="AS18" t="n">
-        <v>-0.4028207199836186</v>
+        <v>-0.3050847457627119</v>
       </c>
       <c r="AT18" t="n">
-        <v>-0.3050847457627119</v>
+        <v>-2.081251738197551</v>
       </c>
       <c r="AU18" t="n">
-        <v>-2.055339565183619</v>
+        <v>-1.83625730994152</v>
       </c>
       <c r="AV18" t="n">
-        <v>-1.809402316558215</v>
+        <v>-2.019823153253161</v>
       </c>
       <c r="AW18" t="n">
-        <v>-1.995673214938862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -3299,10 +3299,10 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -3311,16 +3311,16 @@
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
         <v>1</v>
@@ -3329,73 +3329,73 @@
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>1.142857142857111</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.142857142857111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.3333333333333333</v>
+        <v>-1.343283582089552</v>
       </c>
       <c r="AD19" t="n">
-        <v>-1.343283582089552</v>
+        <v>-0.05882352941176471</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.05882352941176471</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.02816901408450704</v>
+        <v>0.9754794853119689</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.9754794853119689</v>
+        <v>0.03750000000000002</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.03750000000000002</v>
+        <v>0.6474820143884891</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.6474820143884891</v>
+        <v>0.7737512242899121</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.7737512242899121</v>
+        <v>1.123076923076923</v>
       </c>
       <c r="AK19" t="n">
-        <v>1.123076923076923</v>
+        <v>0.887431693989071</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.887431693989071</v>
+        <v>-0.07294117647058811</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0.07294117647058811</v>
+        <v>0.1835798062213159</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.1835798062213159</v>
+        <v>-0.2469135802469131</v>
       </c>
       <c r="AO19" t="n">
-        <v>-0.2469135802469131</v>
+        <v>-0.174291938997822</v>
       </c>
       <c r="AP19" t="n">
-        <v>-0.174291938997822</v>
+        <v>0.5589994127347756</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.5583577974743839</v>
+        <v>-0.202429149797571</v>
       </c>
       <c r="AR19" t="n">
-        <v>-0.202429149797571</v>
+        <v>-0.8510513262080502</v>
       </c>
       <c r="AS19" t="n">
-        <v>-0.8506385567957629</v>
+        <v>-0.9067796610169492</v>
       </c>
       <c r="AT19" t="n">
-        <v>-0.9067796610169492</v>
+        <v>-0.4657346547015503</v>
       </c>
       <c r="AU19" t="n">
-        <v>-0.4599361264746564</v>
+        <v>-0.5730994152046781</v>
       </c>
       <c r="AV19" t="n">
-        <v>-0.5462444218213727</v>
+        <v>-0.5708195867889369</v>
       </c>
       <c r="AW19" t="n">
-        <v>-0.5639946042218523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3417,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3435,10 +3435,10 @@
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
@@ -3471,82 +3471,82 @@
         <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>7.142857142856969</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.142857142856969</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3283582089552239</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.3283582089552239</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>-0.02816901408450704</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.02816901408450704</v>
+        <v>-0.7055110463704781</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.7055110463704781</v>
+        <v>0.2624999999999998</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.2624999999999998</v>
+        <v>-0.3327338129496402</v>
       </c>
       <c r="AI20" t="n">
-        <v>-0.3327338129496402</v>
+        <v>-0.8227228207639564</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-0.8227228207639564</v>
+        <v>-0.669230769230769</v>
       </c>
       <c r="AK20" t="n">
-        <v>-0.669230769230769</v>
+        <v>0.1530054644808743</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.1530054644808743</v>
+        <v>-1.458823529411765</v>
       </c>
       <c r="AM20" t="n">
-        <v>-1.458823529411765</v>
+        <v>-1.25446200917899</v>
       </c>
       <c r="AN20" t="n">
-        <v>-1.25446200917899</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>-0.7486928949575316</v>
       </c>
       <c r="AQ20" t="n">
-        <v>-0.7493345102179232</v>
+        <v>-0.4048582995951419</v>
       </c>
       <c r="AR20" t="n">
-        <v>-0.4048582995951419</v>
+        <v>-0.6575029391112759</v>
       </c>
       <c r="AS20" t="n">
-        <v>-0.6570901696989887</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.1101694915254237</v>
+        <v>0.1455420795942343</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.14373003952333</v>
+        <v>0.1286549707602343</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.1555099641435397</v>
+        <v>0.08781839796752874</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.08676840064951576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3577,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -3589,10 +3589,10 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -3604,25 +3604,25 @@
         <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
         <v>1</v>
@@ -3631,73 +3631,73 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>0.2857142857142828</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.2857142857142828</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.5074626865671642</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0.3098591549295774</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.3098591549295774</v>
+        <v>-0.5452779800922554</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.5452779800922554</v>
+        <v>-0.6874999999999998</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.6874999999999998</v>
+        <v>0.2517985611510792</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.2517985611510792</v>
+        <v>-0.1528719789516859</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-0.1650716681480356</v>
+        <v>0.2382772824493984</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.2381978337254153</v>
+        <v>-1.092896174863388</v>
       </c>
       <c r="AL21" t="n">
-        <v>-1.092896174863388</v>
+        <v>4.164705882352941</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.164705882352941</v>
+        <v>-0.5099439061703209</v>
       </c>
       <c r="AN21" t="n">
-        <v>-0.5099439061703209</v>
+        <v>-0.1234567901234568</v>
       </c>
       <c r="AO21" t="n">
-        <v>-0.1234567901234568</v>
+        <v>0.2904865649963693</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.2904865649963693</v>
+        <v>-0.4410005872652236</v>
       </c>
       <c r="AQ21" t="n">
-        <v>-0.4416422025256153</v>
+        <v>-0.202429149797571</v>
       </c>
       <c r="AR21" t="n">
-        <v>-0.202429149797571</v>
+        <v>0.4620416529190847</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.462454422331372</v>
+        <v>0.6864406779661016</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6864406779661016</v>
+        <v>0.7277103979711718</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.7186501976166501</v>
+        <v>0.7017543859649129</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.7286093793482183</v>
+        <v>0.351273591870115</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.347073602598063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3719,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3728,19 +3728,19 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
@@ -3755,10 +3755,10 @@
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
@@ -3767,88 +3767,88 @@
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>1.142857142857111</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.142857142857111</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.3333333333333333</v>
+        <v>1.164179104477612</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.164179104477612</v>
+        <v>1.352941176470588</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.352941176470588</v>
+        <v>1.014084507042254</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.014084507042254</v>
+        <v>1.256130128672007</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.256130128672007</v>
+        <v>0.2124999999999998</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.2124999999999998</v>
+        <v>-0.4496402877697842</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.4496402877697842</v>
+        <v>0.6660137120470129</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.6660137120470129</v>
+        <v>0.1153846153846153</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.1153846153846153</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.3058823529411765</v>
+        <v>0.5507394186639465</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.5507394186639465</v>
+        <v>0.1214176927415866</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.1239774599755186</v>
+        <v>0.03722373134271511</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.03499128649593419</v>
+        <v>0.4203155153689989</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.4171908415789541</v>
+        <v>0.05668517766032637</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.05670180720465436</v>
+        <v>2.036994214588914</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.037406984001202</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.3728813559322034</v>
+        <v>0.1455420795942343</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.14373003952333</v>
+        <v>0.116959064327486</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.1438140577107914</v>
+        <v>-0.3951827908538793</v>
       </c>
       <c r="AW22" t="n">
-        <v>-0.3904578029228209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3879,10 +3879,10 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -3891,10 +3891,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
@@ -3909,19 +3909,19 @@
         <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="V23" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>1</v>
@@ -3933,73 +3933,73 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="AC23" t="n">
-        <v>-1.333333333333333</v>
+        <v>-0.4477611940298508</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.4477611940298508</v>
+        <v>-0.4117647058823529</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.4117647058823529</v>
+        <v>-0.4225352112676056</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.4225352112676056</v>
+        <v>-0.1908230152949745</v>
       </c>
       <c r="AG23" t="n">
-        <v>-0.1908230152949745</v>
+        <v>6.849999999999998</v>
       </c>
       <c r="AH23" t="n">
-        <v>6.849999999999998</v>
+        <v>0.6294964028776978</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.6294964028776978</v>
+        <v>-0.6366307541625851</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-0.6366307541625851</v>
+        <v>-0.346153846153846</v>
       </c>
       <c r="AK23" t="n">
-        <v>-0.346153846153846</v>
+        <v>-0.06557377049180328</v>
       </c>
       <c r="AL23" t="n">
-        <v>-0.06557377049180328</v>
+        <v>-0.6352941176470588</v>
       </c>
       <c r="AM23" t="n">
-        <v>-0.6352941176470588</v>
+        <v>-0.7751147373788879</v>
       </c>
       <c r="AN23" t="n">
-        <v>-0.7751147373788879</v>
+        <v>-0.3703703703703699</v>
       </c>
       <c r="AO23" t="n">
-        <v>-0.3703703703703699</v>
+        <v>1.016702977487293</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.016702977487293</v>
+        <v>-1.864077510342147</v>
       </c>
       <c r="AQ23" t="n">
-        <v>-1.864719125602539</v>
+        <v>0.202429149797571</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.202429149797571</v>
+        <v>0.1584363398261053</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.1588491092383926</v>
+        <v>-0.3898305084745763</v>
       </c>
       <c r="AT23" t="n">
-        <v>-0.3898305084745763</v>
+        <v>0.1455420795942343</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.14373003952333</v>
+        <v>0.6900584795321646</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.71691347291547</v>
+        <v>0.08781839796752874</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.08676840064951576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -4039,10 +4039,10 @@
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
@@ -4069,88 +4069,88 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>0.5714285714285656</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.5714285714285656</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.3333333333333333</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.1194029850746269</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.6470588235294118</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>-0.2053896576839039</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.2053896576839039</v>
+        <v>-0.6124999999999998</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.6124999999999998</v>
+        <v>-0.1798561151079137</v>
       </c>
       <c r="AI24" t="n">
-        <v>-0.1798561151079137</v>
+        <v>-0.07835455435847177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-0.07835455435847177</v>
+        <v>-0.5769230769230768</v>
       </c>
       <c r="AK24" t="n">
-        <v>-0.5769230769230768</v>
+        <v>-0.3715846994535519</v>
       </c>
       <c r="AL24" t="n">
-        <v>-0.3715846994535519</v>
+        <v>-0.4470588235294118</v>
       </c>
       <c r="AM24" t="n">
-        <v>-0.4470588235294118</v>
+        <v>-0.6323304436511982</v>
       </c>
       <c r="AN24" t="n">
-        <v>-0.6323304436511982</v>
+        <v>0.3703703703703705</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.3703703703703705</v>
+        <v>0.435729847494554</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.435729847494554</v>
+        <v>-0.171769818034455</v>
       </c>
       <c r="AQ24" t="n">
-        <v>-0.1724114332948467</v>
+        <v>0.202429149797571</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.202429149797571</v>
+        <v>-0.5436509467014088</v>
       </c>
       <c r="AS24" t="n">
-        <v>-0.5432381772891215</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.1864406779661017</v>
+        <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>0</v>
+        <v>-0.1286549707602332</v>
       </c>
       <c r="AV24" t="n">
-        <v>-0.1017999773769279</v>
+        <v>-0.4390919898376437</v>
       </c>
       <c r="AW24" t="n">
-        <v>-0.4338420032475788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4172,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -4181,34 +4181,34 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -4229,79 +4229,79 @@
         <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>-1.428571428571394</v>
       </c>
       <c r="AB25" t="n">
-        <v>-1.428571428571394</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>-0.05882352941176471</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.05882352941176471</v>
+        <v>-0.3098591549295774</v>
       </c>
       <c r="AF25" t="n">
-        <v>-0.3098591549295774</v>
+        <v>1.672736100995386</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.672736100995386</v>
+        <v>1.2875</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.2875</v>
+        <v>0.3363309352517984</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.3363309352517984</v>
+        <v>-0.2938295788442699</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-0.2938295788442699</v>
+        <v>-0.8999999999999997</v>
       </c>
       <c r="AK25" t="n">
-        <v>-0.8999999999999997</v>
+        <v>1.794535519125683</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.794535519125683</v>
+        <v>0.5223529411764707</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.5223529411764707</v>
+        <v>-0.1937786843447218</v>
       </c>
       <c r="AN25" t="n">
-        <v>-0.1937786843447218</v>
+        <v>0.6172839506172841</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.6172839506172841</v>
+        <v>0.073555812985896</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.0706382548654186</v>
+        <v>-0.9794621257267616</v>
       </c>
       <c r="AQ25" t="n">
-        <v>-0.9801037409871534</v>
+        <v>0.4048582995951419</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.4048582995951419</v>
+        <v>1.052174480243563</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.05258724965585</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.0423728813559322</v>
+        <v>-0.6258309422552073</v>
       </c>
       <c r="AU25" t="n">
-        <v>-0.6180391699503186</v>
+        <v>0.9941520467836263</v>
       </c>
       <c r="AV25" t="n">
-        <v>1.021007040166932</v>
+        <v>-0.9220931786590517</v>
       </c>
       <c r="AW25" t="n">
-        <v>-0.9110682068199154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4323,31 +4323,31 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
@@ -4368,91 +4368,91 @@
         <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
         <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>0.2857142857142828</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.2857142857142828</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1.432835820895522</v>
       </c>
       <c r="AD26" t="n">
-        <v>1.432835820895522</v>
+        <v>-0.05882352941176471</v>
       </c>
       <c r="AE26" t="n">
-        <v>-0.05882352941176471</v>
+        <v>-0.7605633802816901</v>
       </c>
       <c r="AF26" t="n">
-        <v>-0.7605633802816901</v>
+        <v>0.1448182794919727</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.143825034107412</v>
+        <v>-0.9624999999999997</v>
       </c>
       <c r="AH26" t="n">
-        <v>-0.9624999999999997</v>
+        <v>0.2287683198350233</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.2285712189327304</v>
+        <v>0.5974534769833495</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.5974534769833495</v>
+        <v>0.8230769230769228</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.8230769230769228</v>
+        <v>0.5027322404371585</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.5027322404371585</v>
+        <v>-0.5882352941176471</v>
       </c>
       <c r="AM26" t="n">
-        <v>-0.5882352941176471</v>
+        <v>0.6425293217746048</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.6425293217746048</v>
+        <v>-0.2469135802469131</v>
       </c>
       <c r="AO26" t="n">
-        <v>-0.2469135802469131</v>
+        <v>1.016702977487293</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.016702977487293</v>
+        <v>-0.3640775103421466</v>
       </c>
       <c r="AQ26" t="n">
-        <v>-0.3647191256025383</v>
+        <v>0.6072874493927128</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.6072874493927128</v>
+        <v>-0.1072183091302512</v>
       </c>
       <c r="AS26" t="n">
-        <v>-0.1068055397179639</v>
+        <v>0</v>
       </c>
       <c r="AT26" t="n">
-        <v>0</v>
+        <v>-0.436626238782703</v>
       </c>
       <c r="AU26" t="n">
-        <v>-0.43119011856999</v>
+        <v>-0.2807017543859647</v>
       </c>
       <c r="AV26" t="n">
-        <v>-0.2538467610026593</v>
+        <v>-0.8781839796752874</v>
       </c>
       <c r="AW26" t="n">
-        <v>-0.8676840064951575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4489,13 +4489,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -4519,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4528,82 +4528,82 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="n">
         <v>1</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.3333333333333333</v>
+        <v>-1.074626865671642</v>
       </c>
       <c r="AD27" t="n">
-        <v>-1.074626865671642</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.5294117647058824</v>
+        <v>1.154929577464789</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.154929577464789</v>
+        <v>0.8045642146151977</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.8045642146151977</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>0.2517985611510792</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.2517985611510792</v>
+        <v>-0.3917727717923599</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-0.3917727717923599</v>
+        <v>-0.6999999999999997</v>
       </c>
       <c r="AK27" t="n">
-        <v>-0.6999999999999997</v>
+        <v>2.316939890710382</v>
       </c>
       <c r="AL27" t="n">
-        <v>2.316939890710382</v>
+        <v>-0.9647058823529412</v>
       </c>
       <c r="AM27" t="n">
-        <v>-0.9647058823529412</v>
+        <v>-0.9280979092299843</v>
       </c>
       <c r="AN27" t="n">
-        <v>-0.9280979092299843</v>
+        <v>-0.1234567901234568</v>
       </c>
       <c r="AO27" t="n">
-        <v>-0.1234567901234568</v>
+        <v>0.435729847494554</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.435729847494554</v>
+        <v>0</v>
       </c>
       <c r="AQ27" t="n">
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>1.031301614968421</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.031714384380708</v>
+        <v>-0.1440677966101695</v>
       </c>
       <c r="AT27" t="n">
-        <v>-0.1440677966101695</v>
+        <v>0.2910841591884687</v>
       </c>
       <c r="AU27" t="n">
-        <v>0.28746007904666</v>
+        <v>1.567251461988305</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.59410645537161</v>
+        <v>0.1317275969512931</v>
       </c>
       <c r="AW27" t="n">
-        <v>0.1301526009742736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -4643,13 +4643,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>1</v>
@@ -4670,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4682,79 +4682,79 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="n">
         <v>1</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>1.428571428571394</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.428571428571394</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.3333333333333333</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.02985074626865672</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.4788732394366197</v>
+        <v>-0.1325564457392571</v>
       </c>
       <c r="AG28" t="n">
-        <v>-0.1325564457392571</v>
+        <v>-0.2999999999999999</v>
       </c>
       <c r="AH28" t="n">
-        <v>-0.2999999999999999</v>
+        <v>0.528776978417266</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.528776978417266</v>
+        <v>0.009794319294809145</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.009794319294809145</v>
+        <v>-0.246153846153846</v>
       </c>
       <c r="AK28" t="n">
-        <v>-0.246153846153846</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.7868852459016393</v>
+        <v>-1.011764705882353</v>
       </c>
       <c r="AM28" t="n">
-        <v>-1.011764705882353</v>
+        <v>0.1733809280979087</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.1733809280979087</v>
+        <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>0.5809731299927386</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.5809731299927386</v>
+        <v>-0.01792366418830097</v>
       </c>
       <c r="AQ28" t="n">
-        <v>-0.01856527944869269</v>
+        <v>0.8097165991902838</v>
       </c>
       <c r="AR28" t="n">
-        <v>0.8097165991902838</v>
+        <v>0.4810169849873959</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.4814297543996832</v>
+        <v>-0.3220338983050847</v>
       </c>
       <c r="AT28" t="n">
-        <v>-0.3220338983050847</v>
+        <v>-0.436626238782703</v>
       </c>
       <c r="AU28" t="n">
-        <v>-0.43119011856999</v>
+        <v>-0.350877192982456</v>
       </c>
       <c r="AV28" t="n">
-        <v>-0.3240221995991506</v>
+        <v>-0.2634551939025862</v>
       </c>
       <c r="AW28" t="n">
-        <v>-0.2603052019485472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4782,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -4794,13 +4794,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
@@ -4809,10 +4809,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -4821,16 +4821,16 @@
         <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
         <v>1</v>
@@ -4839,73 +4839,73 @@
         <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>-0.2857142857142828</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.2857142857142828</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.208955223880597</v>
+        <v>-0.1764705882352941</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.1764705882352941</v>
+        <v>-0.6197183098591549</v>
       </c>
       <c r="AF29" t="n">
-        <v>-0.6197183098591549</v>
+        <v>1.04734158776402</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.04734158776402</v>
+        <v>-0.8124999999999998</v>
       </c>
       <c r="AH29" t="n">
-        <v>-0.8124999999999998</v>
+        <v>1.348920863309352</v>
       </c>
       <c r="AI29" t="n">
-        <v>1.348920863309352</v>
+        <v>-0.8129285014691473</v>
       </c>
       <c r="AJ29" t="n">
-        <v>-0.8129285014691473</v>
+        <v>1.115384615384615</v>
       </c>
       <c r="AK29" t="n">
-        <v>1.115384615384615</v>
+        <v>0.4808743169398907</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.4808743169398907</v>
+        <v>-0.5882352941176471</v>
       </c>
       <c r="AM29" t="n">
-        <v>-0.5882352941176471</v>
+        <v>-2.172361040285567</v>
       </c>
       <c r="AN29" t="n">
-        <v>-2.172361040285567</v>
+        <v>-0.2469135802469131</v>
       </c>
       <c r="AO29" t="n">
-        <v>-0.2469135802469131</v>
+        <v>-0.1452432824981847</v>
       </c>
       <c r="AP29" t="n">
-        <v>-0.1452432824981847</v>
+        <v>-0.9410005872652232</v>
       </c>
       <c r="AQ29" t="n">
-        <v>-0.9416422025256148</v>
+        <v>-2.024291497975709</v>
       </c>
       <c r="AR29" t="n">
-        <v>-2.024291497975709</v>
+        <v>0.1774116718944168</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.1778244413067041</v>
+        <v>-0.01694915254237288</v>
       </c>
       <c r="AT29" t="n">
-        <v>-0.01694915254237288</v>
+        <v>1.309878716348109</v>
       </c>
       <c r="AU29" t="n">
-        <v>1.29357035570997</v>
+        <v>1.12280701754386</v>
       </c>
       <c r="AV29" t="n">
-        <v>1.149662010927165</v>
+        <v>1.492912765447989</v>
       </c>
       <c r="AW29" t="n">
-        <v>1.475062811041768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -4939,16 +4939,16 @@
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
@@ -4957,10 +4957,10 @@
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
         <v>1</v>
@@ -4975,88 +4975,88 @@
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
         <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>-0.1791044776119403</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.1791044776119403</v>
+        <v>-1</v>
       </c>
       <c r="AE30" t="n">
-        <v>-1</v>
+        <v>-0.5352112676056338</v>
       </c>
       <c r="AF30" t="n">
-        <v>-0.5352112676056338</v>
+        <v>-1.142510318038359</v>
       </c>
       <c r="AG30" t="n">
-        <v>-1.142510318038359</v>
+        <v>-0.3374999999999999</v>
       </c>
       <c r="AH30" t="n">
-        <v>-0.3374999999999999</v>
+        <v>-0.9118705035971223</v>
       </c>
       <c r="AI30" t="n">
-        <v>-0.9118705035971223</v>
+        <v>-0.6660137120470122</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-0.6660137120470122</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="AK30" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.049180327868853</v>
       </c>
       <c r="AL30" t="n">
-        <v>-1.049180327868853</v>
+        <v>3.105882352941177</v>
       </c>
       <c r="AM30" t="n">
-        <v>3.105882352941177</v>
+        <v>-1.642019377868434</v>
       </c>
       <c r="AN30" t="n">
-        <v>-1.642019377868434</v>
+        <v>-1.48148148148148</v>
       </c>
       <c r="AO30" t="n">
-        <v>-1.48148148148148</v>
+        <v>-2.323892519970955</v>
       </c>
       <c r="AP30" t="n">
-        <v>-2.323892519970955</v>
+        <v>-0.4794621257267621</v>
       </c>
       <c r="AQ30" t="n">
-        <v>-0.4801037409871537</v>
+        <v>-1.619433198380568</v>
       </c>
       <c r="AR30" t="n">
-        <v>-1.619433198380568</v>
+        <v>0.5569183132606408</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.5573310826729281</v>
+        <v>0.9067796610169492</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.9067796610169492</v>
+        <v>-2.619757432696218</v>
       </c>
       <c r="AU30" t="n">
-        <v>-2.58714071141994</v>
+        <v>-2</v>
       </c>
       <c r="AV30" t="n">
-        <v>-1.973145006616694</v>
+        <v>-2.766279535977155</v>
       </c>
       <c r="AW30" t="n">
-        <v>-2.733204620459746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5078,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -5090,22 +5090,22 @@
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>1</v>
@@ -5132,79 +5132,79 @@
         <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>-0.8571428571428281</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.8571428571428281</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.333333333333333</v>
+        <v>1.373134328358209</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.373134328358209</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.9577464788732394</v>
+        <v>0.0762320951687302</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.0762320951687302</v>
+        <v>0.2749999999999999</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.2749999999999999</v>
+        <v>-0.1636690647482014</v>
       </c>
       <c r="AI31" t="n">
-        <v>-0.1636690647482014</v>
+        <v>0.7443682664054846</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.7443682664054846</v>
+        <v>0.4076923076923076</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.4076923076923076</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.7540983606557377</v>
+        <v>0.3020661536803954</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.3019364575935389</v>
+        <v>1.79500254971953</v>
       </c>
       <c r="AN31" t="n">
-        <v>1.79500254971953</v>
+        <v>-0.8641975308641967</v>
       </c>
       <c r="AO31" t="n">
-        <v>-0.8641975308641967</v>
+        <v>-0.06622079532615806</v>
       </c>
       <c r="AP31" t="n">
-        <v>-0.06623864829461182</v>
+        <v>-0.4794621257267621</v>
       </c>
       <c r="AQ31" t="n">
-        <v>-0.4801037409871537</v>
+        <v>-0.202429149797571</v>
       </c>
       <c r="AR31" t="n">
-        <v>-0.202429149797571</v>
+        <v>1.129973341723639</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.130386111135926</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.9491525423728814</v>
+        <v>0.1164336636753871</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.1149840316186636</v>
+        <v>0.1637426900584802</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.1905976834417856</v>
+        <v>0</v>
       </c>
       <c r="AW31" t="n">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -5250,13 +5250,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -5265,25 +5265,25 @@
         <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" t="n">
         <v>1</v>
@@ -5292,73 +5292,73 @@
         <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>0.5714285714285656</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.5714285714285656</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.333333333333333</v>
+        <v>0.7164179104477612</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.7164179104477612</v>
+        <v>-1.058823529411765</v>
       </c>
       <c r="AE32" t="n">
-        <v>-1.058823529411765</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.5352112676056338</v>
+        <v>0.3568827385287691</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.3568827385287691</v>
+        <v>-0.1750000000000001</v>
       </c>
       <c r="AH32" t="n">
-        <v>-0.1750000000000001</v>
+        <v>0.8884892086330933</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.8884892086330933</v>
+        <v>-0.04897159647404503</v>
       </c>
       <c r="AJ32" t="n">
-        <v>-0.04897159647404503</v>
+        <v>0.03846153846153845</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.03846153846153845</v>
+        <v>-0.4306010928961749</v>
       </c>
       <c r="AL32" t="n">
-        <v>-0.4306010928961749</v>
+        <v>2.423529411764706</v>
       </c>
       <c r="AM32" t="n">
-        <v>2.423529411764706</v>
+        <v>-0.2039775624681284</v>
       </c>
       <c r="AN32" t="n">
-        <v>-0.2039775624681284</v>
+        <v>-0.8641975308641967</v>
       </c>
       <c r="AO32" t="n">
-        <v>-0.8641975308641967</v>
+        <v>-0.05978644098537335</v>
       </c>
       <c r="AP32" t="n">
-        <v>-0.05986645363421868</v>
+        <v>-1.479462125726762</v>
       </c>
       <c r="AQ32" t="n">
-        <v>-1.480103740987154</v>
+        <v>0</v>
       </c>
       <c r="AR32" t="n">
-        <v>0</v>
+        <v>0.8244704954238287</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.824883264836116</v>
+        <v>-0.09322033898305085</v>
       </c>
       <c r="AT32" t="n">
-        <v>-0.09322033898305085</v>
+        <v>2.561540600858525</v>
       </c>
       <c r="AU32" t="n">
-        <v>2.529648695610608</v>
+        <v>1.707602339181286</v>
       </c>
       <c r="AV32" t="n">
-        <v>1.734457332564592</v>
+        <v>1.800277158334339</v>
       </c>
       <c r="AW32" t="n">
-        <v>1.778752213315073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -5389,13 +5389,13 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -5425,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
         <v>1</v>
@@ -5443,73 +5443,73 @@
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>0.2857142857142828</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.2857142857142828</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.6567164179104478</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.6567164179104478</v>
+        <v>-0.2941176470588235</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.2941176470588235</v>
+        <v>-0.05633802816901409</v>
       </c>
       <c r="AF33" t="n">
-        <v>-0.05633802816901409</v>
+        <v>-0.3340616654527798</v>
       </c>
       <c r="AG33" t="n">
-        <v>-0.3340616654527798</v>
+        <v>-0.7374999999999998</v>
       </c>
       <c r="AH33" t="n">
-        <v>-0.7374999999999998</v>
+        <v>-0.526978417266187</v>
       </c>
       <c r="AI33" t="n">
-        <v>-0.526978417266187</v>
+        <v>0.724779627815867</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.724779627815867</v>
+        <v>-0.2669230769230769</v>
       </c>
       <c r="AK33" t="n">
-        <v>-0.2669230769230769</v>
+        <v>-0.4721311475409836</v>
       </c>
       <c r="AL33" t="n">
-        <v>-0.4721311475409836</v>
+        <v>0.1129411764705882</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.1129411764705882</v>
+        <v>0.6721060683324825</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.6721060683324825</v>
+        <v>-0.8395061728395053</v>
       </c>
       <c r="AO33" t="n">
-        <v>-0.8395061728395053</v>
+        <v>0.2323892519970946</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.2323892519970946</v>
+        <v>0.5205378742732379</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.5198962590128462</v>
+        <v>0.6477732793522247</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.6477732793522247</v>
+        <v>-0.133783774025887</v>
       </c>
       <c r="AS33" t="n">
-        <v>-0.1333710046135997</v>
+        <v>1.372881355932203</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.372881355932203</v>
+        <v>0.7859272298088652</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.7761422134259818</v>
+        <v>0.7602339181286554</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.7870889115119608</v>
+        <v>0.9220931786590517</v>
       </c>
       <c r="AW33" t="n">
-        <v>0.9110682068199154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5531,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -5576,10 +5576,10 @@
         <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W34" t="n">
         <v>1</v>
@@ -5594,70 +5594,70 @@
         <v>1</v>
       </c>
       <c r="AA34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.6268656716417911</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.6268656716417911</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>-0.6197183098591549</v>
       </c>
       <c r="AF34" t="n">
-        <v>-0.6197183098591549</v>
+        <v>-0.6239378489924737</v>
       </c>
       <c r="AG34" t="n">
-        <v>-0.6239378489924737</v>
+        <v>-0.3749999999999999</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.3749999999999999</v>
+        <v>-0.8219424460431655</v>
       </c>
       <c r="AI34" t="n">
-        <v>-0.8219424460431655</v>
+        <v>0.5876591576885404</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.5876591576885404</v>
+        <v>-0.5307692307692307</v>
       </c>
       <c r="AK34" t="n">
-        <v>-0.5307692307692307</v>
+        <v>-0.4983606557377049</v>
       </c>
       <c r="AL34" t="n">
-        <v>-0.4983606557377049</v>
+        <v>-0.611764705882353</v>
       </c>
       <c r="AM34" t="n">
-        <v>-0.611764705882353</v>
+        <v>0.3365629780724123</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.3365629780724123</v>
+        <v>-0.8641975308641967</v>
       </c>
       <c r="AO34" t="n">
-        <v>-0.8641975308641967</v>
+        <v>0.1597676107480023</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.1597676107480023</v>
+        <v>0.2513071050424693</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.2506654897820776</v>
+        <v>0.36437246963563</v>
       </c>
       <c r="AR34" t="n">
-        <v>0.36437246963563</v>
+        <v>-1.302664229433857</v>
       </c>
       <c r="AS34" t="n">
-        <v>-1.302251460021569</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.2033898305084746</v>
+        <v>-0.1746504955130816</v>
       </c>
       <c r="AU34" t="n">
-        <v>-0.1724760474279964</v>
+        <v>-0.2923976608187129</v>
       </c>
       <c r="AV34" t="n">
-        <v>-0.2655426674354076</v>
+        <v>0</v>
       </c>
       <c r="AW34" t="n">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -5694,10 +5694,10 @@
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -5739,79 +5739,79 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
         <v>1</v>
       </c>
       <c r="AA35" t="n">
-        <v>1</v>
+        <v>0.2857142857142828</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.2857142857142828</v>
+        <v>-1</v>
       </c>
       <c r="AC35" t="n">
-        <v>-1</v>
+        <v>-1.253731343283582</v>
       </c>
       <c r="AD35" t="n">
-        <v>-1.253731343283582</v>
+        <v>-0.2352941176470588</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.2352941176470588</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.4326292789512015</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.4326292789512015</v>
+        <v>12.43749999999999</v>
       </c>
       <c r="AH35" t="n">
-        <v>12.43749999999999</v>
+        <v>-0.2661870503597123</v>
       </c>
       <c r="AI35" t="n">
-        <v>-0.2661870503597123</v>
+        <v>-0.06856023506366263</v>
       </c>
       <c r="AJ35" t="n">
-        <v>-0.06856023506366263</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.6615384615384615</v>
+        <v>0.1617486338797816</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.1617486338797816</v>
+        <v>-0.7058823529411765</v>
       </c>
       <c r="AM35" t="n">
-        <v>-0.7058823529411765</v>
+        <v>0.08159102498725178</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.08159102498725178</v>
+        <v>-0.444444444444444</v>
       </c>
       <c r="AO35" t="n">
-        <v>-0.444444444444444</v>
+        <v>0.5954974582425563</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.5954974582425563</v>
+        <v>0.5205378742732379</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.5198962590128462</v>
+        <v>0.6477732793522247</v>
       </c>
       <c r="AR35" t="n">
-        <v>0.6477732793522247</v>
+        <v>-0.3045617626406878</v>
       </c>
       <c r="AS35" t="n">
-        <v>-0.3041489932284005</v>
+        <v>-0.635593220338983</v>
       </c>
       <c r="AT35" t="n">
-        <v>-0.635593220338983</v>
+        <v>0.4948430706203966</v>
       </c>
       <c r="AU35" t="n">
-        <v>0.4886821343793218</v>
+        <v>0.5614035087719303</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.5882585021552357</v>
+        <v>0.6586379847564655</v>
       </c>
       <c r="AW35" t="n">
-        <v>0.6507630048713681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5839,16 +5839,16 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>1</v>
@@ -5878,91 +5878,91 @@
         <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" t="n">
         <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>-1.428571428571394</v>
       </c>
       <c r="AB36" t="n">
-        <v>-1.428571428571394</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.2282107307598931</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.2282107307598931</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.02500000000000002</v>
+        <v>-0.03597122302158276</v>
       </c>
       <c r="AI36" t="n">
-        <v>-0.03597122302158276</v>
+        <v>1.18511263467189</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1.18511263467189</v>
+        <v>0.06153846153846158</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.06153846153846158</v>
+        <v>0.5267759562841529</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.5267759562841529</v>
+        <v>1.223529411764706</v>
       </c>
       <c r="AM36" t="n">
-        <v>1.223529411764706</v>
+        <v>1.36664966853646</v>
       </c>
       <c r="AN36" t="n">
-        <v>1.36664966853646</v>
+        <v>-0.3703703703703699</v>
       </c>
       <c r="AO36" t="n">
-        <v>-0.3703703703703699</v>
+        <v>0.8714596949891079</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.8714596949891079</v>
+        <v>0.7128455665809296</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.7122039513205378</v>
+        <v>1.821862348178138</v>
       </c>
       <c r="AR36" t="n">
-        <v>1.821862348178138</v>
+        <v>0.547430647226485</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.5478434166387723</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.1355932203389831</v>
+        <v>1.44086658798292</v>
       </c>
       <c r="AU36" t="n">
-        <v>1.422927391280967</v>
+        <v>0.5263157894736844</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.5531707828569898</v>
+        <v>1.273366770529167</v>
       </c>
       <c r="AW36" t="n">
-        <v>1.258141809417978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5984,31 +5984,31 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
@@ -6020,100 +6020,100 @@
         <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37" t="n">
         <v>1</v>
       </c>
       <c r="AA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.5671641791044776</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.411764705882353</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.6197183098591549</v>
+        <v>1.120174799708667</v>
       </c>
       <c r="AG37" t="n">
-        <v>1.120174799708667</v>
+        <v>-0.2999999999999999</v>
       </c>
       <c r="AH37" t="n">
-        <v>-0.2999999999999999</v>
+        <v>1.865107913669065</v>
       </c>
       <c r="AI37" t="n">
-        <v>1.865107913669065</v>
+        <v>-0.7933398628795293</v>
       </c>
       <c r="AJ37" t="n">
-        <v>-0.7933398628795293</v>
+        <v>-0.3076923076923076</v>
       </c>
       <c r="AK37" t="n">
-        <v>-0.3076923076923076</v>
+        <v>0.6008842789463038</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.6008717358024239</v>
+        <v>-0.4423529411764705</v>
       </c>
       <c r="AM37" t="n">
-        <v>-0.4423529411764705</v>
+        <v>-0.3467618561958181</v>
       </c>
       <c r="AN37" t="n">
-        <v>-0.3467618561958181</v>
+        <v>-0.2222222222222217</v>
       </c>
       <c r="AO37" t="n">
-        <v>-0.2222222222222217</v>
+        <v>-0.6826434277414682</v>
       </c>
       <c r="AP37" t="n">
-        <v>-0.6826434277414682</v>
+        <v>0.6743840281193919</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.6737424128590002</v>
+        <v>-0.9311740890688252</v>
       </c>
       <c r="AR37" t="n">
-        <v>-0.9311740890688252</v>
+        <v>0.3975255238868267</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.397938293299114</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.01694915254237288</v>
+        <v>0.2910841591884687</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.28746007904666</v>
+        <v>-0.3976608187134502</v>
       </c>
       <c r="AV37" t="n">
-        <v>-0.3708058253301448</v>
+        <v>-0.1317275969512931</v>
       </c>
       <c r="AW37" t="n">
-        <v>-0.1301526009742736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6135,25 +6135,25 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -6180,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -6189,82 +6189,82 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>1</v>
+        <v>-0.8571428571428281</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.8571428571428281</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.2686567164179104</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.2686567164179104</v>
+        <v>-0.5882352941176471</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.5882352941176471</v>
+        <v>-0.2816901408450704</v>
       </c>
       <c r="AF38" t="n">
-        <v>-0.2816901408450704</v>
+        <v>-0.6753580966253944</v>
       </c>
       <c r="AG38" t="n">
-        <v>-0.6753580966253944</v>
+        <v>1.662499999999999</v>
       </c>
       <c r="AH38" t="n">
-        <v>1.662499999999999</v>
+        <v>-0.3705035971223021</v>
       </c>
       <c r="AI38" t="n">
-        <v>-0.3705035971223021</v>
+        <v>0.6092066601371208</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.6092066601371208</v>
+        <v>-0.313076923076923</v>
       </c>
       <c r="AK38" t="n">
-        <v>-0.313076923076923</v>
+        <v>-0.5066666666666667</v>
       </c>
       <c r="AL38" t="n">
-        <v>-0.5066666666666667</v>
+        <v>-0.584235294117647</v>
       </c>
       <c r="AM38" t="n">
-        <v>-0.584235294117647</v>
+        <v>0.1550229474757779</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.1550229474757779</v>
+        <v>0.1728395061728396</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.1728395061728396</v>
+        <v>0.4749455337690632</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.4749455337690632</v>
+        <v>0.9051532588886229</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.9045116436282312</v>
+        <v>0.01417004048582859</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.01417004048582859</v>
+        <v>-0.0351120472706688</v>
       </c>
       <c r="AS38" t="n">
-        <v>-0.03469927785838151</v>
+        <v>-0.4661016949152542</v>
       </c>
       <c r="AT38" t="n">
-        <v>-0.4661016949152542</v>
+        <v>0.1164336636753871</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.1149840316186636</v>
+        <v>0.432748538011696</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.4596035313950014</v>
+        <v>-0.08781839796752874</v>
       </c>
       <c r="AW38" t="n">
-        <v>-0.08676840064951576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -6295,10 +6295,10 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -6322,10 +6322,10 @@
         <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>1</v>
@@ -6340,82 +6340,82 @@
         <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" t="n">
         <v>1</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>3.14285714285707</v>
       </c>
       <c r="AB39" t="n">
-        <v>3.14285714285707</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.2985074626865671</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.2985074626865671</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.6197183098591549</v>
+        <v>-0.3330905559601846</v>
       </c>
       <c r="AG39" t="n">
-        <v>-0.3330905559601846</v>
+        <v>0.08750000000000005</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.08750000000000005</v>
+        <v>-0.6294964028776978</v>
       </c>
       <c r="AI39" t="n">
-        <v>-0.6294964028776978</v>
+        <v>-0.02938295788442674</v>
       </c>
       <c r="AJ39" t="n">
-        <v>-0.02938295788442674</v>
+        <v>0.3923076923076923</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.3923076923076923</v>
+        <v>-0.6426229508196721</v>
       </c>
       <c r="AL39" t="n">
-        <v>-0.6426229508196721</v>
+        <v>0</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>0.09178990311065761</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.09178990311065761</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.444444444444444</v>
+        <v>-0.9731299927378376</v>
       </c>
       <c r="AP39" t="n">
-        <v>-0.9731299927378376</v>
+        <v>-0.01792366418830097</v>
       </c>
       <c r="AQ39" t="n">
-        <v>-0.01856527944869269</v>
+        <v>-0.9109311740890692</v>
       </c>
       <c r="AR39" t="n">
-        <v>-0.9109311740890692</v>
+        <v>0.4753243853669023</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.4757371547791896</v>
+        <v>2.127118644067797</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.127118644067797</v>
+        <v>-0.1309878716348107</v>
       </c>
       <c r="AU39" t="n">
-        <v>-0.1293570355709968</v>
+        <v>-0.4210526315789472</v>
       </c>
       <c r="AV39" t="n">
-        <v>-0.3941976381956419</v>
+        <v>-0.2195459949188218</v>
       </c>
       <c r="AW39" t="n">
-        <v>-0.2169210016237894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6437,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -6473,10 +6473,10 @@
         <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
         <v>1</v>
@@ -6485,88 +6485,88 @@
         <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40" t="n">
-        <v>1</v>
+        <v>3.14285714285707</v>
       </c>
       <c r="AB40" t="n">
-        <v>3.14285714285707</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC40" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.2985074626865671</v>
       </c>
       <c r="AD40" t="n">
-        <v>-0.2985074626865671</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.6197183098591549</v>
+        <v>-0.3330905559601846</v>
       </c>
       <c r="AG40" t="n">
-        <v>-0.3330905559601846</v>
+        <v>0.08750000000000005</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.08750000000000005</v>
+        <v>-0.6294964028776978</v>
       </c>
       <c r="AI40" t="n">
-        <v>-0.6294964028776978</v>
+        <v>-0.02938295788442674</v>
       </c>
       <c r="AJ40" t="n">
-        <v>-0.02938295788442674</v>
+        <v>0.3923076923076923</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.3923076923076923</v>
+        <v>-0.6426229508196721</v>
       </c>
       <c r="AL40" t="n">
-        <v>-0.6426229508196721</v>
+        <v>0</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>0.09178990311065761</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.09178990311065761</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.444444444444444</v>
+        <v>-0.9731299927378376</v>
       </c>
       <c r="AP40" t="n">
-        <v>-0.9731299927378376</v>
+        <v>-0.01792366418830097</v>
       </c>
       <c r="AQ40" t="n">
-        <v>-0.01856527944869269</v>
+        <v>-0.9109311740890692</v>
       </c>
       <c r="AR40" t="n">
-        <v>-0.9109311740890692</v>
+        <v>0.4753243853669023</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.4757371547791896</v>
+        <v>2.127118644067797</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.127118644067797</v>
+        <v>-0.1309878716348107</v>
       </c>
       <c r="AU40" t="n">
-        <v>-0.1293570355709968</v>
+        <v>-0.4210526315789472</v>
       </c>
       <c r="AV40" t="n">
-        <v>-0.3941976381956419</v>
+        <v>-0.2195459949188218</v>
       </c>
       <c r="AW40" t="n">
-        <v>-0.2169210016237894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6591,25 +6591,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>1</v>
@@ -6624,16 +6624,16 @@
         <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -6642,82 +6642,82 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" t="n">
         <v>1</v>
       </c>
       <c r="Z41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.3333333333333333</v>
+        <v>-0.05970149253731343</v>
       </c>
       <c r="AD41" t="n">
-        <v>-0.05970149253731343</v>
+        <v>-0.4117647058823529</v>
       </c>
       <c r="AE41" t="n">
-        <v>-0.4117647058823529</v>
+        <v>-0.3661971830985916</v>
       </c>
       <c r="AF41" t="n">
-        <v>-0.3661971830985916</v>
+        <v>-0.04030104394270459</v>
       </c>
       <c r="AG41" t="n">
-        <v>-0.04030104394270459</v>
+        <v>-1.599999999999999</v>
       </c>
       <c r="AH41" t="n">
-        <v>-1.599999999999999</v>
+        <v>1.690647482014388</v>
       </c>
       <c r="AI41" t="n">
-        <v>1.690647482014388</v>
+        <v>-0.1175318315377077</v>
       </c>
       <c r="AJ41" t="n">
-        <v>-0.1175318315377077</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.6615384615384615</v>
+        <v>-0.02185792349726776</v>
       </c>
       <c r="AL41" t="n">
-        <v>-0.02185792349726776</v>
+        <v>-0.5694117647058824</v>
       </c>
       <c r="AM41" t="n">
-        <v>-0.5694117647058824</v>
+        <v>-1.111677715451299</v>
       </c>
       <c r="AN41" t="n">
-        <v>-1.111677715451299</v>
+        <v>-0.1234567901234568</v>
       </c>
       <c r="AO41" t="n">
-        <v>-0.1234567901234568</v>
+        <v>-2.440087145969502</v>
       </c>
       <c r="AP41" t="n">
-        <v>-2.440087145969502</v>
+        <v>-0.7486928949575316</v>
       </c>
       <c r="AQ41" t="n">
-        <v>-0.7493345102179232</v>
+        <v>-0.04048582995951189</v>
       </c>
       <c r="AR41" t="n">
-        <v>-0.04048582995951189</v>
+        <v>1.308341463165764</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.308754232578052</v>
+        <v>-1.271186440677966</v>
       </c>
       <c r="AT41" t="n">
-        <v>-1.271186440677966</v>
+        <v>1.135228220835028</v>
       </c>
       <c r="AU41" t="n">
-        <v>1.121094308281974</v>
+        <v>0.7017543859649129</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.7286093793482183</v>
+        <v>0.4830011888214081</v>
       </c>
       <c r="AW41" t="n">
-        <v>0.4772262035723366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6739,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -6763,16 +6763,16 @@
         <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>1</v>
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -6793,82 +6793,82 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42" t="n">
-        <v>1</v>
+        <v>-0.5714285714285656</v>
       </c>
       <c r="AB42" t="n">
-        <v>-0.5714285714285656</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC42" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.208955223880597</v>
       </c>
       <c r="AD42" t="n">
-        <v>-0.208955223880597</v>
+        <v>-1.117647058823529</v>
       </c>
       <c r="AE42" t="n">
-        <v>-1.117647058823529</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="AF42" t="n">
-        <v>-0.4507042253521127</v>
+        <v>-0.815246419033746</v>
       </c>
       <c r="AG42" t="n">
-        <v>-0.815246419033746</v>
+        <v>1.224999999999999</v>
       </c>
       <c r="AH42" t="n">
-        <v>1.224999999999999</v>
+        <v>-0.5719424460431654</v>
       </c>
       <c r="AI42" t="n">
-        <v>-0.5719424460431654</v>
+        <v>-0.6170421155729672</v>
       </c>
       <c r="AJ42" t="n">
-        <v>-0.6170421155729672</v>
+        <v>-0.5076923076923076</v>
       </c>
       <c r="AK42" t="n">
-        <v>-0.5076923076923076</v>
+        <v>-1.005464480874317</v>
       </c>
       <c r="AL42" t="n">
-        <v>-1.005464480874317</v>
+        <v>-0.863529411764706</v>
       </c>
       <c r="AM42" t="n">
-        <v>-0.863529411764706</v>
+        <v>-0.8159102498725135</v>
       </c>
       <c r="AN42" t="n">
-        <v>-0.8159102498725135</v>
+        <v>-1.345679012345678</v>
       </c>
       <c r="AO42" t="n">
-        <v>-1.345679012345678</v>
+        <v>0.1016702977487297</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.1016702977487297</v>
+        <v>-0.5948467411113776</v>
       </c>
       <c r="AQ42" t="n">
-        <v>-0.5954883563717692</v>
+        <v>1.65991902834008</v>
       </c>
       <c r="AR42" t="n">
-        <v>1.65991902834008</v>
+        <v>-1.000956449547709</v>
       </c>
       <c r="AS42" t="n">
-        <v>-1.000543680135421</v>
+        <v>-1.296610169491526</v>
       </c>
       <c r="AT42" t="n">
-        <v>-1.296610169491526</v>
+        <v>-2.255902233710632</v>
       </c>
       <c r="AU42" t="n">
-        <v>-2.227815612611615</v>
+        <v>-2.339181286549707</v>
       </c>
       <c r="AV42" t="n">
-        <v>-2.312326293166402</v>
+        <v>-2.371096745123276</v>
       </c>
       <c r="AW42" t="n">
-        <v>-2.342746817536925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -6899,16 +6899,16 @@
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
@@ -6935,91 +6935,91 @@
         <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V43" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43" t="n">
         <v>1</v>
       </c>
       <c r="AA43" t="n">
-        <v>1</v>
+        <v>-0.5714285714285656</v>
       </c>
       <c r="AB43" t="n">
-        <v>-0.5714285714285656</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AC43" t="n">
-        <v>2.333333333333333</v>
+        <v>1.014925373134328</v>
       </c>
       <c r="AD43" t="n">
-        <v>1.014925373134328</v>
+        <v>-0.4117647058823529</v>
       </c>
       <c r="AE43" t="n">
-        <v>-0.4117647058823529</v>
+        <v>-0.7887323943661971</v>
       </c>
       <c r="AF43" t="n">
-        <v>-0.7887323943661971</v>
+        <v>0.01068220441854813</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.01068220441854813</v>
+        <v>0.1249999999999998</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.1249999999999998</v>
+        <v>0.1205035971223021</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.1205035971223021</v>
+        <v>-0.9598432908912824</v>
       </c>
       <c r="AJ43" t="n">
-        <v>-0.9598432908912824</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.2153846153846154</v>
+        <v>0.478688524590164</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.478688524590164</v>
+        <v>5.468235294117647</v>
       </c>
       <c r="AM43" t="n">
-        <v>5.468235294117647</v>
+        <v>-0.7751147373788879</v>
       </c>
       <c r="AN43" t="n">
-        <v>-0.7751147373788879</v>
+        <v>0.6666666666666669</v>
       </c>
       <c r="AO43" t="n">
-        <v>0.6666666666666669</v>
+        <v>-0.5374001452432836</v>
       </c>
       <c r="AP43" t="n">
-        <v>-0.5374001452432836</v>
+        <v>-0.2102313564959926</v>
       </c>
       <c r="AQ43" t="n">
-        <v>-0.2108729717563843</v>
+        <v>-1.680161943319841</v>
       </c>
       <c r="AR43" t="n">
-        <v>-1.680161943319841</v>
+        <v>3.52086518233085</v>
       </c>
       <c r="AS43" t="n">
-        <v>3.521277951743137</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.1016949152542373</v>
+        <v>-1.01879455715964</v>
       </c>
       <c r="AU43" t="n">
-        <v>-1.00611027666331</v>
+        <v>-0.8187134502923974</v>
       </c>
       <c r="AV43" t="n">
-        <v>-0.791858456909092</v>
+        <v>-0.8781839796752874</v>
       </c>
       <c r="AW43" t="n">
-        <v>-0.8676840064951575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7041,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -7050,19 +7050,19 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
         <v>1</v>
@@ -7074,103 +7074,103 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V44" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
         <v>1</v>
       </c>
       <c r="Y44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44" t="n">
-        <v>1</v>
+        <v>0.2857142857142828</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.2857142857142828</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.91044776119403</v>
       </c>
       <c r="AD44" t="n">
-        <v>1.91044776119403</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.5294117647058824</v>
+        <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>-1.053653799465889</v>
       </c>
       <c r="AG44" t="n">
-        <v>-1.053653799465889</v>
+        <v>1.45</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.45</v>
+        <v>-0.5899280575539568</v>
       </c>
       <c r="AI44" t="n">
-        <v>-0.5899280575539568</v>
+        <v>0.9500489715964739</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0.9500489715964739</v>
+        <v>0.9615384615384612</v>
       </c>
       <c r="AK44" t="n">
-        <v>0.9615384615384612</v>
+        <v>-0.273224043715847</v>
       </c>
       <c r="AL44" t="n">
-        <v>-0.273224043715847</v>
+        <v>-0.3529411764705883</v>
       </c>
       <c r="AM44" t="n">
-        <v>-0.3529411764705883</v>
+        <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>0.6172839506172841</v>
       </c>
       <c r="AO44" t="n">
-        <v>0.6172839506172841</v>
+        <v>-0.1016702977487297</v>
       </c>
       <c r="AP44" t="n">
-        <v>-0.1016702977487297</v>
+        <v>0.9436147973501605</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.9429731820897688</v>
+        <v>-1.417004048582997</v>
       </c>
       <c r="AR44" t="n">
-        <v>-1.417004048582997</v>
+        <v>0.2684932658223103</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.2689060352345976</v>
+        <v>-0.03389830508474576</v>
       </c>
       <c r="AT44" t="n">
-        <v>-0.03389830508474576</v>
+        <v>-0.1018794557159644</v>
       </c>
       <c r="AU44" t="n">
-        <v>-0.1006110276663314</v>
+        <v>-0.1052631578947367</v>
       </c>
       <c r="AV44" t="n">
-        <v>-0.0784081645114313</v>
+        <v>0.08781839796752874</v>
       </c>
       <c r="AW44" t="n">
-        <v>0.08676840064951576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7192,25 +7192,25 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
@@ -7219,13 +7219,13 @@
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
         <v>1</v>
@@ -7237,91 +7237,91 @@
         <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>-0.1791044776119403</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>-0.9411764705882353</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>-0.4225352112676056</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.5195435785384801</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>2.824999999999999</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>-0.4010791366906475</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>-0.2938295788442699</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>11.65384615384615</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>-0.6622950819672131</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.805201427842936</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>-1.950617283950616</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.8569353667392903</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.5205378742732379</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1.072874493927128</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>-0.8567439258285436</v>
+      </c>
+      <c r="AS45" t="n">
         <v>-1</v>
       </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>-0.3333333333333333</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>-0.1791044776119403</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>-0.9411764705882353</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>-0.4225352112676056</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0.5195435785384801</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>2.824999999999999</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>-0.4010791366906475</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>-0.2938295788442699</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>11.65384615384615</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>-0.6622950819672131</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>1.805201427842936</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>-1.950617283950616</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>0.8569353667392903</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>0.5198962590128462</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>1.072874493927128</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>-0.8563311564162563</v>
-      </c>
       <c r="AT45" t="n">
-        <v>-1</v>
+        <v>-3.041829463519498</v>
       </c>
       <c r="AU45" t="n">
-        <v>-3.003957826037597</v>
+        <v>-2.865497076023392</v>
       </c>
       <c r="AV45" t="n">
-        <v>-2.838642082640086</v>
+        <v>-3.161462326831034</v>
       </c>
       <c r="AW45" t="n">
-        <v>-3.123662423382567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7343,7 +7343,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -7352,10 +7352,10 @@
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -7364,10 +7364,10 @@
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
         <v>1</v>
@@ -7379,22 +7379,22 @@
         <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
         <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V46" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" t="n">
         <v>1</v>
@@ -7403,76 +7403,76 @@
         <v>1</v>
       </c>
       <c r="Z46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>0.5714285714285656</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.5714285714285656</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="AC46" t="n">
-        <v>4.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.5352112676056338</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>-0.3249999999999999</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.3249999999999999</v>
+        <v>-0.0179856115107913</v>
       </c>
       <c r="AI46" t="n">
-        <v>-0.0179856115107913</v>
+        <v>-0.009794319294808449</v>
       </c>
       <c r="AJ46" t="n">
-        <v>-0.009794319294808449</v>
+        <v>-0.223076923076923</v>
       </c>
       <c r="AK46" t="n">
-        <v>-0.223076923076923</v>
+        <v>-0.4546448087431693</v>
       </c>
       <c r="AL46" t="n">
-        <v>-0.4546448087431693</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="AM46" t="n">
-        <v>0.1411764705882353</v>
+        <v>-0.5507394186639465</v>
       </c>
       <c r="AN46" t="n">
-        <v>-0.5507394186639465</v>
+        <v>0.6172839506172841</v>
       </c>
       <c r="AO46" t="n">
-        <v>0.6172839506172841</v>
+        <v>0.8714596949891079</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.8714596949891079</v>
+        <v>1.443614797350162</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.44297318208977</v>
+        <v>1.032388663967611</v>
       </c>
       <c r="AR46" t="n">
-        <v>1.032388663967611</v>
+        <v>-0.7922277967962854</v>
       </c>
       <c r="AS46" t="n">
-        <v>-0.7918150273839981</v>
+        <v>0.8559322033898306</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.8559322033898306</v>
+        <v>-0.2474215353101988</v>
       </c>
       <c r="AU46" t="n">
-        <v>-0.2443410671896614</v>
+        <v>-0.116959064327485</v>
       </c>
       <c r="AV46" t="n">
-        <v>-0.09010407094417959</v>
+        <v>-0.6586379847564655</v>
       </c>
       <c r="AW46" t="n">
-        <v>-0.6507630048713681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -7494,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -7512,10 +7512,10 @@
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
@@ -7539,91 +7539,91 @@
         <v>1</v>
       </c>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="n">
         <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47" t="n">
-        <v>1</v>
+        <v>-0.5714285714285656</v>
       </c>
       <c r="AB47" t="n">
-        <v>-0.5714285714285656</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>-0.4117647058823529</v>
       </c>
       <c r="AE47" t="n">
-        <v>-0.4117647058823529</v>
+        <v>-0.5633802816901409</v>
       </c>
       <c r="AF47" t="n">
-        <v>-0.5633802816901409</v>
+        <v>0.9987861131342556</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.9987861131342556</v>
+        <v>0.3124999999999999</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.3124999999999999</v>
+        <v>1.293165467625899</v>
       </c>
       <c r="AI47" t="n">
-        <v>1.293165467625899</v>
+        <v>0.4603330068560236</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.4603330068560236</v>
+        <v>0.8999999999999997</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.8999999999999997</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.02185792349726776</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="AM47" t="n">
-        <v>0.6588235294117647</v>
+        <v>-0.1631820499745028</v>
       </c>
       <c r="AN47" t="n">
-        <v>-0.1631820499745028</v>
+        <v>0.2469135802469131</v>
       </c>
       <c r="AO47" t="n">
-        <v>0.2469135802469131</v>
+        <v>-0.435729847494554</v>
       </c>
       <c r="AP47" t="n">
-        <v>-0.435729847494554</v>
+        <v>-0.1333082795729156</v>
       </c>
       <c r="AQ47" t="n">
-        <v>-0.1339498948333073</v>
+        <v>0</v>
       </c>
       <c r="AR47" t="n">
-        <v>0</v>
+        <v>-0.2400456336084297</v>
       </c>
       <c r="AS47" t="n">
-        <v>-0.2396328641961425</v>
+        <v>-0.1355932203389831</v>
       </c>
       <c r="AT47" t="n">
-        <v>-0.1355932203389831</v>
+        <v>0</v>
       </c>
       <c r="AU47" t="n">
-        <v>0</v>
+        <v>0.1637426900584802</v>
       </c>
       <c r="AV47" t="n">
-        <v>0.1905976834417856</v>
+        <v>-0.2634551939025862</v>
       </c>
       <c r="AW47" t="n">
-        <v>-0.2603052019485472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -7645,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -7654,16 +7654,16 @@
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
@@ -7690,91 +7690,91 @@
         <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" t="n">
         <v>1</v>
       </c>
       <c r="Y48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48" t="n">
-        <v>1</v>
+        <v>-0.8571428571428281</v>
       </c>
       <c r="AB48" t="n">
-        <v>-0.8571428571428281</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-1.671641791044776</v>
       </c>
       <c r="AD48" t="n">
-        <v>-1.671641791044776</v>
+        <v>-1.117647058823529</v>
       </c>
       <c r="AE48" t="n">
-        <v>-1.117647058823529</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.3661971830985916</v>
+        <v>0.1976207817431414</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.1976207817431414</v>
+        <v>0.6823208842499762</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.678334159713917</v>
+        <v>0.8273381294964027</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.8273381294964027</v>
+        <v>0.6072477962781587</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.6072477962781587</v>
+        <v>0.6461538461538459</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.6461538461538459</v>
+        <v>0.8306010928961749</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.8306010928961749</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="AM48" t="n">
-        <v>0.2588235294117647</v>
+        <v>1.101478837327894</v>
       </c>
       <c r="AN48" t="n">
-        <v>1.101478837327894</v>
+        <v>1.604938271604938</v>
       </c>
       <c r="AO48" t="n">
-        <v>1.604938271604938</v>
+        <v>-1.336238198983299</v>
       </c>
       <c r="AP48" t="n">
-        <v>-1.336238198983299</v>
+        <v>0.4051532588886233</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.4045116436282316</v>
+        <v>-1.599190283400812</v>
       </c>
       <c r="AR48" t="n">
-        <v>-1.599190283400812</v>
+        <v>0.4658367193327469</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.4662494887450342</v>
+        <v>-0.9745762711864406</v>
       </c>
       <c r="AT48" t="n">
-        <v>-0.9745762711864406</v>
+        <v>-0.1746504955130816</v>
       </c>
       <c r="AU48" t="n">
-        <v>-0.1724760474279964</v>
+        <v>-0.1637426900584792</v>
       </c>
       <c r="AV48" t="n">
-        <v>-0.1368876966751738</v>
+        <v>0.3951827908538793</v>
       </c>
       <c r="AW48" t="n">
-        <v>0.3904578029228209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -7796,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -7805,10 +7805,10 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -7817,10 +7817,10 @@
         <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
         <v>1</v>
@@ -7829,103 +7829,103 @@
         <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V49" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" t="n">
         <v>1</v>
       </c>
       <c r="Y49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.3333333333333333</v>
+        <v>0.7761194029850746</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.7761194029850746</v>
+        <v>-0.9411764705882353</v>
       </c>
       <c r="AE49" t="n">
-        <v>-0.9411764705882353</v>
+        <v>-1.014084507042254</v>
       </c>
       <c r="AF49" t="n">
-        <v>-1.014084507042254</v>
+        <v>-0.1213886865744112</v>
       </c>
       <c r="AG49" t="n">
-        <v>-0.1213886865744112</v>
+        <v>1.087499999999999</v>
       </c>
       <c r="AH49" t="n">
-        <v>1.087499999999999</v>
+        <v>-0.2482014388489208</v>
       </c>
       <c r="AI49" t="n">
-        <v>-0.2482014388489208</v>
+        <v>0.8031341821743389</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0.8031341821743389</v>
+        <v>0.9538461538461535</v>
       </c>
       <c r="AK49" t="n">
-        <v>0.9538461538461535</v>
+        <v>-0.4131147540983608</v>
       </c>
       <c r="AL49" t="n">
-        <v>-0.4131147540983608</v>
+        <v>-0.8</v>
       </c>
       <c r="AM49" t="n">
-        <v>-0.8</v>
+        <v>0.05099439061703136</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.05099439061703136</v>
+        <v>-0.9999999999999994</v>
       </c>
       <c r="AO49" t="n">
-        <v>-0.9999999999999994</v>
+        <v>-0.04357298474945498</v>
       </c>
       <c r="AP49" t="n">
-        <v>-0.04357298474945498</v>
+        <v>-0.2871544334190696</v>
       </c>
       <c r="AQ49" t="n">
-        <v>-0.2877960486794613</v>
+        <v>0.1619433198380591</v>
       </c>
       <c r="AR49" t="n">
-        <v>0.1619433198380591</v>
+        <v>-0.1584517057146916</v>
       </c>
       <c r="AS49" t="n">
-        <v>-0.1580389363024044</v>
+        <v>-0.6440677966101694</v>
       </c>
       <c r="AT49" t="n">
-        <v>-0.6440677966101694</v>
+        <v>0.9605777253219469</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.9486182608539783</v>
+        <v>0.8421052631578955</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.8689602565412009</v>
+        <v>1.053820775610345</v>
       </c>
       <c r="AW49" t="n">
-        <v>1.041220807794189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -7947,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -7959,10 +7959,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -7992,16 +7992,16 @@
         <v>1</v>
       </c>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50" t="n">
         <v>1</v>
@@ -8010,73 +8010,73 @@
         <v>1</v>
       </c>
       <c r="AA50" t="n">
-        <v>1</v>
+        <v>-0.2857142857142828</v>
       </c>
       <c r="AB50" t="n">
-        <v>-0.2857142857142828</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC50" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.7164179104477612</v>
       </c>
       <c r="AD50" t="n">
-        <v>-0.7164179104477612</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="AE50" t="n">
-        <v>1.235294117647059</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.5915492957746479</v>
+        <v>0.06916423146301175</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.06873038674100128</v>
+        <v>1.599999999999999</v>
       </c>
       <c r="AH50" t="n">
-        <v>1.599999999999999</v>
+        <v>0.2159993867320664</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.224326111559405</v>
+        <v>-0.0195886385896176</v>
       </c>
       <c r="AJ50" t="n">
-        <v>-0.0195886385896176</v>
+        <v>-0.8153846153846152</v>
       </c>
       <c r="AK50" t="n">
-        <v>-0.8153846153846152</v>
+        <v>0.1035486175954513</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.1029032582413209</v>
+        <v>-0.7458823529411766</v>
       </c>
       <c r="AM50" t="n">
-        <v>-0.7458823529411766</v>
+        <v>-0.2549719530851605</v>
       </c>
       <c r="AN50" t="n">
-        <v>-0.2549719530851605</v>
+        <v>2.345679012345677</v>
       </c>
       <c r="AO50" t="n">
-        <v>2.345679012345677</v>
+        <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>0</v>
+        <v>-1.479462125726762</v>
       </c>
       <c r="AQ50" t="n">
-        <v>-1.480103740987154</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="AR50" t="n">
-        <v>2.024291497975709</v>
+        <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>0</v>
+        <v>0.07067100185827715</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.07068283881720007</v>
+        <v>-0.02655236803033087</v>
       </c>
       <c r="AU50" t="n">
-        <v>-0.2076254828046053</v>
+        <v>0.108097664775387</v>
       </c>
       <c r="AV50" t="n">
-        <v>0</v>
+        <v>-0.3213804278230641</v>
       </c>
       <c r="AW50" t="n">
-        <v>-0.4979487657183098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -8098,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -8110,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
@@ -8122,10 +8122,10 @@
         <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -8143,91 +8143,91 @@
         <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
         <v>1</v>
       </c>
       <c r="Y51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51" t="n">
-        <v>1</v>
+        <v>0.8571428571428281</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.8571428571428281</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="AC51" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.4776119402985075</v>
       </c>
       <c r="AD51" t="n">
-        <v>-0.4776119402985075</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.02816901408450704</v>
+        <v>0.2801650886137411</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.2801650886137411</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="AH51" t="n">
-        <v>-0.1000000000000001</v>
+        <v>-0.5125899280575539</v>
       </c>
       <c r="AI51" t="n">
-        <v>-0.5125899280575539</v>
+        <v>0.3036238981390794</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0.3036238981390794</v>
+        <v>-0.4538461538461537</v>
       </c>
       <c r="AK51" t="n">
-        <v>-0.4538461538461537</v>
+        <v>-0.3672131147540983</v>
       </c>
       <c r="AL51" t="n">
-        <v>-0.3672131147540983</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="AM51" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.9178990311065769</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.9178990311065769</v>
+        <v>0.04938271604938273</v>
       </c>
       <c r="AO51" t="n">
-        <v>0.04938271604938273</v>
+        <v>0.2759622367465517</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.2759622367465517</v>
+        <v>-0.171769818034455</v>
       </c>
       <c r="AQ51" t="n">
-        <v>-0.1724114332948467</v>
+        <v>0.1417004048582974</v>
       </c>
       <c r="AR51" t="n">
-        <v>0.1417004048582974</v>
+        <v>0.293161197511115</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.2935739669234023</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.7457627118644068</v>
+        <v>0.1164336636753871</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.1149840316186636</v>
+        <v>-0.2222222222222217</v>
       </c>
       <c r="AV51" t="n">
-        <v>-0.1953672288389163</v>
+        <v>0.1756367959350575</v>
       </c>
       <c r="AW51" t="n">
-        <v>0.1735368012990315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -8249,25 +8249,25 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -8276,10 +8276,10 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -8294,91 +8294,91 @@
         <v>1</v>
       </c>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V52" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" t="n">
         <v>1</v>
       </c>
       <c r="Y52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA52" t="n">
-        <v>1</v>
+        <v>-0.8571428571428281</v>
       </c>
       <c r="AB52" t="n">
-        <v>-0.8571428571428281</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>-1.194029850746269</v>
       </c>
       <c r="AD52" t="n">
-        <v>-1.194029850746269</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.1176470588235294</v>
+        <v>1.464788732394366</v>
       </c>
       <c r="AF52" t="n">
-        <v>1.464788732394366</v>
+        <v>0.885748968196164</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.885748968196164</v>
+        <v>-0.7624999999999998</v>
       </c>
       <c r="AH52" t="n">
-        <v>-0.7624999999999998</v>
+        <v>0.6384892086330936</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.6384892086330936</v>
+        <v>0.7992164544564153</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.7992164544564153</v>
+        <v>0.2507692307692308</v>
       </c>
       <c r="AK52" t="n">
-        <v>0.2507692307692308</v>
+        <v>0.05530054644808746</v>
       </c>
       <c r="AL52" t="n">
-        <v>0.05530054644808746</v>
+        <v>-0.9764705882352941</v>
       </c>
       <c r="AM52" t="n">
-        <v>-0.9764705882352941</v>
+        <v>1.077001529831717</v>
       </c>
       <c r="AN52" t="n">
-        <v>1.077001529831717</v>
+        <v>0.9382716049382713</v>
       </c>
       <c r="AO52" t="n">
-        <v>0.9382716049382713</v>
+        <v>1.230210602759624</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.230210602759624</v>
+        <v>0.9436147973501605</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.9429731820897688</v>
+        <v>0.4838056680161918</v>
       </c>
       <c r="AR52" t="n">
-        <v>0.4838056680161918</v>
+        <v>-0.5740114780107067</v>
       </c>
       <c r="AS52" t="n">
-        <v>-0.5735987085984194</v>
+        <v>-0.6864406779661016</v>
       </c>
       <c r="AT52" t="n">
-        <v>-0.6864406779661016</v>
+        <v>-0.6258309422552073</v>
       </c>
       <c r="AU52" t="n">
-        <v>-0.6180391699503186</v>
+        <v>-0.4327485380116955</v>
       </c>
       <c r="AV52" t="n">
-        <v>-0.4058935446283902</v>
+        <v>-0.6586379847564655</v>
       </c>
       <c r="AW52" t="n">
-        <v>-0.6507630048713681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -8400,13 +8400,13 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -8430,10 +8430,10 @@
         <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
         <v>1</v>
@@ -8445,91 +8445,91 @@
         <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V53" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" t="n">
         <v>1</v>
       </c>
       <c r="Y53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA53" t="n">
-        <v>1</v>
+        <v>-0.2857142857142828</v>
       </c>
       <c r="AB53" t="n">
-        <v>-0.2857142857142828</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-1.194029850746269</v>
       </c>
       <c r="AD53" t="n">
-        <v>-1.194029850746269</v>
+        <v>-0.9411764705882353</v>
       </c>
       <c r="AE53" t="n">
-        <v>-0.9411764705882353</v>
+        <v>-0.6197183098591549</v>
       </c>
       <c r="AF53" t="n">
-        <v>-0.6197183098591549</v>
+        <v>-0.1903374605486768</v>
       </c>
       <c r="AG53" t="n">
-        <v>-0.1903374605486768</v>
+        <v>-0.7249999999999999</v>
       </c>
       <c r="AH53" t="n">
-        <v>-0.7249999999999999</v>
+        <v>-0.3615107913669064</v>
       </c>
       <c r="AI53" t="n">
-        <v>-0.3615107913669064</v>
+        <v>0.4603330068560236</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.4603330068560236</v>
+        <v>-0.5153846153846152</v>
       </c>
       <c r="AK53" t="n">
-        <v>-0.5153846153846152</v>
+        <v>-0.5267759562841531</v>
       </c>
       <c r="AL53" t="n">
-        <v>-0.5267759562841531</v>
+        <v>-0.7200000000000001</v>
       </c>
       <c r="AM53" t="n">
-        <v>-0.7200000000000001</v>
+        <v>0.2243753187149408</v>
       </c>
       <c r="AN53" t="n">
-        <v>0.2243753187149408</v>
+        <v>0.1604938271604942</v>
       </c>
       <c r="AO53" t="n">
-        <v>0.1604938271604942</v>
+        <v>0.6245461147421936</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.6245461147421936</v>
+        <v>0.7128455665809296</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.7122039513205378</v>
+        <v>0.5465587044534392</v>
       </c>
       <c r="AR53" t="n">
-        <v>0.5465587044534392</v>
+        <v>-0.8074080624509344</v>
       </c>
       <c r="AS53" t="n">
-        <v>-0.8069952930386471</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.1016949152542373</v>
+        <v>-0.4948430706203966</v>
       </c>
       <c r="AU53" t="n">
-        <v>-0.4886821343793218</v>
+        <v>-0.6198830409356723</v>
       </c>
       <c r="AV53" t="n">
-        <v>-0.5930280475523669</v>
+        <v>-0.4390919898376437</v>
       </c>
       <c r="AW53" t="n">
-        <v>-0.4338420032475788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -8551,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -8563,10 +8563,10 @@
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>1</v>
@@ -8596,16 +8596,16 @@
         <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54" t="n">
         <v>1</v>
@@ -8614,73 +8614,73 @@
         <v>1</v>
       </c>
       <c r="AA54" t="n">
-        <v>1</v>
+        <v>-1.428571428571394</v>
       </c>
       <c r="AB54" t="n">
-        <v>-1.428571428571394</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.3333333333333333</v>
+        <v>0.5373134328358209</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.5373134328358209</v>
+        <v>1.352941176470588</v>
       </c>
       <c r="AE54" t="n">
-        <v>1.352941176470588</v>
+        <v>1.126760563380282</v>
       </c>
       <c r="AF54" t="n">
-        <v>1.126760563380282</v>
+        <v>0.5064336003884438</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.5064336003884438</v>
+        <v>0.3920816452894223</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.3918750497389211</v>
+        <v>-0.2158273381294964</v>
       </c>
       <c r="AI54" t="n">
-        <v>-0.2158273381294964</v>
+        <v>0.5054018281595161</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0.5197552170217865</v>
+        <v>0.2588689307412483</v>
       </c>
       <c r="AK54" t="n">
-        <v>0.2588781478470444</v>
+        <v>0.4043715846994536</v>
       </c>
       <c r="AL54" t="n">
-        <v>0.4043715846994536</v>
+        <v>0.2830602706610658</v>
       </c>
       <c r="AM54" t="n">
-        <v>0.2830526320553223</v>
+        <v>0.8134781267088597</v>
       </c>
       <c r="AN54" t="n">
-        <v>0.8022923431870953</v>
+        <v>-1.246913580246912</v>
       </c>
       <c r="AO54" t="n">
-        <v>-1.246913580246912</v>
+        <v>-0.392156862745099</v>
       </c>
       <c r="AP54" t="n">
-        <v>-0.392156862745099</v>
+        <v>0.05899941273477602</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.0583577974743843</v>
+        <v>1.761133603238865</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.761133603238865</v>
+        <v>0.8548310267331263</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.8552437961454136</v>
+        <v>-0.1271186440677966</v>
       </c>
       <c r="AT54" t="n">
-        <v>-0.1271186440677966</v>
+        <v>0.3056383671478923</v>
       </c>
       <c r="AU54" t="n">
-        <v>0.3018330829989932</v>
+        <v>0.6315789473684211</v>
       </c>
       <c r="AV54" t="n">
-        <v>0.6584339407517265</v>
+        <v>0.1756367959350575</v>
       </c>
       <c r="AW54" t="n">
-        <v>0.1735368012990315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -8711,10 +8711,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -8726,10 +8726,10 @@
         <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -8753,85 +8753,85 @@
         <v>1</v>
       </c>
       <c r="W55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.1791044776119403</v>
       </c>
       <c r="AD55" t="n">
-        <v>-0.1791044776119403</v>
+        <v>-0.5294117647058824</v>
       </c>
       <c r="AE55" t="n">
-        <v>-0.5294117647058824</v>
+        <v>-0.1971830985915493</v>
       </c>
       <c r="AF55" t="n">
-        <v>-0.1971830985915493</v>
+        <v>-0.895848506919155</v>
       </c>
       <c r="AG55" t="n">
-        <v>-0.895848506919155</v>
+        <v>0.1499999999999998</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.1499999999999998</v>
+        <v>-0.6348920863309352</v>
       </c>
       <c r="AI55" t="n">
-        <v>-0.6348920863309352</v>
+        <v>-0.8521057786483831</v>
       </c>
       <c r="AJ55" t="n">
-        <v>-0.8521057786483831</v>
+        <v>-0.7615384615384614</v>
       </c>
       <c r="AK55" t="n">
-        <v>-0.7615384615384614</v>
+        <v>-0.9486338797814208</v>
       </c>
       <c r="AL55" t="n">
-        <v>-0.9486338797814208</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="AM55" t="n">
-        <v>0.1176470588235294</v>
+        <v>-0.1835798062213159</v>
       </c>
       <c r="AN55" t="n">
-        <v>-0.1835798062213159</v>
+        <v>-0.7283950617283944</v>
       </c>
       <c r="AO55" t="n">
-        <v>-0.7283950617283944</v>
+        <v>-1.365286855482936</v>
       </c>
       <c r="AP55" t="n">
-        <v>-1.365286855482936</v>
+        <v>-0.7486928949575316</v>
       </c>
       <c r="AQ55" t="n">
-        <v>-0.7493345102179232</v>
+        <v>-1.19433198380567</v>
       </c>
       <c r="AR55" t="n">
-        <v>-1.19433198380567</v>
+        <v>0.3159315959930883</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.3163443654053756</v>
+        <v>0.8305084745762712</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.8305084745762712</v>
+        <v>-2.212239609832362</v>
       </c>
       <c r="AU55" t="n">
-        <v>-2.184696600754616</v>
+        <v>-2.023391812865496</v>
       </c>
       <c r="AV55" t="n">
-        <v>-1.996536819482191</v>
+        <v>-2.195459949188218</v>
       </c>
       <c r="AW55" t="n">
-        <v>-2.169210016237894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -8853,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -8862,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>1</v>
@@ -8892,97 +8892,97 @@
         <v>1</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
         <v>1</v>
       </c>
       <c r="V56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="AC56" t="n">
-        <v>-1.666666666666667</v>
+        <v>-0.5074626865671642</v>
       </c>
       <c r="AD56" t="n">
-        <v>-0.5074626865671642</v>
+        <v>-1.117647058823529</v>
       </c>
       <c r="AE56" t="n">
-        <v>-1.117647058823529</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.05633802816901409</v>
+        <v>-0.1320708909929594</v>
       </c>
       <c r="AG56" t="n">
-        <v>-0.1320708909929594</v>
+        <v>0.01250000000000001</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.01250000000000001</v>
+        <v>1.039568345323741</v>
       </c>
       <c r="AI56" t="n">
-        <v>1.039568345323741</v>
+        <v>0.4211557296767877</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.4211557296767877</v>
+        <v>0.4307692307692307</v>
       </c>
       <c r="AK56" t="n">
-        <v>0.4307692307692307</v>
+        <v>2.310382513661202</v>
       </c>
       <c r="AL56" t="n">
-        <v>2.310382513661202</v>
+        <v>0.3764705882352941</v>
       </c>
       <c r="AM56" t="n">
-        <v>0.3764705882352941</v>
+        <v>0.4181540030596633</v>
       </c>
       <c r="AN56" t="n">
-        <v>0.4181540030596633</v>
+        <v>1.666666666666666</v>
       </c>
       <c r="AO56" t="n">
-        <v>1.666666666666666</v>
+        <v>-0.05809731299927469</v>
       </c>
       <c r="AP56" t="n">
-        <v>-0.05809731299927469</v>
+        <v>-1.479462125726762</v>
       </c>
       <c r="AQ56" t="n">
-        <v>-1.480103740987154</v>
+        <v>-0.05263157894736661</v>
       </c>
       <c r="AR56" t="n">
-        <v>-0.05263157894736661</v>
+        <v>1.397525523886827</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.397938293299114</v>
+        <v>-0.1271186440677966</v>
       </c>
       <c r="AT56" t="n">
-        <v>-0.1271186440677966</v>
+        <v>-0.5093972785798202</v>
       </c>
       <c r="AU56" t="n">
-        <v>-0.503055138331655</v>
+        <v>-0.2573099415204675</v>
       </c>
       <c r="AV56" t="n">
-        <v>-0.2304549481371622</v>
+        <v>-0.5269103878051724</v>
       </c>
       <c r="AW56" t="n">
-        <v>-0.5206104038970945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -9004,10 +9004,10 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -9016,19 +9016,19 @@
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
         <v>1</v>
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -9058,82 +9058,82 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57" t="n">
         <v>1</v>
       </c>
       <c r="Z57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>-0.2857142857142828</v>
       </c>
       <c r="AB57" t="n">
-        <v>-0.2857142857142828</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.3333333333333333</v>
+        <v>-0.4776119402985075</v>
       </c>
       <c r="AD57" t="n">
-        <v>-0.4776119402985075</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.4507042253521127</v>
+        <v>0.6203447438698712</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.6203447438698712</v>
+        <v>-0.4875</v>
       </c>
       <c r="AH57" t="n">
-        <v>-0.4875</v>
+        <v>4.618705035971223</v>
       </c>
       <c r="AI57" t="n">
-        <v>4.618705035971223</v>
+        <v>0.1919686581782566</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0.1919686581782566</v>
+        <v>-0.2115384615384615</v>
       </c>
       <c r="AK57" t="n">
-        <v>-0.2115384615384615</v>
+        <v>0.3723536934894709</v>
       </c>
       <c r="AL57" t="n">
-        <v>0.3722899680308482</v>
+        <v>-1.352470588235294</v>
       </c>
       <c r="AM57" t="n">
-        <v>-1.352470588235294</v>
+        <v>0.03977562468128509</v>
       </c>
       <c r="AN57" t="n">
-        <v>0.03977562468128509</v>
+        <v>0.1728395061728396</v>
       </c>
       <c r="AO57" t="n">
-        <v>0.1728395061728396</v>
+        <v>-0.01597676107480023</v>
       </c>
       <c r="AP57" t="n">
-        <v>-0.01597676107480023</v>
+        <v>0.1743840281193924</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.1737424128590006</v>
+        <v>-0.008097165991901226</v>
       </c>
       <c r="AR57" t="n">
-        <v>-0.008097165991901226</v>
+        <v>1.181206738308079</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.181619507720366</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.4067796610169492</v>
+        <v>-2.008480698400434</v>
       </c>
       <c r="AU57" t="n">
-        <v>-1.983474545421954</v>
+        <v>-1.637426900584795</v>
       </c>
       <c r="AV57" t="n">
-        <v>-1.610571907201489</v>
+        <v>-2.063732352236925</v>
       </c>
       <c r="AW57" t="n">
-        <v>-2.03905741526362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
@@ -9200,10 +9200,10 @@
         <v>1</v>
       </c>
       <c r="U58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58" t="n">
         <v>1</v>
@@ -9215,76 +9215,76 @@
         <v>1</v>
       </c>
       <c r="Z58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0</v>
+        <v>-0.2857142857142828</v>
       </c>
       <c r="AB58" t="n">
-        <v>-0.2857142857142828</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC58" t="n">
-        <v>-0.3333333333333333</v>
+        <v>0.1791044776119403</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.1791044776119403</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="AE58" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.5070422535211268</v>
+        <v>0.04564214615197851</v>
       </c>
       <c r="AG58" t="n">
-        <v>0.04564214615197851</v>
+        <v>0.2374999999999999</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.2374999999999999</v>
+        <v>-0.4244604316546763</v>
       </c>
       <c r="AI58" t="n">
-        <v>-0.4244604316546763</v>
+        <v>1.234084231145935</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1.234084231145935</v>
+        <v>-0.5846153846153844</v>
       </c>
       <c r="AK58" t="n">
-        <v>-0.5846153846153844</v>
+        <v>-0.3628415300546447</v>
       </c>
       <c r="AL58" t="n">
-        <v>-0.3628415300546447</v>
+        <v>0.1759816329220518</v>
       </c>
       <c r="AM58" t="n">
-        <v>0.1761762185507246</v>
+        <v>2.202957674655786</v>
       </c>
       <c r="AN58" t="n">
-        <v>2.202957674655786</v>
+        <v>0.6049382716049376</v>
       </c>
       <c r="AO58" t="n">
-        <v>0.6049382716049376</v>
+        <v>0.348583877995644</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.348583877995644</v>
+        <v>0.05899941273477602</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.0583577974743843</v>
+        <v>0.3238866396761124</v>
       </c>
       <c r="AR58" t="n">
-        <v>0.3238866396761124</v>
+        <v>-0.577806544424369</v>
       </c>
       <c r="AS58" t="n">
-        <v>-0.5773937750120817</v>
+        <v>-1.589830508474576</v>
       </c>
       <c r="AT58" t="n">
-        <v>-1.589830508474576</v>
+        <v>1.513637627780037</v>
       </c>
       <c r="AU58" t="n">
-        <v>1.494792411042632</v>
+        <v>1.099415204678363</v>
       </c>
       <c r="AV58" t="n">
-        <v>1.126270198061669</v>
+        <v>1.273366770529167</v>
       </c>
       <c r="AW58" t="n">
-        <v>1.258141809417978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -9324,13 +9324,13 @@
         <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
         <v>1</v>
@@ -9339,10 +9339,10 @@
         <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -9351,16 +9351,16 @@
         <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V59" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59" t="n">
         <v>1</v>
@@ -9369,73 +9369,73 @@
         <v>1</v>
       </c>
       <c r="AA59" t="n">
-        <v>1</v>
+        <v>0.5714285714285656</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.5714285714285656</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.5074626865671642</v>
+        <v>-0.05882352941176471</v>
       </c>
       <c r="AE59" t="n">
-        <v>-0.05882352941176471</v>
+        <v>-0.4788732394366197</v>
       </c>
       <c r="AF59" t="n">
-        <v>-0.4788732394366197</v>
+        <v>0.1976207817431414</v>
       </c>
       <c r="AG59" t="n">
-        <v>0.1976207817431414</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="AH59" t="n">
-        <v>0.3749999999999999</v>
+        <v>-0.2338129496402877</v>
       </c>
       <c r="AI59" t="n">
-        <v>-0.2338129496402877</v>
+        <v>0.6366307541625854</v>
       </c>
       <c r="AJ59" t="n">
-        <v>0.6366307541625854</v>
+        <v>0.3846153846153845</v>
       </c>
       <c r="AK59" t="n">
-        <v>0.3846153846153845</v>
+        <v>0.7431693989071039</v>
       </c>
       <c r="AL59" t="n">
-        <v>0.7431693989071039</v>
+        <v>-0.9882352941176471</v>
       </c>
       <c r="AM59" t="n">
-        <v>-0.9882352941176471</v>
+        <v>0.2447730749617539</v>
       </c>
       <c r="AN59" t="n">
-        <v>0.2447730749617539</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="AO59" t="n">
-        <v>0.1234567901234568</v>
+        <v>-0.435729847494554</v>
       </c>
       <c r="AP59" t="n">
-        <v>-0.435729847494554</v>
+        <v>0.7897686435040066</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.7891270282436148</v>
+        <v>-1.012145748987855</v>
       </c>
       <c r="AR59" t="n">
-        <v>-1.012145748987855</v>
+        <v>-0.9041822559993217</v>
       </c>
       <c r="AS59" t="n">
-        <v>-0.9037694865870344</v>
+        <v>-0.1186440677966102</v>
       </c>
       <c r="AT59" t="n">
-        <v>-0.1186440677966102</v>
+        <v>0.9483244019660343</v>
       </c>
       <c r="AU59" t="n">
-        <v>0.9371128161352331</v>
+        <v>0.4678362573099419</v>
       </c>
       <c r="AV59" t="n">
-        <v>0.4946912506932473</v>
+        <v>0.8781839796752874</v>
       </c>
       <c r="AW59" t="n">
-        <v>0.8676840064951575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -9481,16 +9481,16 @@
         <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
         <v>1</v>
@@ -9502,19 +9502,19 @@
         <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60" t="n">
         <v>1</v>
       </c>
       <c r="Y60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
@@ -9523,70 +9523,70 @@
         <v>0</v>
       </c>
       <c r="AB60" t="n">
-        <v>0</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AC60" t="n">
-        <v>-0.3333333333333333</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.05970149253731343</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="AE60" t="n">
-        <v>0.3529411764705883</v>
+        <v>-0.1408450704225352</v>
       </c>
       <c r="AF60" t="n">
-        <v>-0.1408450704225352</v>
+        <v>-0.6860888565185723</v>
       </c>
       <c r="AG60" t="n">
-        <v>-0.6860888565185723</v>
+        <v>-0.6249999999999998</v>
       </c>
       <c r="AH60" t="n">
-        <v>-0.6249999999999998</v>
+        <v>-0.4028776978417266</v>
       </c>
       <c r="AI60" t="n">
-        <v>-0.4028776978417266</v>
+        <v>0</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0</v>
+        <v>-0.8046153846153845</v>
       </c>
       <c r="AK60" t="n">
-        <v>-0.8046153846153845</v>
+        <v>-0.7256830601092897</v>
       </c>
       <c r="AL60" t="n">
-        <v>-0.7256830601092897</v>
+        <v>1.390588235294117</v>
       </c>
       <c r="AM60" t="n">
-        <v>1.390588235294117</v>
+        <v>0.1407445181030088</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.1407445181030088</v>
+        <v>-0.3703703703703699</v>
       </c>
       <c r="AO60" t="n">
-        <v>-0.3703703703703699</v>
+        <v>0.2904865649963693</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.2904865649963693</v>
+        <v>-0.171769818034455</v>
       </c>
       <c r="AQ60" t="n">
-        <v>-0.1724114332948467</v>
+        <v>0.4048582995951419</v>
       </c>
       <c r="AR60" t="n">
-        <v>0.4048582995951419</v>
+        <v>0.357677326543373</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.3580900959556603</v>
+        <v>1.983050847457627</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.983050847457627</v>
+        <v>-1.309878716348109</v>
       </c>
       <c r="AU60" t="n">
-        <v>-1.29357035570997</v>
+        <v>-1.099415204678362</v>
       </c>
       <c r="AV60" t="n">
-        <v>-1.072560211295057</v>
+        <v>-1.361185168496695</v>
       </c>
       <c r="AW60" t="n">
-        <v>-1.344910210067494</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/temp/normalized-positive-baseline.xlsx
+++ b/temp/normalized-positive-baseline.xlsx
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4166666666666667</v>
+        <v>-0.3573942848683141</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -762,70 +762,70 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.857142857142787</v>
+        <v>0.9329195669315943</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.333333333333333</v>
+        <v>0.7804353215777061</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5671641791044776</v>
+        <v>0.4170071127495377</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.352941176470588</v>
+        <v>-0.9484777210020656</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.8732394366197183</v>
+        <v>-0.8993916295968484</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.761349842194707</v>
+        <v>0.997608127471922</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.8624999999999998</v>
+        <v>-0.5392172432542299</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.005395683453237</v>
+        <v>0.4476318919882321</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.7443682664054843</v>
+        <v>-0.8944888948712519</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.6538461538461536</v>
+        <v>-0.5067699944725043</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.4109289617486338</v>
+        <v>0.3548084370586387</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.4</v>
+        <v>0.09514337011768872</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.5752167261601221</v>
+        <v>-0.5877420787481007</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.4938271604938267</v>
+        <v>-0.4825058769547732</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.1705634370340167</v>
+        <v>0.267713878963269</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6743840281193919</v>
+        <v>0.7261416262728273</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.202429149797571</v>
+        <v>-0.247693131687961</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.380447725025347</v>
+        <v>0.8873900517741963</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.305084745762712</v>
+        <v>0.8988301111901479</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.02910841591884728</v>
+        <v>-0.04368018348728402</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>0.02374335043556285</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.08781839796752874</v>
+        <v>0.01795818899248047</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5833333333333334</v>
+        <v>-0.5323337997277721</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -895,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>-2</v>
+        <v>-0.9548792538221945</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
@@ -913,70 +913,70 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.8571428571428281</v>
+        <v>-0.6630362378058202</v>
       </c>
       <c r="AB3" t="n">
-        <v>-1.666666666666667</v>
+        <v>-0.9471334110778097</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2388059701492537</v>
+        <v>0.1178665531035008</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1679916014787453</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.042253521126761</v>
+        <v>0.9057075940252234</v>
       </c>
       <c r="AF3" t="n">
-        <v>-1.15659140568099</v>
+        <v>-0.9143242941452439</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.2624999999999998</v>
+        <v>-0.2992955899544129</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>-0.2639072737012741</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.2154750244857984</v>
+        <v>0.1591979000786096</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.246153846153846</v>
+        <v>-0.004185013879255377</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.4371584699453552</v>
+        <v>-0.5751841116111955</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.1176470588235294</v>
+        <v>-0.2570264237306345</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.2039775624681284</v>
+        <v>-0.2407802249860644</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.9876543209876535</v>
+        <v>-0.7936507382515602</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.7116920842411056</v>
+        <v>-0.6426047622442715</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.2102313564959926</v>
+        <v>-0.2552639350090567</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.6072874493927128</v>
+        <v>-0.5885456392789067</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.357677326543373</v>
+        <v>0.8817685870681807</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.7288135593220338</v>
+        <v>-0.739840070819721</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.01455420795942364</v>
+        <v>-0.03085257811000282</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.4210526315789472</v>
+        <v>-0.3941862589094788</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1317275969512931</v>
+        <v>0.2199007920286368</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3751105745702884</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -1046,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
@@ -1064,70 +1064,70 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.333333333333333</v>
+        <v>0.7804353215777061</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.4776119402985075</v>
+        <v>-0.5313933961425944</v>
       </c>
       <c r="AD4" t="n">
-        <v>-1</v>
+        <v>-0.8759489569867401</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.704225352112676</v>
+        <v>-0.8357109581004828</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.4530225782957028</v>
+        <v>-0.5851661585858737</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.3125</v>
+        <v>0.8946648633625347</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.2697841726618705</v>
+        <v>-0.4398967422291856</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.4309500489715962</v>
+        <v>-0.7259083873605842</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.2076923076923076</v>
+        <v>-0.2762778638962046</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.4371584699453552</v>
+        <v>-0.5751841116111955</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.2823529411764706</v>
+        <v>-0.3600501943571874</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.3161652218255991</v>
+        <v>-0.3584675456362106</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.1659232504647783</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.597676107480031</v>
+        <v>0.9604606363047657</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.78715443341907</v>
+        <v>-0.7745544714562991</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.4048582995951419</v>
+        <v>-0.4334977648688166</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.6195522749746537</v>
+        <v>-0.6966872656386474</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.3559322033898305</v>
+        <v>0.326160629907096</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0.01801480157350374</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.1403508771929826</v>
+        <v>-0.1224659139215493</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.08781839796752874</v>
+        <v>0.1804361793746644</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.25</v>
+        <v>-0.8998440634279272</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -1197,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1215,70 +1215,70 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.428571428571394</v>
+        <v>0.6212981413423495</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.333333333333333</v>
+        <v>0.7804353215777061</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3582089552238806</v>
+        <v>0.2325030518992507</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6530935473076807</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.3661971830985916</v>
+        <v>-0.5930036826036368</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.7171643602816216</v>
+        <v>0.6630984118129435</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.5624999999999998</v>
+        <v>0.09563134217680551</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.6852517985611511</v>
+        <v>0.2376353383860816</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.401567091087169</v>
+        <v>-0.7018339567116701</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>-0.1545105921483304</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.5005464480874317</v>
+        <v>-0.6242471523974712</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.2978754879289331</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.5721570627231</v>
+        <v>-0.5854250617023371</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.9506172839506167</v>
+        <v>0.7994377275597404</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.653594771241831</v>
+        <v>-0.6007442621980261</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.443614797350161</v>
+        <v>0.5457338841107071</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.4433198380566799</v>
+        <v>-0.4655171161679139</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.8738217246900237</v>
+        <v>-0.8175797131633552</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.864406779661017</v>
+        <v>-0.8044887828672377</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.231034166992003</v>
+        <v>0.9931102908932466</v>
       </c>
       <c r="AU5" t="n">
-        <v>2.116959064327486</v>
+        <v>0.9775186881158257</v>
       </c>
       <c r="AV5" t="n">
-        <v>2.41500594410704</v>
+        <v>0.9823868633382269</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>0.8218886837721318</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -1348,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1366,70 +1366,70 @@
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.857142857142747</v>
+        <v>0.9952016116379103</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.333333333333333</v>
+        <v>0.7804353215777061</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3880597014925373</v>
+        <v>0.2603074559293186</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.4117647058823529</v>
+        <v>-0.5329414936614135</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.3943661971830986</v>
+        <v>0.4604045128128909</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6788055353241077</v>
+        <v>0.6352577260990401</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.7499999999999999</v>
+        <v>-0.4989213665918156</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.3525179856115109</v>
+        <v>-0.006619164581260623</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.06856023506366263</v>
+        <v>-0.3042891554110834</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.1846153846153846</v>
+        <v>-0.2631016891180696</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.12568306010929</v>
+        <v>0.8442457300178173</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.9882352941176471</v>
+        <v>-0.6991357785369839</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.3263640999490057</v>
+        <v>-0.3686858033411798</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.1659232504647783</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.006723883189543213</v>
+        <v>0.06592141130257274</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.05655394665196045</v>
+        <v>0.09501336774887227</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>-0.04168729657875796</v>
       </c>
       <c r="AR6" t="n">
-        <v>-1.268508631710897</v>
+        <v>-0.9212931050946018</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.6016949152542372</v>
+        <v>-0.6635400843306715</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0.2765299512290451</v>
+        <v>-0.2562433350946414</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.2339181286549704</v>
+        <v>-0.2174437468764799</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.3951827908538793</v>
+        <v>-0.2635022961479705</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.2581684061764928</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -1499,10 +1499,10 @@
         <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1517,70 +1517,70 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2857142857142828</v>
+        <v>-0.0355329564615389</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0.6229765851958218</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.194029850746269</v>
+        <v>0.7878556832180051</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>0.8451645937927293</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.02816901408450704</v>
+        <v>-0.1564958968748874</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.8856518572469045</v>
+        <v>0.7656703360899015</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.8749999999999998</v>
+        <v>-0.5435514988559947</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6115107913669064</v>
+        <v>0.1849546145914409</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.675808031341822</v>
+        <v>0.7306276641490113</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.06204835490774965</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.1114754098360655</v>
+        <v>0.008600667826454304</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.651764705882353</v>
+        <v>0.7451662727824181</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.4589495155532881</v>
+        <v>0.4775209620104814</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.2469135802469131</v>
+        <v>-0.2437514247944342</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.6100217864923759</v>
+        <v>-0.5670035471948031</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.05899941273477602</v>
+        <v>0.09824919473760473</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.8704453441295573</v>
+        <v>0.6996578429171966</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0.1869147038171582</v>
+        <v>-0.3537434025959214</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.228813559322034</v>
+        <v>0.8799368289121011</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.4220720308232794</v>
+        <v>0.3403658836591616</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.3859649122807018</v>
+        <v>0.403258839477553</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.2634551939025862</v>
+        <v>0.3336295758725585</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5</v>
+        <v>-0.4491586645508897</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -1650,10 +1650,10 @@
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1668,70 +1668,70 @@
         <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.8571428571428281</v>
+        <v>0.3326315889680917</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.09629910126970252</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.970149253731343</v>
+        <v>0.950357762205267</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1679916014787453</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.647887323943662</v>
+        <v>-0.8073476828019548</v>
       </c>
       <c r="AF8" t="n">
-        <v>-1.428987618353969</v>
+        <v>-0.9558192570119015</v>
       </c>
       <c r="AG8" t="n">
-        <v>-1.5125</v>
+        <v>-0.726786689079595</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.1978417266187049</v>
+        <v>-0.3954885699898826</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.6464250734573942</v>
+        <v>-0.8565432010392302</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.5615384615384614</v>
+        <v>0.1877634972059779</v>
       </c>
       <c r="AK8" t="n">
-        <v>-1.049180327868853</v>
+        <v>-0.8844340462270753</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.103529411764706</v>
+        <v>-0.1093678081437021</v>
       </c>
       <c r="AM8" t="n">
-        <v>-1.519632840387556</v>
+        <v>-0.9430109772138646</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.4938271604938267</v>
+        <v>-0.4825058769547732</v>
       </c>
       <c r="AO8" t="n">
-        <v>-2.033405954974585</v>
+        <v>-0.9807222437853076</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0.9410005872652232</v>
+        <v>-0.8446265745673719</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0.4048582995951419</v>
+        <v>-0.4334977648688166</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.2286604343674429</v>
+        <v>-0.3944885293311205</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.7288135593220338</v>
+        <v>-0.739840070819721</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.01879455715964</v>
+        <v>0.7070083786064071</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.5964912280701763</v>
+        <v>0.5701748361636433</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.9660023776428162</v>
+        <v>0.7636028670481693</v>
       </c>
       <c r="AW8" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.854436136604922</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -1801,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1819,70 +1819,70 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.4776119402985075</v>
+        <v>0.3410240677813761</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1679916014787453</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.02816901408450704</v>
+        <v>-0.07026101321281987</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.4675892206846322</v>
+        <v>-0.5970591070587996</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.6999999999999998</v>
+        <v>-0.4802764353155086</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.464028776978417</v>
+        <v>0.9174693429554139</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.1567091087169442</v>
+        <v>0.06224787845839722</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.776923076923077</v>
+        <v>0.7344907945593406</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.8087431693989071</v>
+        <v>0.6922596247748142</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.1929411764705883</v>
+        <v>-0.04787291124003343</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.4385517593064764</v>
+        <v>-0.4749364971525592</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.604938271604938</v>
+        <v>0.9500595952988182</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.118373275236022</v>
+        <v>0.8828292784335788</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.5205378742732379</v>
+        <v>0.6138207707852511</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.4251012145748979</v>
+        <v>0.3815710478210644</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.4032334893959059</v>
+        <v>-0.5478297943755637</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.694915254237288</v>
+        <v>0.958669116952573</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0.3638551989855859</v>
+        <v>-0.3267248667289325</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0.374269005847953</v>
+        <v>-0.352068492279212</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.5708195867889369</v>
+        <v>-0.4089433367674284</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8814230771304676</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1952,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1970,70 +1970,70 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.428571428571353</v>
+        <v>0.9681420717543743</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.666666666666667</v>
+        <v>0.8771127461203905</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>-0.1178665531035008</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.176470588235294</v>
+        <v>0.9921255674441637</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.605633802816901</v>
+        <v>0.9829217373836701</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.1034231609613984</v>
+        <v>-0.2274790970274959</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.9374999999999997</v>
+        <v>-0.5647902575198457</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.2338129496402879</v>
+        <v>-0.09512244616128833</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.253672869735553</v>
+        <v>0.9558981534410974</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.5615384615384614</v>
+        <v>0.1877634972059779</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.1617486338797816</v>
+        <v>-0.3113097575314424</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.9882352941176471</v>
+        <v>0.4642005490086609</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.703212646608872</v>
+        <v>0.9608071886596865</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.3703703703703705</v>
+        <v>0.41774597883327</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.5519244734931013</v>
+        <v>-0.5188817327291529</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.366691720427085</v>
+        <v>0.9512927097521665</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.4655870445344155</v>
+        <v>0.4170747931119411</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.05029231292531777</v>
+        <v>-0.2113902759042607</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.4576271186440678</v>
+        <v>-0.5566480072813336</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.993926490441011</v>
+        <v>0.9404389125738293</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.321637426900585</v>
+        <v>0.886729665937672</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.624640362399282</v>
+        <v>0.9248524693574424</v>
       </c>
       <c r="AW10" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.1730960220394006</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -2103,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W11" t="n">
         <v>1</v>
@@ -2121,70 +2121,70 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB11" t="n">
-        <v>3</v>
+        <v>0.9896553652184664</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.895522388059701</v>
+        <v>0.9998462660843792</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.7647058823529411</v>
+        <v>-0.7827961086711569</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.7605633802816901</v>
+        <v>-0.8602213962688199</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.3607671764991502</v>
+        <v>0.3372959735921509</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.3249999999999999</v>
+        <v>-0.3269439021739141</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.3057553956834531</v>
+        <v>-0.04157381366677385</v>
       </c>
       <c r="AI11" t="n">
-        <v>1.175318315377081</v>
+        <v>0.9430667173819756</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.8846153846153844</v>
+        <v>0.3704611860955732</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.704918032786885</v>
+        <v>0.9592664323818432</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.8941176470588236</v>
+        <v>-0.6642897935642045</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.468638449770524</v>
+        <v>0.9335698059424413</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.7407407407407404</v>
+        <v>0.6968695530246994</v>
       </c>
       <c r="AO11" t="n">
-        <v>-1.612200435729849</v>
+        <v>-0.9489430191261999</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.020537874273238</v>
+        <v>0.8815907212505416</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0.7692307692307719</v>
+        <v>-0.688149303235744</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0.4279014210847105</v>
+        <v>-0.5671270754869522</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.6440677966101694</v>
+        <v>-0.6907820508228857</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.596722526336361</v>
+        <v>0.468895612914217</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.0467836257309942</v>
+        <v>0.07256389447760166</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.6147287857727012</v>
+        <v>0.5888172413093036</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.854436136604922</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -2254,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W12" t="n">
         <v>1</v>
@@ -2272,70 +2272,70 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.6927823969143417</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.5373134328358209</v>
+        <v>-0.5725399861244915</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.235294117647059</v>
+        <v>0.9128764497732167</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.014084507042254</v>
+        <v>0.8975352640173683</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.6957999514445252</v>
+        <v>-0.7508816807058445</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.7749999999999997</v>
+        <v>-0.5080751659649846</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.2500000000000001</v>
+        <v>-0.08311080262973189</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.009794319294808449</v>
+        <v>-0.2127065986140573</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.2923076923076923</v>
+        <v>-0.3236788637604618</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.9617486338797814</v>
+        <v>-0.8591213016248093</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.4</v>
+        <v>0.09514337011768872</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0.01010331518450723</v>
       </c>
       <c r="AN12" t="n">
-        <v>-1.11111111111111</v>
+        <v>-0.839643109209777</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.161946259985477</v>
+        <v>0.8936302363302897</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.328230181965546</v>
+        <v>0.9461640964795274</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.036437246963564</v>
+        <v>0.9961612818345223</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.3159469618816744</v>
+        <v>-0.4747540772031914</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.3728813559322034</v>
+        <v>0.3440340218047704</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.164336636753875</v>
+        <v>0.7656101945358158</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.157894736842106</v>
+        <v>0.8440545971303633</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.8781839796752874</v>
+        <v>0.7271080074537948</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>0.465341549799722</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -2405,10 +2405,10 @@
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W13" t="n">
         <v>1</v>
@@ -2423,70 +2423,70 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.5714285714285656</v>
+        <v>-0.5423975769998567</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.1791044776119403</v>
+        <v>0.05913939379463752</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1679916014787453</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.2535211267605634</v>
+        <v>0.2722436332943817</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.5064336003884438</v>
+        <v>-0.6275202461863167</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.024999999999999</v>
+        <v>0.6714035810223602</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.7410071942446043</v>
+        <v>-0.6775542820651298</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.4799216454456412</v>
+        <v>-0.7623850205459488</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.5538461538461537</v>
+        <v>-0.4595947776761162</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.7650273224043715</v>
+        <v>-0.7825636790579314</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.4235294117647059</v>
+        <v>-0.4419700469872468</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.6629270780214171</v>
+        <v>-0.6501011543971014</v>
       </c>
       <c r="AN13" t="n">
-        <v>-1.728395061728394</v>
+        <v>-0.9573933673393316</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.7262164124909233</v>
+        <v>0.7294311706856642</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.09746095119631537</v>
+        <v>0.1488253818033161</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.619433198380568</v>
+        <v>0.9286137921275158</v>
       </c>
       <c r="AR13" t="n">
-        <v>-1.074960244614122</v>
+        <v>-0.8804578437703549</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0.8813559322033898</v>
+        <v>-0.8114782672920607</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.2910841591884687</v>
+        <v>-0.2682054729285763</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.4678362573099409</v>
+        <v>-0.434710878575724</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.4390919898376437</v>
+        <v>-0.3013344329436807</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3751105745702884</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -2556,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -2574,70 +2574,70 @@
         <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.8571428571428281</v>
+        <v>-0.6630362378058202</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.014925373134328</v>
+        <v>0.7104675237149803</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.5294117647058824</v>
+        <v>-0.6333637802239471</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.8169014084507042</v>
+        <v>-0.8813115262873936</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.5210002427773731</v>
+        <v>-0.638475869481849</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.8249999999999997</v>
+        <v>-0.5260421342220688</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.1780575539568346</v>
+        <v>-0.3829320571174231</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.6072477962781579</v>
+        <v>-0.8380923424614292</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.3846153846153845</v>
+        <v>-0.373591721675732</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.1136612021857924</v>
+        <v>-0.2578558573870397</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.2305147244303294</v>
+        <v>-0.02189482166272345</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0.9029644278723477</v>
+        <v>-0.7828169025822951</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.617283950617283</v>
+        <v>0.9513931092240225</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.2469135802469143</v>
+        <v>0.3488563667395861</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0.1333082795729156</v>
+        <v>-0.1569830163745423</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0.6275303643724688</v>
+        <v>-0.6021811723690135</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.3425124267773102</v>
+        <v>-0.4977768721580196</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.3559322033898305</v>
+        <v>0.326160629907096</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0.4511804467421267</v>
+        <v>-0.3937505451083311</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0.4210526315789472</v>
+        <v>-0.3941862589094788</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0.6586379847564655</v>
+        <v>-0.475054897534686</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.75</v>
+        <v>0.8218886837721318</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -2707,10 +2707,10 @@
         <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2725,70 +2725,70 @@
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>-1.428571428571394</v>
+        <v>-0.8273079885582806</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3912089831213507</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.194029850746269</v>
+        <v>0.7878556832180051</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.378880928951338</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>-0.1135923914979173</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.004369992716678694</v>
+        <v>-0.09595084930398044</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.2624999999999998</v>
+        <v>-0.05118354877162689</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.3093525179856116</v>
+        <v>-0.03888751405505401</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.6072477962781587</v>
+        <v>0.6725938556026918</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.6230769230769229</v>
+        <v>-0.4925543670815476</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>-0.1256152383464162</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0.4047058823529412</v>
+        <v>-0.4314243097151369</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.3365629780724123</v>
+        <v>0.3613770714336144</v>
       </c>
       <c r="AN15" t="n">
-        <v>-1.48148148148148</v>
+        <v>-0.9269384434435077</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.174291938997822</v>
+        <v>0.2717774496665416</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0.7486928949575316</v>
+        <v>-0.7531703082896906</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0.202429149797571</v>
+        <v>-0.247693131687961</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.06399162175048231</v>
+        <v>-0.08469090495424375</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.07091718984040085</v>
+        <v>-6.517160771203485e-05</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5300249960982329</v>
+        <v>0.4217232157397588</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.3537918114891228</v>
+        <v>0.374696759697503</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.4192688365844827</v>
+        <v>0.4564494575409249</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.75</v>
+        <v>-0.6711852882635027</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -2858,10 +2858,10 @@
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -2876,70 +2876,70 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB16" t="n">
-        <v>1</v>
+        <v>0.6229765851958218</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.417910447761194</v>
+        <v>-0.4875767266986711</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.8823529411764706</v>
+        <v>-0.8352700241785256</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.704225352112676</v>
+        <v>-0.8357109581004828</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.7312454479242534</v>
+        <v>-0.7696457506173743</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.1500000000000001</v>
+        <v>-0.2482653844112084</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.172661870503597</v>
+        <v>0.541906163376652</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.7541625857002938</v>
+        <v>0.7860664101145101</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.641538461538461</v>
+        <v>0.6936957328758006</v>
       </c>
       <c r="AK16" t="n">
-        <v>1.822950819672131</v>
+        <v>0.9692315181173468</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.7294117647058823</v>
+        <v>0.3126460248330165</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.4895461499235085</v>
+        <v>0.504327434599701</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.5679012345679014</v>
+        <v>0.5829685751017177</v>
       </c>
       <c r="AO16" t="n">
-        <v>-1.23456790123457</v>
+        <v>-0.8803189351510351</v>
       </c>
       <c r="AP16" t="n">
-        <v>-1.210231356495993</v>
+        <v>-0.9211707795547185</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0.9716599190283428</v>
+        <v>-0.7840025159178774</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.291263664304284</v>
+        <v>0.8638372270795834</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.279661016949152</v>
+        <v>0.8928679821830509</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.8150356457277126</v>
+        <v>0.6052164335945256</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.5146198830409361</v>
+        <v>0.5095561905977846</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.6147287857727012</v>
+        <v>0.5888172413093036</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1</v>
+        <v>-0.815136188169989</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -3009,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>-2</v>
+        <v>-0.9548792538221945</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W17" t="n">
         <v>1</v>
@@ -3027,70 +3027,70 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.014925373134328</v>
+        <v>-0.8092876869557805</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.7954913240646638</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.4225352112676056</v>
+        <v>0.4941469801314958</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.06457878125758683</v>
+        <v>-0.1807703561866701</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.3499999999999999</v>
+        <v>-0.3378515651664243</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.03597122302158276</v>
+        <v>-0.2887574185743682</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.4113614103819785</v>
+        <v>0.4526388949800401</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.6230769230769229</v>
+        <v>-0.4925543670815476</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>-0.1256152383464162</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.152941176470588</v>
+        <v>0.5488080766574115</v>
       </c>
       <c r="AM17" t="n">
-        <v>-0.1121876593574707</v>
+        <v>-0.1387274799807592</v>
       </c>
       <c r="AN17" t="n">
-        <v>-0.4938271604938267</v>
+        <v>-0.4825058769547732</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.5809731299927386</v>
+        <v>-0.543388874808998</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.289768643504007</v>
+        <v>0.385750636913127</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0.6072874493927128</v>
+        <v>-0.5885456392789067</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.3671649925775288</v>
+        <v>0.2536029868105081</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0.6186440677966102</v>
+        <v>-0.6746599695638553</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.436626238782703</v>
+        <v>0.3516732939579625</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.1403508771929826</v>
+        <v>0.1689439192334494</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.3073643928863506</v>
+        <v>0.3696565634004713</v>
       </c>
       <c r="AW17" t="n">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8814230771304676</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -3160,10 +3160,10 @@
         <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -3178,70 +3178,70 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.8571428571428281</v>
+        <v>-0.6630362378058202</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.104477611940299</v>
+        <v>-0.8378079795438498</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.2941176470588235</v>
+        <v>-0.4148670072583338</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.05633802816901409</v>
+        <v>-0.02666284810745959</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.212672978878368</v>
+        <v>0.990552615949869</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.03750000000000002</v>
+        <v>-0.1602009297667919</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.865107913669063</v>
+        <v>0.9999733440478825</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.3917727717923599</v>
+        <v>-0.6934302453342976</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.03076923076923079</v>
+        <v>-0.1729487167154903</v>
       </c>
       <c r="AK18" t="n">
-        <v>1.519125683060109</v>
+        <v>0.9368718315617733</v>
       </c>
       <c r="AL18" t="n">
-        <v>6.117647058823529</v>
+        <v>0.9993974751477631</v>
       </c>
       <c r="AM18" t="n">
-        <v>-0.9739928607853133</v>
+        <v>-0.8125908458683813</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.518518518518517</v>
+        <v>0.939675875075792</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.8278867102396529</v>
+        <v>0.7806424766345481</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.7128455665809296</v>
+        <v>0.7495328886089965</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.202429149797571</v>
+        <v>0.1679250346101432</v>
       </c>
       <c r="AR18" t="n">
-        <v>-0.4032334893959059</v>
+        <v>-0.5478297943755637</v>
       </c>
       <c r="AS18" t="n">
-        <v>-0.3050847457627119</v>
+        <v>-0.4192208567608743</v>
       </c>
       <c r="AT18" t="n">
-        <v>-2.081251738197551</v>
+        <v>-0.952209092436339</v>
       </c>
       <c r="AU18" t="n">
-        <v>-1.83625730994152</v>
+        <v>-0.956005556593213</v>
       </c>
       <c r="AV18" t="n">
-        <v>-2.019823153253161</v>
+        <v>-0.9458920331848935</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.9036666573739073</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -3311,10 +3311,10 @@
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -3329,70 +3329,70 @@
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.142857142857111</v>
+        <v>0.4902964013300423</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.09629910126970252</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.343283582089552</v>
+        <v>-0.8958130070570633</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.05882352941176471</v>
+        <v>-0.1351071038832349</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.02816901408450704</v>
+        <v>-0.07026101321281987</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.9754794853119689</v>
+        <v>0.8084415025475933</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.03750000000000002</v>
+        <v>-0.1602009297667919</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.6474820143884891</v>
+        <v>0.2108058634666298</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.7737512242899121</v>
+        <v>0.7982600627282886</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.123076923076923</v>
+        <v>0.4897975294738558</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.887431693989071</v>
+        <v>0.7386461429499345</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.07294117647058811</v>
+        <v>-0.2278998389071018</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.1835798062213159</v>
+        <v>0.1991478153759054</v>
       </c>
       <c r="AN19" t="n">
-        <v>-0.2469135802469131</v>
+        <v>-0.2437514247944342</v>
       </c>
       <c r="AO19" t="n">
-        <v>-0.174291938997822</v>
+        <v>-0.1301980487462396</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.5589994127347756</v>
+        <v>0.6448317817198624</v>
       </c>
       <c r="AQ19" t="n">
-        <v>-0.202429149797571</v>
+        <v>-0.247693131687961</v>
       </c>
       <c r="AR19" t="n">
-        <v>-0.8510513262080502</v>
+        <v>-0.8088263183428149</v>
       </c>
       <c r="AS19" t="n">
-        <v>-0.9067796610169492</v>
+        <v>-0.8215428736690197</v>
       </c>
       <c r="AT19" t="n">
-        <v>-0.4657346547015503</v>
+        <v>-0.4045493745145931</v>
       </c>
       <c r="AU19" t="n">
-        <v>-0.5730994152046781</v>
+        <v>-0.5196165309208518</v>
       </c>
       <c r="AV19" t="n">
-        <v>-0.5708195867889369</v>
+        <v>-0.4089433367674284</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.25</v>
+        <v>-0.1531794064600764</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -3462,10 +3462,10 @@
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W20" t="n">
         <v>1</v>
@@ -3480,70 +3480,70 @@
         <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.142857142856969</v>
+        <v>0.9997723827289977</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3912089831213507</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.3283582089552239</v>
+        <v>0.2043133486869384</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>-0.05948361787961182</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.02816901408450704</v>
+        <v>-0.1564958968748874</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.7055110463704781</v>
+        <v>-0.7561491649249487</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.2624999999999998</v>
+        <v>-0.05118354877162689</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.3327338129496402</v>
+        <v>-0.4770740271784197</v>
       </c>
       <c r="AI20" t="n">
-        <v>-0.8227228207639564</v>
+        <v>-0.9178055117647129</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-0.669230769230769</v>
+        <v>-0.5137765657000304</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.1530054644808743</v>
+        <v>0.05878361416156387</v>
       </c>
       <c r="AL20" t="n">
-        <v>-1.458823529411765</v>
+        <v>-0.8310076866789555</v>
       </c>
       <c r="AM20" t="n">
-        <v>-1.25446200917899</v>
+        <v>-0.8973452223642699</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>0.02872025393040882</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>0.07378601657198885</v>
       </c>
       <c r="AP20" t="n">
-        <v>-0.7486928949575316</v>
+        <v>-0.7531703082896906</v>
       </c>
       <c r="AQ20" t="n">
-        <v>-0.4048582995951419</v>
+        <v>-0.4334977648688166</v>
       </c>
       <c r="AR20" t="n">
-        <v>-0.6575029391112759</v>
+        <v>-0.7181987235590579</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.1101694915254237</v>
+        <v>0.04653198570217162</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.1455420795942343</v>
+        <v>0.1099926463759849</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.1286549707602343</v>
+        <v>0.1570331695380218</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.08781839796752874</v>
+        <v>0.1804361793746644</v>
       </c>
       <c r="AW20" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.619139542494697</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -3613,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -3631,70 +3631,70 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.2857142857142828</v>
+        <v>-0.0355329564615389</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>0.6229765851958218</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.5074626865671642</v>
+        <v>0.3669164464584096</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>0.8451645937927293</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.3098591549295774</v>
+        <v>0.3511028128778355</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.5452779800922554</v>
+        <v>-0.6561743695817275</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.6874999999999998</v>
+        <v>-0.4755454911147479</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.2517985611510792</v>
+        <v>-0.0817746187196879</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.1528719789516859</v>
+        <v>-0.4261461256565348</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.2382772824493984</v>
+        <v>-0.009034908551595363</v>
       </c>
       <c r="AK21" t="n">
-        <v>-1.092896174863388</v>
+        <v>-0.8954287930410215</v>
       </c>
       <c r="AL21" t="n">
-        <v>4.164705882352941</v>
+        <v>0.9910368085721114</v>
       </c>
       <c r="AM21" t="n">
-        <v>-0.5099439061703209</v>
+        <v>-0.5362307378925096</v>
       </c>
       <c r="AN21" t="n">
-        <v>-0.1234567901234568</v>
+        <v>-0.1095735370713306</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.2904865649963693</v>
+        <v>0.3930113204131966</v>
       </c>
       <c r="AP21" t="n">
-        <v>-0.4410005872652236</v>
+        <v>-0.5148204591545508</v>
       </c>
       <c r="AQ21" t="n">
-        <v>-0.202429149797571</v>
+        <v>-0.247693131687961</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.4620416529190847</v>
+        <v>0.3513307266744009</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.6864406779661016</v>
+        <v>0.6237756403057061</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.7277103979711718</v>
+        <v>0.5540901457633979</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.7017543859649129</v>
+        <v>0.6398416110061688</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.351273591870115</v>
+        <v>0.4046053503639506</v>
       </c>
       <c r="AW21" t="n">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.083333333333333</v>
+        <v>-0.8488151745662359</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -3764,10 +3764,10 @@
         <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -3782,70 +3782,70 @@
         <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.142857142857111</v>
+        <v>0.4902964013300423</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.164179104477612</v>
+        <v>0.7763625785045176</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.352941176470588</v>
+        <v>0.9350690365578885</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.014084507042254</v>
+        <v>0.8975352640173683</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.256130128672007</v>
+        <v>0.9004769749209547</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.2124999999999998</v>
+        <v>-0.07560920522977806</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.4496402877697842</v>
+        <v>-0.5417544541097578</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.6660137120470129</v>
+        <v>0.7229033568465724</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.1153846153846153</v>
+        <v>-0.08450618986579013</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.2640275769124552</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.3058823529411765</v>
+        <v>0.03026752422890914</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.5507394186639465</v>
+        <v>0.5551135454945376</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.1214176927415866</v>
+        <v>0.1636939135262006</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.03722373134271511</v>
+        <v>0.1171327623572385</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.4203155153689989</v>
+        <v>0.5235119176587265</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.05668517766032637</v>
+        <v>0.0174398085660072</v>
       </c>
       <c r="AR22" t="n">
-        <v>2.036994214588914</v>
+        <v>0.9734787489614503</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.3728813559322034</v>
+        <v>0.3440340218047704</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.1455420795942343</v>
+        <v>0.1099926463759849</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.116959064327486</v>
+        <v>0.1450765621537243</v>
       </c>
       <c r="AV22" t="n">
-        <v>-0.3951827908538793</v>
+        <v>-0.2635022961479705</v>
       </c>
       <c r="AW22" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.9036666573739073</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -3915,10 +3915,10 @@
         <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>-2</v>
+        <v>-0.9548792538221945</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
@@ -3933,70 +3933,70 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB23" t="n">
-        <v>-1.333333333333333</v>
+        <v>-0.902686602636725</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.4477611940298508</v>
+        <v>-0.5098156208958911</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.4117647058823529</v>
+        <v>-0.5329414936614135</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.4225352112676056</v>
+        <v>-0.6467560491955991</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.1908230152949745</v>
+        <v>-0.3285642006916292</v>
       </c>
       <c r="AG23" t="n">
-        <v>6.849999999999998</v>
+        <v>0.9965472501557161</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.6294964028776978</v>
+        <v>0.1979146527375958</v>
       </c>
       <c r="AI23" t="n">
-        <v>-0.6366307541625851</v>
+        <v>-0.8521210239379293</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-0.346153846153846</v>
+        <v>-0.3530358961510878</v>
       </c>
       <c r="AK23" t="n">
-        <v>-0.06557377049180328</v>
+        <v>-0.202775417596332</v>
       </c>
       <c r="AL23" t="n">
-        <v>-0.6352941176470588</v>
+        <v>-0.5520156731914031</v>
       </c>
       <c r="AM23" t="n">
-        <v>-0.7751147373788879</v>
+        <v>-0.7187228190881511</v>
       </c>
       <c r="AN23" t="n">
-        <v>-0.3703703703703699</v>
+        <v>-0.3692047788001549</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.016702977487293</v>
+        <v>0.8535119408911825</v>
       </c>
       <c r="AP23" t="n">
-        <v>-1.864077510342147</v>
+        <v>-0.9857931362521319</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.202429149797571</v>
+        <v>0.1679250346101432</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.1584363398261053</v>
+        <v>0.02231304851946853</v>
       </c>
       <c r="AS23" t="n">
-        <v>-0.3898305084745763</v>
+        <v>-0.4985857819103386</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.1455420795942343</v>
+        <v>0.1099926463759849</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.6900584795321646</v>
+        <v>0.6325583611712711</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.08781839796752874</v>
+        <v>0.1804361793746644</v>
       </c>
       <c r="AW23" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2771635421220417</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -4066,10 +4066,10 @@
         <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W24" t="n">
         <v>1</v>
@@ -4084,70 +4084,70 @@
         <v>1</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.5714285714285656</v>
+        <v>0.1538859316630882</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1194029850746269</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6530935473076807</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>-0.1135923914979173</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.2053896576839039</v>
+        <v>-0.3447728866070443</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.6124999999999998</v>
+        <v>-0.4465830876644395</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.1798561151079137</v>
+        <v>-0.3840795185156133</v>
       </c>
       <c r="AI24" t="n">
-        <v>-0.07835455435847177</v>
+        <v>-0.3190707573473552</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-0.5769230769230768</v>
+        <v>-0.4707297454002921</v>
       </c>
       <c r="AK24" t="n">
-        <v>-0.3715846994535519</v>
+        <v>-0.5196737945279163</v>
       </c>
       <c r="AL24" t="n">
-        <v>-0.4470588235294118</v>
+        <v>-0.4549822165929853</v>
       </c>
       <c r="AM24" t="n">
-        <v>-0.6323304436511982</v>
+        <v>-0.6292352390462733</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.3703703703703705</v>
+        <v>0.41774597883327</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.435729847494554</v>
+        <v>0.5270665035623364</v>
       </c>
       <c r="AP24" t="n">
-        <v>-0.171769818034455</v>
+        <v>-0.2066446783819817</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.202429149797571</v>
+        <v>0.1679250346101432</v>
       </c>
       <c r="AR24" t="n">
-        <v>-0.5436509467014088</v>
+        <v>-0.6496386258644988</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.1864406779661017</v>
+        <v>0.1363199788081724</v>
       </c>
       <c r="AT24" t="n">
-        <v>0</v>
+        <v>-0.01801480157350374</v>
       </c>
       <c r="AU24" t="n">
-        <v>-0.1286549707602332</v>
+        <v>-0.110395981643581</v>
       </c>
       <c r="AV24" t="n">
-        <v>-0.4390919898376437</v>
+        <v>-0.3013344329436807</v>
       </c>
       <c r="AW24" t="n">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.1730960220394006</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4217,10 +4217,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W25" t="n">
         <v>1</v>
@@ -4235,70 +4235,70 @@
         <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>-1.428571428571394</v>
+        <v>-0.8273079885582806</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3912089831213507</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>-0.1178665531035008</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.05882352941176471</v>
+        <v>-0.1351071038832349</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.3098591549295774</v>
+        <v>-0.5333895729403388</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.672736100995386</v>
+        <v>0.9638564829118256</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.2875</v>
+        <v>0.4231671302050439</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.3363309352517984</v>
+        <v>-0.01872502467404986</v>
       </c>
       <c r="AI25" t="n">
-        <v>-0.2938295788442699</v>
+        <v>-0.5985006993565987</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-0.8999999999999997</v>
+        <v>-0.6106436095335636</v>
       </c>
       <c r="AK25" t="n">
-        <v>1.794535519125683</v>
+        <v>0.967077368611133</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.5223529411764707</v>
+        <v>0.1782104783820955</v>
       </c>
       <c r="AM25" t="n">
-        <v>-0.1937786843447218</v>
+        <v>-0.2296569288125834</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.6172839506172841</v>
+        <v>0.6184216170558257</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.073555812985896</v>
+        <v>0.159016394156696</v>
       </c>
       <c r="AP25" t="n">
-        <v>-0.9794621257267616</v>
+        <v>-0.8587258764496916</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.4048582995951419</v>
+        <v>0.3633785074093264</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.052174480243563</v>
+        <v>0.7766464397021003</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.0423728813559322</v>
+        <v>-0.03396205318836595</v>
       </c>
       <c r="AT25" t="n">
-        <v>-0.6258309422552073</v>
+        <v>-0.5156372026371359</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.9941520467836263</v>
+        <v>0.7871156403465638</v>
       </c>
       <c r="AV25" t="n">
-        <v>-0.9220931786590517</v>
+        <v>-0.6430098629210677</v>
       </c>
       <c r="AW25" t="n">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.666666666666667</v>
+        <v>-0.9974773041788961</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4368,10 +4368,10 @@
         <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W26" t="n">
         <v>1</v>
@@ -4386,70 +4386,70 @@
         <v>1</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.2857142857142828</v>
+        <v>-0.0355329564615389</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>-0.2165464576904686</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.432835820895522</v>
+        <v>0.8623875709269057</v>
       </c>
       <c r="AD26" t="n">
-        <v>-0.05882352941176471</v>
+        <v>-0.1351071038832349</v>
       </c>
       <c r="AE26" t="n">
-        <v>-0.7605633802816901</v>
+        <v>-0.8602213962688199</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.1448182794919727</v>
+        <v>0.07984794871485158</v>
       </c>
       <c r="AG26" t="n">
-        <v>-0.9624999999999997</v>
+        <v>-0.573083471933629</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.2287683198350233</v>
+        <v>-0.09886033918449329</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.5974534769833495</v>
+        <v>0.6635289596181596</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.8230769230769228</v>
+        <v>0.3373190658024327</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.5027322404371585</v>
+        <v>0.4478553275557165</v>
       </c>
       <c r="AL26" t="n">
-        <v>-0.5882352941176471</v>
+        <v>-0.5289586564474887</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.6425293217746048</v>
+        <v>0.6241144941983914</v>
       </c>
       <c r="AN26" t="n">
-        <v>-0.2469135802469131</v>
+        <v>-0.2437514247944342</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.016702977487293</v>
+        <v>0.8535119408911825</v>
       </c>
       <c r="AP26" t="n">
-        <v>-0.3640775103421466</v>
+        <v>-0.4353856395319994</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.6072874493927128</v>
+        <v>0.5313433406370583</v>
       </c>
       <c r="AR26" t="n">
-        <v>-0.1072183091302512</v>
+        <v>-0.272208032575985</v>
       </c>
       <c r="AS26" t="n">
-        <v>0</v>
+        <v>-0.08411385915100469</v>
       </c>
       <c r="AT26" t="n">
-        <v>-0.436626238782703</v>
+        <v>-0.3828419261010736</v>
       </c>
       <c r="AU26" t="n">
-        <v>-0.2807017543859647</v>
+        <v>-0.2635459899638111</v>
       </c>
       <c r="AV26" t="n">
-        <v>-0.8781839796752874</v>
+        <v>-0.6182517354395914</v>
       </c>
       <c r="AW26" t="n">
         <v>0</v>
@@ -4468,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.5833333333333334</v>
+        <v>-0.5323337997277721</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -4519,10 +4519,10 @@
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -4537,70 +4537,70 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.09629910126970252</v>
       </c>
       <c r="AC27" t="n">
-        <v>-1.074626865671642</v>
+        <v>-0.8287618877084135</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5566083073092197</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.154929577464789</v>
+        <v>0.9325930917571498</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.8045642146151977</v>
+        <v>0.7201766394718374</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>-0.1780682910454375</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.2517985611510792</v>
+        <v>-0.0817746187196879</v>
       </c>
       <c r="AI27" t="n">
-        <v>-0.3917727717923599</v>
+        <v>-0.6934302453342976</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-0.6999999999999997</v>
+        <v>-0.5275858465238127</v>
       </c>
       <c r="AK27" t="n">
-        <v>2.316939890710382</v>
+        <v>0.9905893382882232</v>
       </c>
       <c r="AL27" t="n">
-        <v>-0.9647058823529412</v>
+        <v>-0.6907136202513829</v>
       </c>
       <c r="AM27" t="n">
-        <v>-0.9280979092299843</v>
+        <v>-0.7937998094192921</v>
       </c>
       <c r="AN27" t="n">
-        <v>-0.1234567901234568</v>
+        <v>-0.1095735370713306</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.435729847494554</v>
+        <v>0.5270665035623364</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>0.01976099578639145</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>-0.04168729657875796</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.031301614968421</v>
+        <v>0.767069620506818</v>
       </c>
       <c r="AS27" t="n">
-        <v>-0.1440677966101695</v>
+        <v>-0.2500462409164235</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.2910841591884687</v>
+        <v>0.2344524164168463</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.567251461988305</v>
+        <v>0.9306692442924743</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.1317275969512931</v>
+        <v>0.2199007920286368</v>
       </c>
       <c r="AW27" t="n">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5</v>
+        <v>0.6822754766200587</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -4670,10 +4670,10 @@
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -4688,70 +4688,70 @@
         <v>1</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.428571428571394</v>
+        <v>0.6212981413423495</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.02985074626865672</v>
+        <v>-0.08857995232147474</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5566083073092197</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.5573273404021649</v>
       </c>
       <c r="AF28" t="n">
-        <v>-0.1325564457392571</v>
+        <v>-0.261848734742292</v>
       </c>
       <c r="AG28" t="n">
-        <v>-0.2999999999999999</v>
+        <v>-0.3159484289650613</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.528776978417266</v>
+        <v>0.1245724359052135</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.009794319294809145</v>
+        <v>-0.1812351095305713</v>
       </c>
       <c r="AJ28" t="n">
-        <v>-0.246153846153846</v>
+        <v>-0.2980071782922543</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.7868852459016393</v>
+        <v>0.6782327508480165</v>
       </c>
       <c r="AL28" t="n">
-        <v>-1.011764705882353</v>
+        <v>-0.707368288691111</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.1733809280979087</v>
+        <v>0.187813826829862</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>0.02872025393040882</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.5809731299927386</v>
+        <v>0.6391838496789171</v>
       </c>
       <c r="AP28" t="n">
-        <v>-0.01792366418830097</v>
+        <v>-0.004176463385384657</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.8097165991902838</v>
+        <v>0.6658538380169104</v>
       </c>
       <c r="AR28" t="n">
-        <v>0.4810169849873959</v>
+        <v>0.3700675164669673</v>
       </c>
       <c r="AS28" t="n">
-        <v>-0.3220338983050847</v>
+        <v>-0.4356762345357834</v>
       </c>
       <c r="AT28" t="n">
-        <v>-0.436626238782703</v>
+        <v>-0.3828419261010736</v>
       </c>
       <c r="AU28" t="n">
-        <v>-0.350877192982456</v>
+        <v>-0.3304479559204777</v>
       </c>
       <c r="AV28" t="n">
-        <v>-0.2634551939025862</v>
+        <v>-0.1454738364086136</v>
       </c>
       <c r="AW28" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.04461459224905492</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -4821,10 +4821,10 @@
         <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -4839,70 +4839,70 @@
         <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.2857142857142828</v>
+        <v>-0.3942989012316988</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.09629910126970252</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.208955223880597</v>
+        <v>0.08857995232147474</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.1764705882352941</v>
+        <v>-0.2809443638012873</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.6197183098591549</v>
+        <v>-0.7915828108848876</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.04734158776402</v>
+        <v>0.8374881790329359</v>
       </c>
       <c r="AG29" t="n">
-        <v>-0.8124999999999998</v>
+        <v>-0.5215931476712719</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.348920863309352</v>
+        <v>0.6283545351960452</v>
       </c>
       <c r="AI29" t="n">
-        <v>-0.8129285014691473</v>
+        <v>-0.9151855245003133</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.115384615384615</v>
+        <v>0.4861888585671278</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.4808743169398907</v>
+        <v>0.4264639909559467</v>
       </c>
       <c r="AL29" t="n">
-        <v>-0.5882352941176471</v>
+        <v>-0.5289586564474887</v>
       </c>
       <c r="AM29" t="n">
-        <v>-2.172361040285567</v>
+        <v>-0.9870887390878671</v>
       </c>
       <c r="AN29" t="n">
-        <v>-0.2469135802469131</v>
+        <v>-0.2437514247944342</v>
       </c>
       <c r="AO29" t="n">
-        <v>-0.1452432824981847</v>
+        <v>-0.09649650082628673</v>
       </c>
       <c r="AP29" t="n">
-        <v>-0.9410005872652232</v>
+        <v>-0.8446265745673719</v>
       </c>
       <c r="AQ29" t="n">
-        <v>-2.024291497975709</v>
+        <v>-0.9734436575356936</v>
       </c>
       <c r="AR29" t="n">
-        <v>0.1774116718944168</v>
+        <v>0.04382892460974419</v>
       </c>
       <c r="AS29" t="n">
-        <v>-0.01694915254237288</v>
+        <v>-0.1040700875170927</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.309878716348109</v>
+        <v>0.8137696871889707</v>
       </c>
       <c r="AU29" t="n">
-        <v>1.12280701754386</v>
+        <v>0.8331659659611385</v>
       </c>
       <c r="AV29" t="n">
-        <v>1.492912765447989</v>
+        <v>0.904826191539894</v>
       </c>
       <c r="AW29" t="n">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.08333333333333333</v>
+        <v>0.06501433184629341</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -4972,10 +4972,10 @@
         <v>1</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W30" t="n">
         <v>1</v>
@@ -4990,70 +4990,70 @@
         <v>1</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>-0.2165464576904686</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.1791044776119403</v>
+        <v>-0.2876867274308847</v>
       </c>
       <c r="AD30" t="n">
-        <v>-1</v>
+        <v>-0.8759489569867401</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.5352112676056338</v>
+        <v>-0.7372980322073519</v>
       </c>
       <c r="AF30" t="n">
-        <v>-1.142510318038359</v>
+        <v>-0.9113785954871659</v>
       </c>
       <c r="AG30" t="n">
-        <v>-0.3374999999999999</v>
+        <v>-0.3324088490964911</v>
       </c>
       <c r="AH30" t="n">
-        <v>-0.9118705035971223</v>
+        <v>-0.7408608307147451</v>
       </c>
       <c r="AI30" t="n">
-        <v>-0.6660137120470122</v>
+        <v>-0.8650234337295797</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.4330469320341198</v>
       </c>
       <c r="AK30" t="n">
-        <v>-1.049180327868853</v>
+        <v>-0.8844340462270753</v>
       </c>
       <c r="AL30" t="n">
-        <v>3.105882352941177</v>
+        <v>0.9617440925302104</v>
       </c>
       <c r="AM30" t="n">
-        <v>-1.642019377868434</v>
+        <v>-0.9567369097183206</v>
       </c>
       <c r="AN30" t="n">
-        <v>-1.48148148148148</v>
+        <v>-0.9269384434435077</v>
       </c>
       <c r="AO30" t="n">
-        <v>-2.323892519970955</v>
+        <v>-0.9902149007523033</v>
       </c>
       <c r="AP30" t="n">
-        <v>-0.4794621257267621</v>
+        <v>-0.5515723800424387</v>
       </c>
       <c r="AQ30" t="n">
-        <v>-1.619433198380568</v>
+        <v>-0.9392504996127384</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.5569183132606408</v>
+        <v>0.4419587423505959</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.9067796610169492</v>
+        <v>0.7586043406670921</v>
       </c>
       <c r="AT30" t="n">
-        <v>-2.619757432696218</v>
+        <v>-0.9812531209380604</v>
       </c>
       <c r="AU30" t="n">
-        <v>-2</v>
+        <v>-0.96856701331322</v>
       </c>
       <c r="AV30" t="n">
-        <v>-2.766279535977155</v>
+        <v>-0.9863527601552823</v>
       </c>
       <c r="AW30" t="n">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1.083333333333333</v>
+        <v>0.9219108004276781</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -5123,10 +5123,10 @@
         <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W31" t="n">
         <v>1</v>
@@ -5141,70 +5141,70 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.8571428571428281</v>
+        <v>-0.6630362378058202</v>
       </c>
       <c r="AB31" t="n">
-        <v>2.333333333333333</v>
+        <v>0.9637700671698922</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.373134328358209</v>
+        <v>0.8464163221338649</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.3116464903533236</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.9577464788732394</v>
+        <v>0.8791427844244397</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.0762320951687302</v>
+        <v>-0.006058581269976718</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.2749999999999999</v>
+        <v>-0.04506640193023425</v>
       </c>
       <c r="AH31" t="n">
-        <v>-0.1636690647482014</v>
+        <v>-0.373709979929917</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.7443682664054846</v>
+        <v>0.779729484515527</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.4076923076923076</v>
+        <v>0.09499744521485749</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.7540983606557377</v>
+        <v>0.6562296346184514</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.3020661536803954</v>
+        <v>0.02762788181346602</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.79500254971953</v>
+        <v>0.968173652604593</v>
       </c>
       <c r="AN31" t="n">
-        <v>-0.8641975308641967</v>
+        <v>-0.7363576292300933</v>
       </c>
       <c r="AO31" t="n">
-        <v>-0.06622079532615806</v>
+        <v>-0.003915132593063439</v>
       </c>
       <c r="AP31" t="n">
-        <v>-0.4794621257267621</v>
+        <v>-0.5515723800424387</v>
       </c>
       <c r="AQ31" t="n">
-        <v>-0.202429149797571</v>
+        <v>-0.247693131687961</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.129973341723639</v>
+        <v>0.8093626602119044</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.9491525423728814</v>
+        <v>0.7791710425009442</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.1164336636753871</v>
+        <v>0.08454591407964407</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.1637426900584802</v>
+        <v>0.1926147743781923</v>
       </c>
       <c r="AV31" t="n">
-        <v>0</v>
+        <v>0.09986285063007608</v>
       </c>
       <c r="AW31" t="n">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.4166666666666667</v>
+        <v>-0.3573942848683141</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -5274,10 +5274,10 @@
         <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -5292,70 +5292,70 @@
         <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.5714285714285656</v>
+        <v>0.1538859316630882</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.333333333333333</v>
+        <v>0.7804353215777061</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.7164179104477612</v>
+        <v>0.5313933961425944</v>
       </c>
       <c r="AD32" t="n">
-        <v>-1.058823529411765</v>
+        <v>-0.8925795621506905</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.5352112676056338</v>
+        <v>0.614651725350413</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.3568827385287691</v>
+        <v>0.3329684759588682</v>
       </c>
       <c r="AG32" t="n">
-        <v>-0.1750000000000001</v>
+        <v>-0.2597367964953627</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.8884892086330933</v>
+        <v>0.3750514024451786</v>
       </c>
       <c r="AI32" t="n">
-        <v>-0.04897159647404503</v>
+        <v>-0.2742878164509653</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.03846153846153845</v>
+        <v>-0.1313121543632792</v>
       </c>
       <c r="AK32" t="n">
-        <v>-0.4306010928961749</v>
+        <v>-0.569850539060999</v>
       </c>
       <c r="AL32" t="n">
-        <v>2.423529411764706</v>
+        <v>0.9044719387697917</v>
       </c>
       <c r="AM32" t="n">
-        <v>-0.2039775624681284</v>
+        <v>-0.2407802249860644</v>
       </c>
       <c r="AN32" t="n">
-        <v>-0.8641975308641967</v>
+        <v>-0.7363576292300933</v>
       </c>
       <c r="AO32" t="n">
-        <v>-0.05978644098537335</v>
+        <v>0.003647731648344162</v>
       </c>
       <c r="AP32" t="n">
-        <v>-1.479462125726762</v>
+        <v>-0.9608069486694363</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>-0.04168729657875796</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.8244704954238287</v>
+        <v>0.6517759988682075</v>
       </c>
       <c r="AS32" t="n">
-        <v>-0.09322033898305085</v>
+        <v>-0.1926198859136002</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.561540600858525</v>
+        <v>0.9777115164478479</v>
       </c>
       <c r="AU32" t="n">
-        <v>1.707602339181286</v>
+        <v>0.9478519884451292</v>
       </c>
       <c r="AV32" t="n">
-        <v>1.800277158334339</v>
+        <v>0.9453420341386831</v>
       </c>
       <c r="AW32" t="n">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2771635421220417</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -5425,10 +5425,10 @@
         <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -5443,70 +5443,70 @@
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.2857142857142828</v>
+        <v>-0.0355329564615389</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.6567164179104478</v>
+        <v>-0.6467609654732428</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.2941176470588235</v>
+        <v>-0.4148670072583338</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.05633802816901409</v>
+        <v>-0.1988168301693614</v>
       </c>
       <c r="AF33" t="n">
-        <v>-0.3340616654527798</v>
+        <v>-0.4784599138017659</v>
       </c>
       <c r="AG33" t="n">
-        <v>-0.7374999999999998</v>
+        <v>-0.4943021627979667</v>
       </c>
       <c r="AH33" t="n">
-        <v>-0.526978417266187</v>
+        <v>-0.5813402033952066</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.724779627815867</v>
+        <v>0.7665611943382241</v>
       </c>
       <c r="AJ33" t="n">
-        <v>-0.2669230769230769</v>
+        <v>-0.3096155122781031</v>
       </c>
       <c r="AK33" t="n">
-        <v>-0.4721311475409836</v>
+        <v>-0.602811677501118</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.1129411764705882</v>
+        <v>-0.1029257175265916</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.6721060683324825</v>
+        <v>0.6445180018597396</v>
       </c>
       <c r="AN33" t="n">
-        <v>-0.8395061728395053</v>
+        <v>-0.7233933376032209</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.2323892519970946</v>
+        <v>0.3337738523605254</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.5205378742732379</v>
+        <v>0.6138207707852511</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.6477732793522247</v>
+        <v>0.5609810062858673</v>
       </c>
       <c r="AR33" t="n">
-        <v>-0.133783774025887</v>
+        <v>-0.2998942429055012</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.372881355932203</v>
+        <v>0.9132288617750185</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.7859272298088652</v>
+        <v>0.5886821054193684</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.7602339181286554</v>
+        <v>0.6745717276192624</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.9220931786590517</v>
+        <v>0.7459147850195997</v>
       </c>
       <c r="AW33" t="n">
         <v>0</v>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.25</v>
+        <v>-0.8998440634279272</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -5576,10 +5576,10 @@
         <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W34" t="n">
         <v>1</v>
@@ -5594,70 +5594,70 @@
         <v>1</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.6927823969143417</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.6268656716417911</v>
+        <v>-0.6292092367087845</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>-0.05948361787961182</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.6197183098591549</v>
+        <v>-0.7915828108848876</v>
       </c>
       <c r="AF34" t="n">
-        <v>-0.6239378489924737</v>
+        <v>-0.7088084299414943</v>
       </c>
       <c r="AG34" t="n">
-        <v>-0.3749999999999999</v>
+        <v>-0.3486692250159327</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.8219424460431655</v>
+        <v>-0.7089742701287273</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.5876591576885404</v>
+        <v>0.6542649628162956</v>
       </c>
       <c r="AJ34" t="n">
-        <v>-0.5307692307692307</v>
+        <v>-0.4483134226275734</v>
       </c>
       <c r="AK34" t="n">
-        <v>-0.4983606557377049</v>
+        <v>-0.6226303442015922</v>
       </c>
       <c r="AL34" t="n">
-        <v>-0.611764705882353</v>
+        <v>-0.5405886706778195</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.3365629780724123</v>
+        <v>0.3613770714336144</v>
       </c>
       <c r="AN34" t="n">
-        <v>-0.8641975308641967</v>
+        <v>-0.7363576292300933</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.1597676107480023</v>
+        <v>0.2558944684862876</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.2513071050424693</v>
+        <v>0.3411790593784771</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.36437246963563</v>
+        <v>0.3261594682791041</v>
       </c>
       <c r="AR34" t="n">
-        <v>-1.302664229433857</v>
+        <v>-0.9269512918468055</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.2033898305084746</v>
+        <v>0.1560242396529295</v>
       </c>
       <c r="AT34" t="n">
-        <v>-0.1746504955130816</v>
+        <v>-0.1704831344438959</v>
       </c>
       <c r="AU34" t="n">
-        <v>-0.2923976608187129</v>
+        <v>-0.2748949210286804</v>
       </c>
       <c r="AV34" t="n">
-        <v>0</v>
+        <v>0.09986285063007608</v>
       </c>
       <c r="AW34" t="n">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.083333333333333</v>
+        <v>-0.8488151745662359</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -5727,10 +5727,10 @@
         <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -5745,70 +5745,70 @@
         <v>1</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.2857142857142828</v>
+        <v>-0.0355329564615389</v>
       </c>
       <c r="AB35" t="n">
-        <v>-1</v>
+        <v>-0.8242447622791134</v>
       </c>
       <c r="AC35" t="n">
-        <v>-1.253731343283582</v>
+        <v>-0.8768087720084016</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.2352941176470588</v>
+        <v>-0.3496908133210052</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.8188909886980313</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.4326292789512015</v>
+        <v>0.4146605824026133</v>
       </c>
       <c r="AG35" t="n">
-        <v>12.43749999999999</v>
+        <v>0.9999856003298986</v>
       </c>
       <c r="AH35" t="n">
-        <v>-0.2661870503597123</v>
+        <v>-0.437724186482528</v>
       </c>
       <c r="AI35" t="n">
-        <v>-0.06856023506366263</v>
+        <v>-0.3042891554110834</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.6615384615384615</v>
+        <v>0.2464169033310277</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.1617486338797816</v>
+        <v>0.0693191835455057</v>
       </c>
       <c r="AL35" t="n">
-        <v>-0.7058823529411765</v>
+        <v>-0.5850734254503411</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.08159102498725178</v>
+        <v>0.08389806828419487</v>
       </c>
       <c r="AN35" t="n">
-        <v>-0.444444444444444</v>
+        <v>-0.4388035686613786</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.5954974582425563</v>
+        <v>0.6491709176207842</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.5205378742732379</v>
+        <v>0.6138207707852511</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.6477732793522247</v>
+        <v>0.5609810062858673</v>
       </c>
       <c r="AR35" t="n">
-        <v>-0.3045617626406878</v>
+        <v>-0.4646816695634394</v>
       </c>
       <c r="AS35" t="n">
-        <v>-0.635593220338983</v>
+        <v>-0.685481829580125</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.4948430706203966</v>
+        <v>0.3958637026112229</v>
       </c>
       <c r="AU35" t="n">
-        <v>0.5614035087719303</v>
+        <v>0.5448826564020907</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.6586379847564655</v>
+        <v>0.6150302032849019</v>
       </c>
       <c r="AW35" t="n">
         <v>0</v>
@@ -5827,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.75</v>
+        <v>-0.6711852882635027</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -5878,10 +5878,10 @@
         <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W36" t="n">
         <v>1</v>
@@ -5896,70 +5896,70 @@
         <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>-1.428571428571394</v>
+        <v>-0.8273079885582806</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>-0.2165464576904686</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>-0.1178665531035008</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.4423403497896404</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.8188909886980313</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.2282107307598931</v>
+        <v>0.182606124050458</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.02500000000000002</v>
+        <v>-0.1661690018409675</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.03597122302158276</v>
+        <v>-0.2887574185743682</v>
       </c>
       <c r="AI36" t="n">
-        <v>1.18511263467189</v>
+        <v>0.9448502334453581</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.06153846153846158</v>
+        <v>-0.1173220393404955</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.5267759562841529</v>
+        <v>0.4708070541699202</v>
       </c>
       <c r="AL36" t="n">
-        <v>1.223529411764706</v>
+        <v>0.5820387818936081</v>
       </c>
       <c r="AM36" t="n">
-        <v>1.36664966853646</v>
+        <v>0.9166649723008087</v>
       </c>
       <c r="AN36" t="n">
-        <v>-0.3703703703703699</v>
+        <v>-0.3692047788001549</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.8714596949891079</v>
+        <v>0.7998618710845572</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.7128455665809296</v>
+        <v>0.7495328886089965</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.821862348178138</v>
+        <v>0.95262968244643</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.547430647226485</v>
+        <v>0.4332512007445125</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.1355932203389831</v>
+        <v>0.07661793454061028</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.44086658798292</v>
+        <v>0.8493178837279671</v>
       </c>
       <c r="AU36" t="n">
-        <v>0.5263157894736844</v>
+        <v>0.5185585372151976</v>
       </c>
       <c r="AV36" t="n">
-        <v>1.273366770529167</v>
+        <v>0.8598134965214176</v>
       </c>
       <c r="AW36" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.666666666666667</v>
+        <v>-0.9654239740074001</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -6029,10 +6029,10 @@
         <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W37" t="n">
         <v>1</v>
@@ -6047,70 +6047,70 @@
         <v>1</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.09629910126970252</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.5671641791044776</v>
+        <v>0.4170071127495377</v>
       </c>
       <c r="AD37" t="n">
-        <v>1.411764705882353</v>
+        <v>0.9440104035090839</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.6197183098591549</v>
+        <v>0.6897543021824876</v>
       </c>
       <c r="AF37" t="n">
-        <v>1.120174799708667</v>
+        <v>0.8627772341995464</v>
       </c>
       <c r="AG37" t="n">
-        <v>-0.2999999999999999</v>
+        <v>-0.3159484289650613</v>
       </c>
       <c r="AH37" t="n">
-        <v>1.865107913669065</v>
+        <v>0.8092326125366541</v>
       </c>
       <c r="AI37" t="n">
-        <v>-0.7933398628795293</v>
+        <v>-0.9097042641303488</v>
       </c>
       <c r="AJ37" t="n">
-        <v>-0.3076923076923076</v>
+        <v>-0.3321335011328141</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.6008842789463038</v>
+        <v>0.5376018032644788</v>
       </c>
       <c r="AL37" t="n">
-        <v>-0.4423529411764705</v>
+        <v>-0.452395013801789</v>
       </c>
       <c r="AM37" t="n">
-        <v>-0.3467618561958181</v>
+        <v>-0.3888556897153167</v>
       </c>
       <c r="AN37" t="n">
-        <v>-0.2222222222222217</v>
+        <v>-0.2174804765519554</v>
       </c>
       <c r="AO37" t="n">
-        <v>-0.6826434277414682</v>
+        <v>-0.6221189270802223</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.6743840281193919</v>
+        <v>0.7261416262728273</v>
       </c>
       <c r="AQ37" t="n">
-        <v>-0.9311740890688252</v>
+        <v>-0.7671751400291893</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.3975255238868267</v>
+        <v>0.2855589005399506</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.01694915254237288</v>
+        <v>-0.06408992761743795</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.2910841591884687</v>
+        <v>0.2344524164168463</v>
       </c>
       <c r="AU37" t="n">
-        <v>-0.3976608187134502</v>
+        <v>-0.3733197280345735</v>
       </c>
       <c r="AV37" t="n">
-        <v>-0.1317275969512931</v>
+        <v>-0.02315408863159741</v>
       </c>
       <c r="AW37" t="n">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.619139542494697</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -6180,10 +6180,10 @@
         <v>1</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -6198,70 +6198,70 @@
         <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.8571428571428281</v>
+        <v>-0.6630362378058202</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.6927823969143417</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.2686567164179104</v>
+        <v>-0.3669164464584096</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.5882352941176471</v>
+        <v>-0.6769149567218998</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.2816901408450704</v>
+        <v>-0.5013912193094133</v>
       </c>
       <c r="AF38" t="n">
-        <v>-0.6753580966253944</v>
+        <v>-0.7394743598187692</v>
       </c>
       <c r="AG38" t="n">
-        <v>1.662499999999999</v>
+        <v>0.5618173157391453</v>
       </c>
       <c r="AH38" t="n">
-        <v>-0.3705035971223021</v>
+        <v>-0.4985999384264318</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.6092066601371208</v>
+        <v>0.6743830851377378</v>
       </c>
       <c r="AJ38" t="n">
-        <v>-0.313076923076923</v>
+        <v>-0.3350801463656424</v>
       </c>
       <c r="AK38" t="n">
-        <v>-0.5066666666666667</v>
+        <v>-0.6287458729942071</v>
       </c>
       <c r="AL38" t="n">
-        <v>-0.584235294117647</v>
+        <v>-0.5269614239243412</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.1550229474757779</v>
+        <v>0.1672879538497488</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.1728395061728396</v>
+        <v>0.2193459728256311</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.4749455337690632</v>
+        <v>0.5595435304204437</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.9051532588886229</v>
+        <v>0.842215608496764</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.01417004048582859</v>
+        <v>-0.02691801274425493</v>
       </c>
       <c r="AR38" t="n">
-        <v>-0.0351120472706688</v>
+        <v>-0.1948695516031566</v>
       </c>
       <c r="AS38" t="n">
-        <v>-0.4661016949152542</v>
+        <v>-0.5635571322606843</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.1164336636753871</v>
+        <v>0.08454591407964407</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.432748538011696</v>
+        <v>0.4434188486362166</v>
       </c>
       <c r="AV38" t="n">
-        <v>-0.08781839796752874</v>
+        <v>0.01795818899248047</v>
       </c>
       <c r="AW38" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2771635421220417</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -6331,10 +6331,10 @@
         <v>1</v>
       </c>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W39" t="n">
         <v>1</v>
@@ -6349,70 +6349,70 @@
         <v>1</v>
       </c>
       <c r="AA39" t="n">
-        <v>3.14285714285707</v>
+        <v>0.9536949524570214</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.2985074626865671</v>
+        <v>-0.3922525295685405</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.501659394194979</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.6197183098591549</v>
+        <v>0.6897543021824876</v>
       </c>
       <c r="AF39" t="n">
-        <v>-0.3330905559601846</v>
+        <v>-0.4775196087017595</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.08750000000000005</v>
+        <v>-0.1362154636785882</v>
       </c>
       <c r="AH39" t="n">
-        <v>-0.6294964028776978</v>
+        <v>-0.629850545460046</v>
       </c>
       <c r="AI39" t="n">
-        <v>-0.02938295788442674</v>
+        <v>-0.2437428710947405</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.3923076923076923</v>
+        <v>0.08560144732642748</v>
       </c>
       <c r="AK39" t="n">
-        <v>-0.6426229508196721</v>
+        <v>-0.7181644018308876</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>-0.1795114312402031</v>
       </c>
       <c r="AM39" t="n">
-        <v>0.09178990311065761</v>
+        <v>0.09557803411543467</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.444444444444444</v>
+        <v>0.4840073368137778</v>
       </c>
       <c r="AO39" t="n">
-        <v>-0.9731299927378376</v>
+        <v>-0.7894200129623113</v>
       </c>
       <c r="AP39" t="n">
-        <v>-0.01792366418830097</v>
+        <v>-0.004176463385384657</v>
       </c>
       <c r="AQ39" t="n">
-        <v>-0.9109311740890692</v>
+        <v>-0.7583419053541581</v>
       </c>
       <c r="AR39" t="n">
-        <v>0.4753243853669023</v>
+        <v>0.3644771263971116</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.127118644067797</v>
+        <v>0.9849997150838926</v>
       </c>
       <c r="AT39" t="n">
-        <v>-0.1309878716348107</v>
+        <v>-0.13283762946052</v>
       </c>
       <c r="AU39" t="n">
-        <v>-0.4210526315789472</v>
+        <v>-0.3941862589094788</v>
       </c>
       <c r="AV39" t="n">
-        <v>-0.2195459949188218</v>
+        <v>-0.1050064035424256</v>
       </c>
       <c r="AW39" t="n">
         <v>0</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2771635421220417</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -6482,10 +6482,10 @@
         <v>1</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -6500,70 +6500,70 @@
         <v>1</v>
       </c>
       <c r="AA40" t="n">
-        <v>3.14285714285707</v>
+        <v>0.9536949524570214</v>
       </c>
       <c r="AB40" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC40" t="n">
-        <v>-0.2985074626865671</v>
+        <v>-0.3922525295685405</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.501659394194979</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.6197183098591549</v>
+        <v>0.6897543021824876</v>
       </c>
       <c r="AF40" t="n">
-        <v>-0.3330905559601846</v>
+        <v>-0.4775196087017595</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.08750000000000005</v>
+        <v>-0.1362154636785882</v>
       </c>
       <c r="AH40" t="n">
-        <v>-0.6294964028776978</v>
+        <v>-0.629850545460046</v>
       </c>
       <c r="AI40" t="n">
-        <v>-0.02938295788442674</v>
+        <v>-0.2437428710947405</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.3923076923076923</v>
+        <v>0.08560144732642748</v>
       </c>
       <c r="AK40" t="n">
-        <v>-0.6426229508196721</v>
+        <v>-0.7181644018308876</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>-0.1795114312402031</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.09178990311065761</v>
+        <v>0.09557803411543467</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.444444444444444</v>
+        <v>0.4840073368137778</v>
       </c>
       <c r="AO40" t="n">
-        <v>-0.9731299927378376</v>
+        <v>-0.7894200129623113</v>
       </c>
       <c r="AP40" t="n">
-        <v>-0.01792366418830097</v>
+        <v>-0.004176463385384657</v>
       </c>
       <c r="AQ40" t="n">
-        <v>-0.9109311740890692</v>
+        <v>-0.7583419053541581</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.4753243853669023</v>
+        <v>0.3644771263971116</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.127118644067797</v>
+        <v>0.9849997150838926</v>
       </c>
       <c r="AT40" t="n">
-        <v>-0.1309878716348107</v>
+        <v>-0.13283762946052</v>
       </c>
       <c r="AU40" t="n">
-        <v>-0.4210526315789472</v>
+        <v>-0.3941862589094788</v>
       </c>
       <c r="AV40" t="n">
-        <v>-0.2195459949188218</v>
+        <v>-0.1050064035424256</v>
       </c>
       <c r="AW40" t="n">
         <v>0</v>
@@ -6582,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.25</v>
+        <v>0.465341549799722</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -6633,10 +6633,10 @@
         <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -6651,70 +6651,70 @@
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.09629910126970252</v>
       </c>
       <c r="AC41" t="n">
-        <v>-0.05970149253731343</v>
+        <v>-0.1757806578908429</v>
       </c>
       <c r="AD41" t="n">
-        <v>-0.4117647058823529</v>
+        <v>-0.5329414936614135</v>
       </c>
       <c r="AE41" t="n">
-        <v>-0.3661971830985916</v>
+        <v>-0.5930036826036368</v>
       </c>
       <c r="AF41" t="n">
-        <v>-0.04030104394270459</v>
+        <v>-0.1511429865632148</v>
       </c>
       <c r="AG41" t="n">
-        <v>-1.599999999999999</v>
+        <v>-0.7464111282763416</v>
       </c>
       <c r="AH41" t="n">
-        <v>1.690647482014388</v>
+        <v>0.7591919254059345</v>
       </c>
       <c r="AI41" t="n">
-        <v>-0.1175318315377077</v>
+        <v>-0.3766090176447586</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.6615384615384615</v>
+        <v>0.2464169033310277</v>
       </c>
       <c r="AK41" t="n">
-        <v>-0.02185792349726776</v>
+        <v>-0.1515533714526629</v>
       </c>
       <c r="AL41" t="n">
-        <v>-0.5694117647058824</v>
+        <v>-0.5195090576866166</v>
       </c>
       <c r="AM41" t="n">
-        <v>-1.111677715451299</v>
+        <v>-0.8600588342274891</v>
       </c>
       <c r="AN41" t="n">
-        <v>-0.1234567901234568</v>
+        <v>-0.1095735370713306</v>
       </c>
       <c r="AO41" t="n">
-        <v>-2.440087145969502</v>
+        <v>-0.9925450223248289</v>
       </c>
       <c r="AP41" t="n">
-        <v>-0.7486928949575316</v>
+        <v>-0.7531703082896906</v>
       </c>
       <c r="AQ41" t="n">
-        <v>-0.04048582995951189</v>
+        <v>-0.08376317771287614</v>
       </c>
       <c r="AR41" t="n">
-        <v>1.308341463165764</v>
+        <v>0.8686755381461133</v>
       </c>
       <c r="AS41" t="n">
-        <v>-1.271186440677966</v>
+        <v>-0.9208291201162052</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.135228220835028</v>
+        <v>0.7547672131230451</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.7017543859649129</v>
+        <v>0.6398416110061688</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.4830011888214081</v>
+        <v>0.5023905461366572</v>
       </c>
       <c r="AW41" t="n">
         <v>0</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2771635421220417</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -6784,10 +6784,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -6802,70 +6802,70 @@
         <v>1</v>
       </c>
       <c r="AA42" t="n">
-        <v>-0.5714285714285656</v>
+        <v>-0.5423975769998567</v>
       </c>
       <c r="AB42" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC42" t="n">
-        <v>-0.208955223880597</v>
+        <v>-0.3146037065140372</v>
       </c>
       <c r="AD42" t="n">
-        <v>-1.117647058823529</v>
+        <v>-0.907091046315701</v>
       </c>
       <c r="AE42" t="n">
-        <v>-0.4507042253521127</v>
+        <v>-0.6714669012237792</v>
       </c>
       <c r="AF42" t="n">
-        <v>-0.815246419033746</v>
+        <v>-0.809259994354214</v>
       </c>
       <c r="AG42" t="n">
-        <v>1.224999999999999</v>
+        <v>0.3976773365098486</v>
       </c>
       <c r="AH42" t="n">
-        <v>-0.5719424460431654</v>
+        <v>-0.6031717587285975</v>
       </c>
       <c r="AI42" t="n">
-        <v>-0.6170421155729672</v>
+        <v>-0.8428984494148939</v>
       </c>
       <c r="AJ42" t="n">
-        <v>-0.5076923076923076</v>
+        <v>-0.4368874196011611</v>
       </c>
       <c r="AK42" t="n">
-        <v>-1.005464480874317</v>
+        <v>-0.8723611435999679</v>
       </c>
       <c r="AL42" t="n">
-        <v>-0.863529411764706</v>
+        <v>-0.6522916815947428</v>
       </c>
       <c r="AM42" t="n">
-        <v>-0.8159102498725135</v>
+        <v>-0.7407312891018467</v>
       </c>
       <c r="AN42" t="n">
-        <v>-1.345679012345678</v>
+        <v>-0.9021356205411885</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.1016702977487297</v>
+        <v>0.1910464190398856</v>
       </c>
       <c r="AP42" t="n">
-        <v>-0.5948467411113776</v>
+        <v>-0.6496852678288053</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.65991902834008</v>
+        <v>0.9342076185370777</v>
       </c>
       <c r="AR42" t="n">
-        <v>-1.000956449547709</v>
+        <v>-0.8601168791423554</v>
       </c>
       <c r="AS42" t="n">
-        <v>-1.296610169491526</v>
+        <v>-0.9252965637467109</v>
       </c>
       <c r="AT42" t="n">
-        <v>-2.255902233710632</v>
+        <v>-0.9646640752210464</v>
       </c>
       <c r="AU42" t="n">
-        <v>-2.339181286549707</v>
+        <v>-0.9844168328367343</v>
       </c>
       <c r="AV42" t="n">
-        <v>-2.371096745123276</v>
+        <v>-0.9716049374947973</v>
       </c>
       <c r="AW42" t="n">
         <v>0</v>
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5</v>
+        <v>0.6822754766200587</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -6935,10 +6935,10 @@
         <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W43" t="n">
         <v>1</v>
@@ -6953,70 +6953,70 @@
         <v>1</v>
       </c>
       <c r="AA43" t="n">
-        <v>-0.5714285714285656</v>
+        <v>-0.5423975769998567</v>
       </c>
       <c r="AB43" t="n">
-        <v>2.333333333333333</v>
+        <v>0.9637700671698922</v>
       </c>
       <c r="AC43" t="n">
-        <v>1.014925373134328</v>
+        <v>0.7104675237149803</v>
       </c>
       <c r="AD43" t="n">
-        <v>-0.4117647058823529</v>
+        <v>-0.5329414936614135</v>
       </c>
       <c r="AE43" t="n">
-        <v>-0.7887323943661971</v>
+        <v>-0.8711677284255193</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.01068220441854813</v>
+        <v>-0.08809603250007969</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.1249999999999998</v>
+        <v>-0.1181193603719403</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.1205035971223021</v>
+        <v>-0.1782421593333238</v>
       </c>
       <c r="AI43" t="n">
-        <v>-0.9598432908912824</v>
+        <v>-0.9472330360838036</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.2153846153846154</v>
+        <v>-0.02312754386383185</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.478688524590164</v>
+        <v>0.4242977931105359</v>
       </c>
       <c r="AL43" t="n">
-        <v>5.468235294117647</v>
+        <v>0.9985199480939626</v>
       </c>
       <c r="AM43" t="n">
-        <v>-0.7751147373788879</v>
+        <v>-0.7187228190881511</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.6666666666666669</v>
+        <v>0.6515241902519162</v>
       </c>
       <c r="AO43" t="n">
-        <v>-0.5374001452432836</v>
+        <v>-0.5062960455504741</v>
       </c>
       <c r="AP43" t="n">
-        <v>-0.2102313564959926</v>
+        <v>-0.2552639350090567</v>
       </c>
       <c r="AQ43" t="n">
-        <v>-1.680161943319841</v>
+        <v>-0.9462880253708201</v>
       </c>
       <c r="AR43" t="n">
-        <v>3.52086518233085</v>
+        <v>0.9990750956736337</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.03648182405414582</v>
       </c>
       <c r="AT43" t="n">
-        <v>-1.01879455715964</v>
+        <v>-0.7245750138745853</v>
       </c>
       <c r="AU43" t="n">
-        <v>-0.8187134502923974</v>
+        <v>-0.6819602982096858</v>
       </c>
       <c r="AV43" t="n">
-        <v>-0.8781839796752874</v>
+        <v>-0.6182517354395914</v>
       </c>
       <c r="AW43" t="n">
         <v>0</v>
@@ -7035,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2771635421220417</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -7086,10 +7086,10 @@
         <v>1</v>
       </c>
       <c r="U44" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W44" t="n">
         <v>1</v>
@@ -7104,70 +7104,70 @@
         <v>1</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.2857142857142828</v>
+        <v>-0.0355329564615389</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.09629910126970252</v>
       </c>
       <c r="AC44" t="n">
-        <v>1.91044776119403</v>
+        <v>0.9442908993521416</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5566083073092197</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>-0.1135923914979173</v>
       </c>
       <c r="AF44" t="n">
-        <v>-1.053653799465889</v>
+        <v>-0.8904483753241902</v>
       </c>
       <c r="AG44" t="n">
-        <v>1.45</v>
+        <v>0.4863371615414976</v>
       </c>
       <c r="AH44" t="n">
-        <v>-0.5899280575539568</v>
+        <v>-0.6116611179427209</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.9500489715964739</v>
+        <v>0.8828411448124442</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0.9615384615384612</v>
+        <v>0.4105928839314394</v>
       </c>
       <c r="AK44" t="n">
-        <v>-0.273224043715847</v>
+        <v>-0.4275364586321215</v>
       </c>
       <c r="AL44" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.4018137377605758</v>
       </c>
       <c r="AM44" t="n">
-        <v>0</v>
+        <v>-0.01010331518450723</v>
       </c>
       <c r="AN44" t="n">
-        <v>0.6172839506172841</v>
+        <v>0.6184216170558257</v>
       </c>
       <c r="AO44" t="n">
-        <v>-0.1016702977487297</v>
+        <v>-0.0455507359768841</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.9436147973501605</v>
+        <v>0.856516674710473</v>
       </c>
       <c r="AQ44" t="n">
-        <v>-1.417004048582997</v>
+        <v>-0.9087685246051648</v>
       </c>
       <c r="AR44" t="n">
-        <v>0.2684932658223103</v>
+        <v>0.146195204327607</v>
       </c>
       <c r="AS44" t="n">
-        <v>-0.03389830508474576</v>
+        <v>-0.1239428666584866</v>
       </c>
       <c r="AT44" t="n">
-        <v>-0.1018794557159644</v>
+        <v>-0.1075188917102919</v>
       </c>
       <c r="AU44" t="n">
-        <v>-0.1052631578947367</v>
+        <v>-0.08616167033358199</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.08781839796752874</v>
+        <v>0.1804361793746644</v>
       </c>
       <c r="AW44" t="n">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.9166666666666666</v>
+        <v>-0.7748682295487168</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -7237,10 +7237,10 @@
         <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W45" t="n">
         <v>1</v>
@@ -7255,70 +7255,70 @@
         <v>1</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB45" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.1791044776119403</v>
+        <v>-0.2876867274308847</v>
       </c>
       <c r="AD45" t="n">
-        <v>-0.9411764705882353</v>
+        <v>-0.8569382616401012</v>
       </c>
       <c r="AE45" t="n">
-        <v>-0.4225352112676056</v>
+        <v>-0.6467560491955991</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.5195435785384801</v>
+        <v>0.5007492142443722</v>
       </c>
       <c r="AG45" t="n">
-        <v>2.824999999999999</v>
+        <v>0.8353855266391768</v>
       </c>
       <c r="AH45" t="n">
-        <v>-0.4010791366906475</v>
+        <v>-0.5155881631967234</v>
       </c>
       <c r="AI45" t="n">
-        <v>-0.2938295788442699</v>
+        <v>-0.5985006993565987</v>
       </c>
       <c r="AJ45" t="n">
-        <v>11.65384615384615</v>
+        <v>0.9999984030419768</v>
       </c>
       <c r="AK45" t="n">
-        <v>-0.6622950819672131</v>
+        <v>-0.72949489183673</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
+        <v>-0.1795114312402031</v>
       </c>
       <c r="AM45" t="n">
-        <v>1.805201427842936</v>
+        <v>0.9689028843245994</v>
       </c>
       <c r="AN45" t="n">
-        <v>-1.950617283950616</v>
+        <v>-0.9739258504409131</v>
       </c>
       <c r="AO45" t="n">
-        <v>0.8569353667392903</v>
+        <v>0.7936277261557734</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.5205378742732379</v>
+        <v>0.6138207707852511</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.072874493927128</v>
+        <v>0.7924086773986406</v>
       </c>
       <c r="AR45" t="n">
-        <v>-0.8567439258285436</v>
+        <v>-0.8110492562012519</v>
       </c>
       <c r="AS45" t="n">
-        <v>-1</v>
+        <v>-0.8544167998359136</v>
       </c>
       <c r="AT45" t="n">
-        <v>-3.041829463519498</v>
+        <v>-0.9910565885626132</v>
       </c>
       <c r="AU45" t="n">
-        <v>-2.865497076023392</v>
+        <v>-0.9947921374194092</v>
       </c>
       <c r="AV45" t="n">
-        <v>-3.161462326831034</v>
+        <v>-0.99346624498799</v>
       </c>
       <c r="AW45" t="n">
         <v>0</v>
@@ -7337,7 +7337,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.619139542494697</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -7388,10 +7388,10 @@
         <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
@@ -7406,70 +7406,70 @@
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.5714285714285656</v>
+        <v>0.1538859316630882</v>
       </c>
       <c r="AB46" t="n">
-        <v>4.333333333333333</v>
+        <v>0.9991745156641393</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>-0.1178665531035008</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7321951141686012</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.5352112676056338</v>
+        <v>0.614651725350413</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>-0.1013818672305346</v>
       </c>
       <c r="AG46" t="n">
-        <v>-0.3249999999999999</v>
+        <v>-0.3269439021739141</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.0179856115107913</v>
+        <v>-0.2763785422306995</v>
       </c>
       <c r="AI46" t="n">
-        <v>-0.009794319294808449</v>
+        <v>-0.2127065986140573</v>
       </c>
       <c r="AJ46" t="n">
-        <v>-0.223076923076923</v>
+        <v>-0.2850049838032647</v>
       </c>
       <c r="AK46" t="n">
-        <v>-0.4546448087431693</v>
+        <v>-0.5891700679355776</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.1411764705882353</v>
+        <v>-0.08354969774284778</v>
       </c>
       <c r="AM46" t="n">
-        <v>-0.5507394186639465</v>
+        <v>-0.5689370129944274</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.6172839506172841</v>
+        <v>0.6184216170558257</v>
       </c>
       <c r="AO46" t="n">
-        <v>0.8714596949891079</v>
+        <v>0.7998618710845572</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.443614797350162</v>
+        <v>0.9601598441026226</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.032388663967611</v>
+        <v>0.7761540159630406</v>
       </c>
       <c r="AR46" t="n">
-        <v>-0.7922277967962854</v>
+        <v>-0.7844555459084448</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.8559322033898306</v>
+        <v>0.7317637043125058</v>
       </c>
       <c r="AT46" t="n">
-        <v>-0.2474215353101988</v>
+        <v>-0.2320852715107609</v>
       </c>
       <c r="AU46" t="n">
-        <v>-0.116959064327485</v>
+        <v>-0.09829339873726226</v>
       </c>
       <c r="AV46" t="n">
-        <v>-0.6586379847564655</v>
+        <v>-0.475054897534686</v>
       </c>
       <c r="AW46" t="n">
         <v>0</v>
@@ -7488,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.2581684061764928</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -7539,10 +7539,10 @@
         <v>1</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>0.985948068800665</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W47" t="n">
         <v>1</v>
@@ -7557,70 +7557,70 @@
         <v>1</v>
       </c>
       <c r="AA47" t="n">
-        <v>-0.5714285714285656</v>
+        <v>-0.5423975769998567</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3912089831213507</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>-0.1178665531035008</v>
       </c>
       <c r="AD47" t="n">
-        <v>-0.4117647058823529</v>
+        <v>-0.5329414936614135</v>
       </c>
       <c r="AE47" t="n">
-        <v>-0.5633802816901409</v>
+        <v>-0.7566112299183049</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.9987861131342556</v>
+        <v>0.8183376081764873</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.3124999999999999</v>
+        <v>-0.02669650448948836</v>
       </c>
       <c r="AH47" t="n">
-        <v>1.293165467625899</v>
+        <v>0.6024520177905019</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.4603330068560236</v>
+        <v>0.515268810300603</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.8999999999999997</v>
+        <v>0.378605543174554</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.02185792349726776</v>
+        <v>-0.09950422625733786</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.6588235294117647</v>
+        <v>0.2679082635082053</v>
       </c>
       <c r="AM47" t="n">
-        <v>-0.1631820499745028</v>
+        <v>-0.1959357184675428</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.2469135802469131</v>
+        <v>0.2969898035100589</v>
       </c>
       <c r="AO47" t="n">
-        <v>-0.435729847494554</v>
+        <v>-0.412179385270953</v>
       </c>
       <c r="AP47" t="n">
-        <v>-0.1333082795729156</v>
+        <v>-0.1569830163745423</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0</v>
+        <v>-0.04168729657875796</v>
       </c>
       <c r="AR47" t="n">
-        <v>-0.2400456336084297</v>
+        <v>-0.4053454594631835</v>
       </c>
       <c r="AS47" t="n">
-        <v>-0.1355932203389831</v>
+        <v>-0.2405846078239122</v>
       </c>
       <c r="AT47" t="n">
-        <v>0</v>
+        <v>-0.01801480157350374</v>
       </c>
       <c r="AU47" t="n">
-        <v>0.1637426900584802</v>
+        <v>0.1926147743781923</v>
       </c>
       <c r="AV47" t="n">
-        <v>-0.2634551939025862</v>
+        <v>-0.1454738364086136</v>
       </c>
       <c r="AW47" t="n">
         <v>0</v>
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.04461459224905492</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -7690,10 +7690,10 @@
         <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W48" t="n">
         <v>1</v>
@@ -7708,70 +7708,70 @@
         <v>1</v>
       </c>
       <c r="AA48" t="n">
-        <v>-0.8571428571428281</v>
+        <v>-0.6630362378058202</v>
       </c>
       <c r="AB48" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC48" t="n">
-        <v>-1.671641791044776</v>
+        <v>-0.9442908993521416</v>
       </c>
       <c r="AD48" t="n">
-        <v>-1.117647058823529</v>
+        <v>-0.907091046315701</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.3661971830985916</v>
+        <v>0.4252770388766151</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.1976207817431414</v>
+        <v>0.1452517892345841</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.6823208842499762</v>
+        <v>0.1534753955753705</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.8273381294964027</v>
+        <v>0.3350866233756182</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.6072477962781587</v>
+        <v>0.6725938556026918</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.6461538461538459</v>
+        <v>0.2374982673240878</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.8306010928961749</v>
+        <v>0.7057822224151113</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.2588235294117647</v>
+        <v>-0.002300851123556633</v>
       </c>
       <c r="AM48" t="n">
-        <v>1.101478837327894</v>
+        <v>0.8515014265015716</v>
       </c>
       <c r="AN48" t="n">
-        <v>1.604938271604938</v>
+        <v>0.9500595952988182</v>
       </c>
       <c r="AO48" t="n">
-        <v>-1.336238198983299</v>
+        <v>-0.9045475521306673</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.4051532588886233</v>
+        <v>0.5086549874001718</v>
       </c>
       <c r="AQ48" t="n">
-        <v>-1.599190283400812</v>
+        <v>-0.9367118964162537</v>
       </c>
       <c r="AR48" t="n">
-        <v>0.4658367193327469</v>
+        <v>0.3551012930116476</v>
       </c>
       <c r="AS48" t="n">
-        <v>-0.9745762711864406</v>
+        <v>-0.8460495183571112</v>
       </c>
       <c r="AT48" t="n">
-        <v>-0.1746504955130816</v>
+        <v>-0.1704831344438959</v>
       </c>
       <c r="AU48" t="n">
-        <v>-0.1637426900584792</v>
+        <v>-0.1464940018626315</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.3951827908538793</v>
+        <v>0.4384109354364359</v>
       </c>
       <c r="AW48" t="n">
         <v>0</v>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8814230771304676</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -7841,10 +7841,10 @@
         <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W49" t="n">
         <v>1</v>
@@ -7859,70 +7859,70 @@
         <v>1</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB49" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.7761194029850746</v>
+        <v>0.5725399861244915</v>
       </c>
       <c r="AD49" t="n">
-        <v>-0.9411764705882353</v>
+        <v>-0.8569382616401012</v>
       </c>
       <c r="AE49" t="n">
-        <v>-1.014084507042254</v>
+        <v>-0.9338364569721807</v>
       </c>
       <c r="AF49" t="n">
-        <v>-0.1213886865744112</v>
+        <v>-0.2487467468185128</v>
       </c>
       <c r="AG49" t="n">
-        <v>1.087499999999999</v>
+        <v>0.3394244311658021</v>
       </c>
       <c r="AH49" t="n">
-        <v>-0.2482014388489208</v>
+        <v>-0.4267848277153032</v>
       </c>
       <c r="AI49" t="n">
-        <v>0.8031341821743389</v>
+        <v>0.8153934307896361</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0.9538461538461535</v>
+        <v>0.406647118572725</v>
       </c>
       <c r="AK49" t="n">
-        <v>-0.4131147540983608</v>
+        <v>-0.5553908916930795</v>
       </c>
       <c r="AL49" t="n">
-        <v>-0.8</v>
+        <v>-0.626295595599774</v>
       </c>
       <c r="AM49" t="n">
-        <v>0.05099439061703136</v>
+        <v>0.0487323415633933</v>
       </c>
       <c r="AN49" t="n">
-        <v>-0.9999999999999994</v>
+        <v>-0.7987296368313197</v>
       </c>
       <c r="AO49" t="n">
-        <v>-0.04357298474945498</v>
+        <v>0.02270104356007853</v>
       </c>
       <c r="AP49" t="n">
-        <v>-0.2871544334190696</v>
+        <v>-0.3485385773099998</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.1619433198380591</v>
+        <v>0.1265993495300602</v>
       </c>
       <c r="AR49" t="n">
-        <v>-0.1584517057146916</v>
+        <v>-0.3251593842554198</v>
       </c>
       <c r="AS49" t="n">
-        <v>-0.6440677966101694</v>
+        <v>-0.6907820508228857</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.9605777253219469</v>
+        <v>0.6803655503368918</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.8421052631578955</v>
+        <v>0.7185966084898194</v>
       </c>
       <c r="AV49" t="n">
-        <v>1.053820775610345</v>
+        <v>0.7957941938300231</v>
       </c>
       <c r="AW49" t="n">
         <v>0</v>
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.8333333333333334</v>
+        <v>-0.727147421426668</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -7992,10 +7992,10 @@
         <v>1</v>
       </c>
       <c r="U50" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -8010,70 +8010,70 @@
         <v>1</v>
       </c>
       <c r="AA50" t="n">
-        <v>-0.2857142857142828</v>
+        <v>-0.3942989012316988</v>
       </c>
       <c r="AB50" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC50" t="n">
-        <v>-0.7164179104477612</v>
+        <v>-0.6798950196938849</v>
       </c>
       <c r="AD50" t="n">
-        <v>1.235294117647059</v>
+        <v>0.9128764497732167</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.5915492957746479</v>
+        <v>0.6661442102159916</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.06916423146301175</v>
+        <v>-0.01492784832664473</v>
       </c>
       <c r="AG50" t="n">
-        <v>1.599999999999999</v>
+        <v>0.5404760797609255</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.2159993867320664</v>
+        <v>-0.1083089753334026</v>
       </c>
       <c r="AI50" t="n">
-        <v>-0.0195886385896176</v>
+        <v>-0.2282827297201071</v>
       </c>
       <c r="AJ50" t="n">
-        <v>-0.8153846153846152</v>
+        <v>-0.5769266727286216</v>
       </c>
       <c r="AK50" t="n">
-        <v>0.1035486175954513</v>
+        <v>-0.0009903891342119538</v>
       </c>
       <c r="AL50" t="n">
-        <v>-0.7458823529411766</v>
+        <v>-0.6029906224908432</v>
       </c>
       <c r="AM50" t="n">
-        <v>-0.2549719530851605</v>
+        <v>-0.2954041552559368</v>
       </c>
       <c r="AN50" t="n">
-        <v>2.345679012345677</v>
+        <v>0.9903557393430427</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>0.07378601657198885</v>
       </c>
       <c r="AP50" t="n">
-        <v>-1.479462125726762</v>
+        <v>-0.9608069486694363</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2.024291497975709</v>
+        <v>0.9686972346526281</v>
       </c>
       <c r="AR50" t="n">
-        <v>0</v>
+        <v>-0.1562453656223505</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.07067100185827715</v>
+        <v>-0.0003576369613046643</v>
       </c>
       <c r="AT50" t="n">
-        <v>-0.02655236803033087</v>
+        <v>-0.04142828809637467</v>
       </c>
       <c r="AU50" t="n">
-        <v>0.108097664775387</v>
+        <v>0.1359891478504872</v>
       </c>
       <c r="AV50" t="n">
-        <v>-0.3213804278230641</v>
+        <v>-0.1981025279380833</v>
       </c>
       <c r="AW50" t="n">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3751105745702884</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -8143,10 +8143,10 @@
         <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W51" t="n">
         <v>1</v>
@@ -8161,70 +8161,70 @@
         <v>1</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.8571428571428281</v>
+        <v>0.3326315889680917</v>
       </c>
       <c r="AB51" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.6927823969143417</v>
       </c>
       <c r="AC51" t="n">
-        <v>-0.4776119402985075</v>
+        <v>-0.5313933961425944</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6530935473076807</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.02816901408450704</v>
+        <v>-0.07026101321281987</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.2801650886137411</v>
+        <v>0.2448068800464474</v>
       </c>
       <c r="AG51" t="n">
-        <v>-0.1000000000000001</v>
+        <v>-0.2251152471249691</v>
       </c>
       <c r="AH51" t="n">
-        <v>-0.5125899280575539</v>
+        <v>-0.5741702937119032</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.3036238981390794</v>
+        <v>0.298540365330986</v>
       </c>
       <c r="AJ51" t="n">
-        <v>-0.4538461538461537</v>
+        <v>-0.4096752211965776</v>
       </c>
       <c r="AK51" t="n">
-        <v>-0.3672131147540983</v>
+        <v>-0.5158021493349587</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.06277175780714501</v>
       </c>
       <c r="AM51" t="n">
-        <v>0.9178990311065769</v>
+        <v>0.7816662533090406</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.04938271604938273</v>
+        <v>0.08402691628036986</v>
       </c>
       <c r="AO51" t="n">
-        <v>0.2759622367465517</v>
+        <v>0.3784803068545349</v>
       </c>
       <c r="AP51" t="n">
-        <v>-0.171769818034455</v>
+        <v>-0.2066446783819817</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.1417004048582974</v>
+        <v>0.1057610681561716</v>
       </c>
       <c r="AR51" t="n">
-        <v>0.293161197511115</v>
+        <v>0.1734802278986435</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.7457627118644068</v>
+        <v>0.6649498263853753</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.1164336636753871</v>
+        <v>0.08454591407964407</v>
       </c>
       <c r="AU51" t="n">
-        <v>-0.2222222222222217</v>
+        <v>-0.2057558092256851</v>
       </c>
       <c r="AV51" t="n">
-        <v>0.1756367959350575</v>
+        <v>0.2586585199637427</v>
       </c>
       <c r="AW51" t="n">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.6063612540679829</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -8294,10 +8294,10 @@
         <v>1</v>
       </c>
       <c r="U52" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W52" t="n">
         <v>1</v>
@@ -8312,70 +8312,70 @@
         <v>1</v>
       </c>
       <c r="AA52" t="n">
-        <v>-0.8571428571428281</v>
+        <v>-0.6630362378058202</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>-0.2165464576904686</v>
       </c>
       <c r="AC52" t="n">
-        <v>-1.194029850746269</v>
+        <v>-0.8623875709269057</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.09294579147272516</v>
       </c>
       <c r="AE52" t="n">
-        <v>1.464788732394366</v>
+        <v>0.9736830168321277</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.885748968196164</v>
+        <v>0.7657207574781029</v>
       </c>
       <c r="AG52" t="n">
-        <v>-0.7624999999999998</v>
+        <v>-0.5035123959930993</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.6384892086330936</v>
+        <v>0.2043691188551734</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.7992164544564153</v>
+        <v>0.8131868859938024</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.2507692307692308</v>
+        <v>-0.001343042946415525</v>
       </c>
       <c r="AK52" t="n">
-        <v>0.05530054644808746</v>
+        <v>-0.0592999908301803</v>
       </c>
       <c r="AL52" t="n">
-        <v>-0.9764705882352941</v>
+        <v>-0.6949485333376462</v>
       </c>
       <c r="AM52" t="n">
-        <v>1.077001529831717</v>
+        <v>0.8435421116819714</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.9382716049382713</v>
+        <v>0.7943746544615785</v>
       </c>
       <c r="AO52" t="n">
-        <v>1.230210602759624</v>
+        <v>0.9086806344128202</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.9436147973501605</v>
+        <v>0.856516674710473</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.4838056680161918</v>
+        <v>0.4326540515587979</v>
       </c>
       <c r="AR52" t="n">
-        <v>-0.5740114780107067</v>
+        <v>-0.669114262213118</v>
       </c>
       <c r="AS52" t="n">
-        <v>-0.6864406779661016</v>
+        <v>-0.7161946290112173</v>
       </c>
       <c r="AT52" t="n">
-        <v>-0.6258309422552073</v>
+        <v>-0.5156372026371359</v>
       </c>
       <c r="AU52" t="n">
-        <v>-0.4327485380116955</v>
+        <v>-0.4044708441866849</v>
       </c>
       <c r="AV52" t="n">
-        <v>-0.6586379847564655</v>
+        <v>-0.475054897534686</v>
       </c>
       <c r="AW52" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.5</v>
+        <v>-0.4491586645508897</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -8445,10 +8445,10 @@
         <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W53" t="n">
         <v>1</v>
@@ -8463,70 +8463,70 @@
         <v>1</v>
       </c>
       <c r="AA53" t="n">
-        <v>-0.2857142857142828</v>
+        <v>-0.3942989012316988</v>
       </c>
       <c r="AB53" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC53" t="n">
-        <v>-1.194029850746269</v>
+        <v>-0.8623875709269057</v>
       </c>
       <c r="AD53" t="n">
-        <v>-0.9411764705882353</v>
+        <v>-0.8569382616401012</v>
       </c>
       <c r="AE53" t="n">
-        <v>-0.6197183098591549</v>
+        <v>-0.7915828108848876</v>
       </c>
       <c r="AF53" t="n">
-        <v>-0.1903374605486768</v>
+        <v>-0.3280204968667745</v>
       </c>
       <c r="AG53" t="n">
-        <v>-0.7249999999999999</v>
+        <v>-0.4896548749577982</v>
       </c>
       <c r="AH53" t="n">
-        <v>-0.3615107913669064</v>
+        <v>-0.4935286215299782</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.4603330068560236</v>
+        <v>0.515268810300603</v>
       </c>
       <c r="AJ53" t="n">
-        <v>-0.5153846153846152</v>
+        <v>-0.4407120452080556</v>
       </c>
       <c r="AK53" t="n">
-        <v>-0.5267759562841531</v>
+        <v>-0.6432343183425927</v>
       </c>
       <c r="AL53" t="n">
-        <v>-0.7200000000000001</v>
+        <v>-0.5914644624436055</v>
       </c>
       <c r="AM53" t="n">
-        <v>0.2243753187149408</v>
+        <v>0.243926432445521</v>
       </c>
       <c r="AN53" t="n">
-        <v>0.1604938271604942</v>
+        <v>0.2060997015733096</v>
       </c>
       <c r="AO53" t="n">
-        <v>0.6245461147421936</v>
+        <v>0.6684899170901075</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.7128455665809296</v>
+        <v>0.7495328886089965</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.5465587044534392</v>
+        <v>0.4843426829501924</v>
       </c>
       <c r="AR53" t="n">
-        <v>-0.8074080624509344</v>
+        <v>-0.7909945236707666</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.03648182405414582</v>
       </c>
       <c r="AT53" t="n">
-        <v>-0.4948430706203966</v>
+        <v>-0.4258103342951581</v>
       </c>
       <c r="AU53" t="n">
-        <v>-0.6198830409356723</v>
+        <v>-0.5544322433679861</v>
       </c>
       <c r="AV53" t="n">
-        <v>-0.4390919898376437</v>
+        <v>-0.3013344329436807</v>
       </c>
       <c r="AW53" t="n">
         <v>0</v>
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.5</v>
+        <v>-0.9468733427412582</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -8596,10 +8596,10 @@
         <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V54" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
@@ -8614,70 +8614,70 @@
         <v>1</v>
       </c>
       <c r="AA54" t="n">
-        <v>-1.428571428571394</v>
+        <v>-0.8273079885582806</v>
       </c>
       <c r="AB54" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.5373134328358209</v>
+        <v>0.3922525295685405</v>
       </c>
       <c r="AD54" t="n">
-        <v>1.352941176470588</v>
+        <v>0.9350690365578885</v>
       </c>
       <c r="AE54" t="n">
-        <v>1.126760563380282</v>
+        <v>0.9266612563153381</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.5064336003884438</v>
+        <v>0.488320318922987</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.3920816452894223</v>
+        <v>0.0123320638463962</v>
       </c>
       <c r="AH54" t="n">
-        <v>-0.2158273381294964</v>
+        <v>-0.4067768648255964</v>
       </c>
       <c r="AI54" t="n">
-        <v>0.5054018281595161</v>
+        <v>0.5684402258372813</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0.2588689307412483</v>
+        <v>0.003644455813366829</v>
       </c>
       <c r="AK54" t="n">
-        <v>0.4043715846994536</v>
+        <v>0.3478535427696605</v>
       </c>
       <c r="AL54" t="n">
-        <v>0.2830602706610658</v>
+        <v>0.01447661332457226</v>
       </c>
       <c r="AM54" t="n">
-        <v>0.8134781267088597</v>
+        <v>0.7301658422073262</v>
       </c>
       <c r="AN54" t="n">
-        <v>-1.246913580246912</v>
+        <v>-0.8792788964268209</v>
       </c>
       <c r="AO54" t="n">
-        <v>-0.392156862745099</v>
+        <v>-0.3687869713001699</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.05899941273477602</v>
+        <v>0.09824919473760473</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.761133603238865</v>
+        <v>0.9464001794550518</v>
       </c>
       <c r="AR54" t="n">
-        <v>0.8548310267331263</v>
+        <v>0.6711565085238812</v>
       </c>
       <c r="AS54" t="n">
-        <v>-0.1271186440677966</v>
+        <v>-0.23107703081587</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.3056383671478923</v>
+        <v>0.2465548270238103</v>
       </c>
       <c r="AU54" t="n">
-        <v>0.6315789473684211</v>
+        <v>0.5944304504736606</v>
       </c>
       <c r="AV54" t="n">
-        <v>0.1756367959350575</v>
+        <v>0.2586585199637427</v>
       </c>
       <c r="AW54" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.04461459224905492</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -8747,10 +8747,10 @@
         <v>1</v>
       </c>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -8765,70 +8765,70 @@
         <v>1</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB55" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.1791044776119403</v>
+        <v>-0.2876867274308847</v>
       </c>
       <c r="AD55" t="n">
-        <v>-0.5294117647058824</v>
+        <v>-0.6333637802239471</v>
       </c>
       <c r="AE55" t="n">
-        <v>-0.1971830985915493</v>
+        <v>-0.3969636347806481</v>
       </c>
       <c r="AF55" t="n">
-        <v>-0.895848506919155</v>
+        <v>-0.8414262932007547</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.1499999999999998</v>
+        <v>-0.1060107874170692</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.6348920863309352</v>
+        <v>-0.6322792203826155</v>
       </c>
       <c r="AI55" t="n">
-        <v>-0.8521057786483831</v>
+        <v>-0.9252083889548726</v>
       </c>
       <c r="AJ55" t="n">
-        <v>-0.7615384615384614</v>
+        <v>-0.554383084646949</v>
       </c>
       <c r="AK55" t="n">
-        <v>-0.9486338797814208</v>
+        <v>-0.8549080600836989</v>
       </c>
       <c r="AL55" t="n">
-        <v>0.1176470588235294</v>
+        <v>-0.09970139682386368</v>
       </c>
       <c r="AM55" t="n">
-        <v>-0.1835798062213159</v>
+        <v>-0.2184733132216792</v>
       </c>
       <c r="AN55" t="n">
-        <v>-0.7283950617283944</v>
+        <v>-0.6583285470504687</v>
       </c>
       <c r="AO55" t="n">
-        <v>-1.365286855482936</v>
+        <v>-0.9105664180218876</v>
       </c>
       <c r="AP55" t="n">
-        <v>-0.7486928949575316</v>
+        <v>-0.7531703082896906</v>
       </c>
       <c r="AQ55" t="n">
-        <v>-1.19433198380567</v>
+        <v>-0.8586124485723446</v>
       </c>
       <c r="AR55" t="n">
-        <v>0.3159315959930883</v>
+        <v>0.1984331850365799</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.8305084745762712</v>
+        <v>0.7174212280222565</v>
       </c>
       <c r="AT55" t="n">
-        <v>-2.212239609832362</v>
+        <v>-0.9618868528248417</v>
       </c>
       <c r="AU55" t="n">
-        <v>-2.023391812865496</v>
+        <v>-0.9700459358682454</v>
       </c>
       <c r="AV55" t="n">
-        <v>-2.195459949188218</v>
+        <v>-0.9607619360283628</v>
       </c>
       <c r="AW55" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.25</v>
+        <v>-0.1531794064600764</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -8898,10 +8898,10 @@
         <v>1</v>
       </c>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
@@ -8916,70 +8916,70 @@
         <v>1</v>
       </c>
       <c r="AA56" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB56" t="n">
-        <v>-1.666666666666667</v>
+        <v>-0.9471334110778097</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.5074626865671642</v>
+        <v>-0.5523029767884853</v>
       </c>
       <c r="AD56" t="n">
-        <v>-1.117647058823529</v>
+        <v>-0.907091046315701</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.05633802816901409</v>
+        <v>-0.02666284810745959</v>
       </c>
       <c r="AF56" t="n">
-        <v>-0.1320708909929594</v>
+        <v>-0.2612810459045158</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.01250000000000001</v>
+        <v>-0.1721249253873684</v>
       </c>
       <c r="AH56" t="n">
-        <v>1.039568345323741</v>
+        <v>0.4678357374706966</v>
       </c>
       <c r="AI56" t="n">
-        <v>0.4211557296767877</v>
+        <v>0.4655600755663025</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.4307692307692307</v>
+        <v>0.1090592512544686</v>
       </c>
       <c r="AK56" t="n">
-        <v>2.310382513661202</v>
+        <v>0.9904395326014431</v>
       </c>
       <c r="AL56" t="n">
-        <v>0.3764705882352941</v>
+        <v>0.07897838458109989</v>
       </c>
       <c r="AM56" t="n">
-        <v>0.4181540030596633</v>
+        <v>0.4403527526329423</v>
       </c>
       <c r="AN56" t="n">
-        <v>1.666666666666666</v>
+        <v>0.9563882293261332</v>
       </c>
       <c r="AO56" t="n">
-        <v>-0.05809731299927469</v>
+        <v>0.00563307886547384</v>
       </c>
       <c r="AP56" t="n">
-        <v>-1.479462125726762</v>
+        <v>-0.9608069486694363</v>
       </c>
       <c r="AQ56" t="n">
-        <v>-0.05263157894736661</v>
+        <v>-0.09633476126299509</v>
       </c>
       <c r="AR56" t="n">
-        <v>1.397525523886827</v>
+        <v>0.8914401995831623</v>
       </c>
       <c r="AS56" t="n">
-        <v>-0.1271186440677966</v>
+        <v>-0.23107703081587</v>
       </c>
       <c r="AT56" t="n">
-        <v>-0.5093972785798202</v>
+        <v>-0.4362690772809963</v>
       </c>
       <c r="AU56" t="n">
-        <v>-0.2573099415204675</v>
+        <v>-0.2406305823117048</v>
       </c>
       <c r="AV56" t="n">
-        <v>-0.5269103878051724</v>
+        <v>-0.374135723611679</v>
       </c>
       <c r="AW56" t="n">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.04461459224905492</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -9049,10 +9049,10 @@
         <v>1</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
@@ -9067,70 +9067,70 @@
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>-0.2857142857142828</v>
+        <v>-0.3942989012316988</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.09629910126970252</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.4776119402985075</v>
+        <v>-0.5313933961425944</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6070836794470845</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.4507042253521127</v>
+        <v>0.5264636057376119</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.6203447438698712</v>
+        <v>0.5894435758896943</v>
       </c>
       <c r="AG57" t="n">
-        <v>-0.4875</v>
+        <v>-0.3961806456589078</v>
       </c>
       <c r="AH57" t="n">
-        <v>4.618705035971223</v>
+        <v>0.9965781123563471</v>
       </c>
       <c r="AI57" t="n">
-        <v>0.1919686581782566</v>
+        <v>0.1206785653002902</v>
       </c>
       <c r="AJ57" t="n">
-        <v>-0.2115384615384615</v>
+        <v>-0.2784639849378665</v>
       </c>
       <c r="AK57" t="n">
-        <v>0.3723536934894709</v>
+        <v>0.3133525609000918</v>
       </c>
       <c r="AL57" t="n">
-        <v>-1.352470588235294</v>
+        <v>-0.8067879486280461</v>
       </c>
       <c r="AM57" t="n">
-        <v>0.03977562468128509</v>
+        <v>0.03580324442766637</v>
       </c>
       <c r="AN57" t="n">
-        <v>0.1728395061728396</v>
+        <v>0.2193459728256311</v>
       </c>
       <c r="AO57" t="n">
-        <v>-0.01597676107480023</v>
+        <v>0.05508555630273312</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.1743840281193924</v>
+        <v>0.2474387338369968</v>
       </c>
       <c r="AQ57" t="n">
-        <v>-0.008097165991901226</v>
+        <v>-0.05011912931145121</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.181206738308079</v>
+        <v>0.8285010261276764</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.4067796610169492</v>
+        <v>0.3790341882822222</v>
       </c>
       <c r="AT57" t="n">
-        <v>-2.008480698400434</v>
+        <v>-0.9458357233235506</v>
       </c>
       <c r="AU57" t="n">
-        <v>-1.637426900584795</v>
+        <v>-0.9340563136931543</v>
       </c>
       <c r="AV57" t="n">
-        <v>-2.063732352236925</v>
+        <v>-0.9500569762460873</v>
       </c>
       <c r="AW57" t="n">
         <v>0</v>
@@ -9149,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.854436136604922</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -9200,10 +9200,10 @@
         <v>1</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V58" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W58" t="n">
         <v>1</v>
@@ -9218,70 +9218,70 @@
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>-0.2857142857142828</v>
+        <v>-0.3942989012316988</v>
       </c>
       <c r="AB58" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.1791044776119403</v>
+        <v>0.05913939379463752</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1679916014787453</v>
       </c>
       <c r="AE58" t="n">
-        <v>0.5070422535211268</v>
+        <v>0.5867240905374487</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.04564214615197851</v>
+        <v>-0.04442036596923379</v>
       </c>
       <c r="AG58" t="n">
-        <v>0.2374999999999999</v>
+        <v>-0.06340587235627901</v>
       </c>
       <c r="AH58" t="n">
-        <v>-0.4244604316546763</v>
+        <v>-0.5283122031249642</v>
       </c>
       <c r="AI58" t="n">
-        <v>1.234084231145935</v>
+        <v>0.9529834145025823</v>
       </c>
       <c r="AJ58" t="n">
-        <v>-0.5846153846153844</v>
+        <v>-0.4744085934634377</v>
       </c>
       <c r="AK58" t="n">
-        <v>-0.3628415300546447</v>
+        <v>-0.511909320107735</v>
       </c>
       <c r="AL58" t="n">
-        <v>0.1759816329220518</v>
+        <v>-0.05957954702750787</v>
       </c>
       <c r="AM58" t="n">
-        <v>2.202957674655786</v>
+        <v>0.9874708587775546</v>
       </c>
       <c r="AN58" t="n">
-        <v>0.6049382716049376</v>
+        <v>0.6097798594141335</v>
       </c>
       <c r="AO58" t="n">
-        <v>0.348583877995644</v>
+        <v>0.4491569805926832</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.05899941273477602</v>
+        <v>0.09824919473760473</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.3238866396761124</v>
+        <v>0.2879009878237535</v>
       </c>
       <c r="AR58" t="n">
-        <v>-0.577806544424369</v>
+        <v>-0.6714866870928705</v>
       </c>
       <c r="AS58" t="n">
-        <v>-1.589830508474576</v>
+        <v>-0.9620690169912643</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.513637627780037</v>
+        <v>0.8662677176460399</v>
       </c>
       <c r="AU58" t="n">
-        <v>1.099415204678363</v>
+        <v>0.8255273886612187</v>
       </c>
       <c r="AV58" t="n">
-        <v>1.273366770529167</v>
+        <v>0.8598134965214176</v>
       </c>
       <c r="AW58" t="n">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.083333333333333</v>
+        <v>-0.8488151745662359</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -9351,10 +9351,10 @@
         <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
@@ -9369,70 +9369,70 @@
         <v>1</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.5714285714285656</v>
+        <v>0.1538859316630882</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.09629910126970252</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.5074626865671642</v>
+        <v>0.3669164464584096</v>
       </c>
       <c r="AD59" t="n">
-        <v>-0.05882352941176471</v>
+        <v>-0.1351071038832349</v>
       </c>
       <c r="AE59" t="n">
-        <v>-0.4788732394366197</v>
+        <v>-0.6947695336074844</v>
       </c>
       <c r="AF59" t="n">
-        <v>0.1976207817431414</v>
+        <v>0.1452517892345841</v>
       </c>
       <c r="AG59" t="n">
-        <v>0.3749999999999999</v>
+        <v>0.003953962284000745</v>
       </c>
       <c r="AH59" t="n">
-        <v>-0.2338129496402877</v>
+        <v>-0.4179422894706763</v>
       </c>
       <c r="AI59" t="n">
-        <v>0.6366307541625854</v>
+        <v>0.6986110750695915</v>
       </c>
       <c r="AJ59" t="n">
-        <v>0.3846153846153845</v>
+        <v>0.08089762604299473</v>
       </c>
       <c r="AK59" t="n">
-        <v>0.7431693989071039</v>
+        <v>0.648635012493965</v>
       </c>
       <c r="AL59" t="n">
-        <v>-0.9882352941176471</v>
+        <v>-0.6991357785369839</v>
       </c>
       <c r="AM59" t="n">
-        <v>0.2447730749617539</v>
+        <v>0.2659445152439379</v>
       </c>
       <c r="AN59" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.1659232504647783</v>
       </c>
       <c r="AO59" t="n">
-        <v>-0.435729847494554</v>
+        <v>-0.412179385270953</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.7897686435040066</v>
+        <v>0.7911999239560921</v>
       </c>
       <c r="AQ59" t="n">
-        <v>-1.012145748987855</v>
+        <v>-0.7997515100915767</v>
       </c>
       <c r="AR59" t="n">
-        <v>-0.9041822559993217</v>
+        <v>-0.8286894162749506</v>
       </c>
       <c r="AS59" t="n">
-        <v>-0.1186440677966102</v>
+        <v>-0.2215251155089792</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.9483244019660343</v>
+        <v>0.6745140378698956</v>
       </c>
       <c r="AU59" t="n">
-        <v>0.4678362573099419</v>
+        <v>0.4724240754384482</v>
       </c>
       <c r="AV59" t="n">
-        <v>0.8781839796752874</v>
+        <v>0.7271080074537948</v>
       </c>
       <c r="AW59" t="n">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>0.1730960220394006</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -9502,10 +9502,10 @@
         <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W60" t="n">
         <v>1</v>
@@ -9520,70 +9520,70 @@
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0</v>
+        <v>-0.2224327634367947</v>
       </c>
       <c r="AB60" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4904540556231677</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.05970149253731343</v>
+        <v>-0.05913939379463752</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.378880928951338</v>
       </c>
       <c r="AE60" t="n">
-        <v>-0.1408450704225352</v>
+        <v>-0.3208764067892132</v>
       </c>
       <c r="AF60" t="n">
-        <v>-0.6860888565185723</v>
+        <v>-0.7455169006618583</v>
       </c>
       <c r="AG60" t="n">
-        <v>-0.6249999999999998</v>
+        <v>-0.4514781712561577</v>
       </c>
       <c r="AH60" t="n">
-        <v>-0.4028776978417266</v>
+        <v>-0.5165751759105669</v>
       </c>
       <c r="AI60" t="n">
-        <v>0</v>
+        <v>-0.1970216089853091</v>
       </c>
       <c r="AJ60" t="n">
-        <v>-0.8046153846153845</v>
+        <v>-0.572485624534716</v>
       </c>
       <c r="AK60" t="n">
-        <v>-0.7256830601092897</v>
+        <v>-0.7634129588857937</v>
       </c>
       <c r="AL60" t="n">
-        <v>1.390588235294117</v>
+        <v>0.6533898259359908</v>
       </c>
       <c r="AM60" t="n">
-        <v>0.1407445181030088</v>
+        <v>0.1512215393778467</v>
       </c>
       <c r="AN60" t="n">
-        <v>-0.3703703703703699</v>
+        <v>-0.3692047788001549</v>
       </c>
       <c r="AO60" t="n">
-        <v>0.2904865649963693</v>
+        <v>0.3930113204131966</v>
       </c>
       <c r="AP60" t="n">
-        <v>-0.171769818034455</v>
+        <v>-0.2066446783819817</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.4048582995951419</v>
+        <v>0.3633785074093264</v>
       </c>
       <c r="AR60" t="n">
-        <v>0.357677326543373</v>
+        <v>0.2434983192349618</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.983050847457627</v>
+        <v>0.9789413673181018</v>
       </c>
       <c r="AT60" t="n">
-        <v>-1.309878716348109</v>
+        <v>-0.8255893410288752</v>
       </c>
       <c r="AU60" t="n">
-        <v>-1.099415204678362</v>
+        <v>-0.8097947857254106</v>
       </c>
       <c r="AV60" t="n">
-        <v>-1.361185168496695</v>
+        <v>-0.8257004957960966</v>
       </c>
       <c r="AW60" t="n">
         <v>0</v>
